--- a/src/main/resources/data/ICU-Transliterations.xlsx
+++ b/src/main/resources/data/ICU-Transliterations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmekonnen/git/Xliterator/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmekonnen/git/Xliterator/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCE5322-6F1D-9A40-A7E3-569F1B4AF05A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8E36F3-6F18-2F48-A992-F7E19041E5D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4027,11 +4027,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S354"/>
+  <dimension ref="A1:K354"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="W1" sqref="W1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4046,14 +4046,9 @@
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="45" customWidth="1"/>
     <col min="11" max="11" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33" customWidth="1"/>
-    <col min="13" max="13" width="40.1640625" customWidth="1"/>
-    <col min="14" max="14" width="38.83203125" customWidth="1"/>
-    <col min="15" max="15" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="47.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>786</v>
       </c>
@@ -4088,7 +4083,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>542</v>
       </c>
@@ -4114,7 +4109,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>348</v>
       </c>
@@ -4140,7 +4135,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>744</v>
       </c>
@@ -4166,7 +4161,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -4186,7 +4181,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -4206,7 +4201,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>563</v>
       </c>
@@ -4232,7 +4227,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>559</v>
       </c>
@@ -4255,7 +4250,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>561</v>
       </c>
@@ -4278,7 +4273,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>557</v>
       </c>
@@ -4303,12 +4298,8 @@
       <c r="J10" t="s">
         <v>980</v>
       </c>
-      <c r="S10">
-        <f>IF((O10&lt;&gt;", "),O10,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>565</v>
       </c>
@@ -4333,12 +4324,8 @@
       <c r="J11" t="s">
         <v>1040</v>
       </c>
-      <c r="S11">
-        <f t="shared" ref="S11:S71" si="0">IF((O11&lt;&gt;", "),O11,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>553</v>
       </c>
@@ -4360,12 +4347,8 @@
       <c r="J12" t="s">
         <v>979</v>
       </c>
-      <c r="S12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>549</v>
       </c>
@@ -4384,12 +4367,8 @@
       <c r="J13" t="s">
         <v>977</v>
       </c>
-      <c r="S13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>551</v>
       </c>
@@ -4409,7 +4388,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>547</v>
       </c>
@@ -4431,12 +4410,8 @@
       <c r="J15" t="s">
         <v>976</v>
       </c>
-      <c r="S15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>555</v>
       </c>
@@ -4458,12 +4433,8 @@
       <c r="J16" t="s">
         <v>1040</v>
       </c>
-      <c r="S16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -4482,12 +4453,8 @@
       <c r="G17" t="s">
         <v>21</v>
       </c>
-      <c r="S17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -4506,12 +4473,8 @@
       <c r="J18" t="s">
         <v>829</v>
       </c>
-      <c r="S18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -4530,12 +4493,8 @@
       <c r="J19" t="s">
         <v>830</v>
       </c>
-      <c r="S19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -4554,12 +4513,8 @@
       <c r="J20" t="s">
         <v>831</v>
       </c>
-      <c r="S20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -4578,12 +4533,8 @@
       <c r="J21" t="s">
         <v>832</v>
       </c>
-      <c r="S21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -4600,7 +4551,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -4620,7 +4571,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -4640,7 +4591,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -4659,12 +4610,8 @@
       <c r="J25" t="s">
         <v>835</v>
       </c>
-      <c r="S25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -4683,12 +4630,8 @@
       <c r="J26" t="s">
         <v>836</v>
       </c>
-      <c r="S26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -4707,12 +4650,8 @@
       <c r="J27" t="s">
         <v>837</v>
       </c>
-      <c r="S27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -4731,12 +4670,8 @@
       <c r="J28" t="s">
         <v>838</v>
       </c>
-      <c r="S28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -4755,12 +4690,8 @@
       <c r="J29" t="s">
         <v>839</v>
       </c>
-      <c r="S29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>626</v>
       </c>
@@ -4783,7 +4714,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>622</v>
       </c>
@@ -4802,12 +4733,8 @@
       <c r="J31" t="s">
         <v>997</v>
       </c>
-      <c r="S31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>633</v>
       </c>
@@ -4832,12 +4759,8 @@
       <c r="K32" t="s">
         <v>815</v>
       </c>
-      <c r="S32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>624</v>
       </c>
@@ -4856,12 +4779,8 @@
       <c r="J33" t="s">
         <v>998</v>
       </c>
-      <c r="S33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>619</v>
       </c>
@@ -4883,12 +4802,8 @@
       <c r="J34" t="s">
         <v>996</v>
       </c>
-      <c r="S34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>628</v>
       </c>
@@ -4910,12 +4825,8 @@
       <c r="J35" t="s">
         <v>1040</v>
       </c>
-      <c r="S35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>630</v>
       </c>
@@ -4934,12 +4845,8 @@
       <c r="J36" t="s">
         <v>1040</v>
       </c>
-      <c r="S36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>461</v>
       </c>
@@ -4962,7 +4869,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>439</v>
       </c>
@@ -4988,7 +4895,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>442</v>
       </c>
@@ -5014,7 +4921,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>445</v>
       </c>
@@ -5040,7 +4947,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -5063,7 +4970,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -5086,7 +4993,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -5109,7 +5016,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>235</v>
       </c>
@@ -5131,12 +5038,8 @@
       <c r="G44" t="s">
         <v>237</v>
       </c>
-      <c r="S44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>238</v>
       </c>
@@ -5158,12 +5061,8 @@
       <c r="G45" t="s">
         <v>240</v>
       </c>
-      <c r="S45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>290</v>
       </c>
@@ -5188,12 +5087,8 @@
       <c r="J46" t="s">
         <v>1040</v>
       </c>
-      <c r="S46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>319</v>
       </c>
@@ -5218,12 +5113,8 @@
       <c r="J47" t="s">
         <v>1040</v>
       </c>
-      <c r="S47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>616</v>
       </c>
@@ -5249,7 +5140,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>683</v>
       </c>
@@ -5277,12 +5168,8 @@
       <c r="K49" t="s">
         <v>821</v>
       </c>
-      <c r="S49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>681</v>
       </c>
@@ -5304,12 +5191,8 @@
       <c r="J50" t="s">
         <v>1040</v>
       </c>
-      <c r="S50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>353</v>
       </c>
@@ -5334,12 +5217,8 @@
       <c r="J51" t="s">
         <v>1040</v>
       </c>
-      <c r="S51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>356</v>
       </c>
@@ -5364,12 +5243,8 @@
       <c r="J52" t="s">
         <v>1040</v>
       </c>
-      <c r="S52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>421</v>
       </c>
@@ -5394,12 +5269,8 @@
       <c r="J53" t="s">
         <v>1040</v>
       </c>
-      <c r="S53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>424</v>
       </c>
@@ -5424,12 +5295,8 @@
       <c r="J54" t="s">
         <v>1040</v>
       </c>
-      <c r="S54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>427</v>
       </c>
@@ -5454,12 +5321,8 @@
       <c r="J55" t="s">
         <v>1040</v>
       </c>
-      <c r="S55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>753</v>
       </c>
@@ -5487,12 +5350,8 @@
       <c r="J56" t="s">
         <v>1040</v>
       </c>
-      <c r="S56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -5511,12 +5370,8 @@
       <c r="H57" t="s">
         <v>73</v>
       </c>
-      <c r="S57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>74</v>
       </c>
@@ -5535,12 +5390,8 @@
       <c r="J58" t="s">
         <v>840</v>
       </c>
-      <c r="S58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>76</v>
       </c>
@@ -5559,12 +5410,8 @@
       <c r="J59" t="s">
         <v>841</v>
       </c>
-      <c r="S59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -5584,7 +5431,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>80</v>
       </c>
@@ -5603,12 +5450,8 @@
       <c r="J61" t="s">
         <v>843</v>
       </c>
-      <c r="S61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>82</v>
       </c>
@@ -5627,12 +5470,8 @@
       <c r="J62" t="s">
         <v>844</v>
       </c>
-      <c r="S62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>83</v>
       </c>
@@ -5648,12 +5487,8 @@
       <c r="G63" t="s">
         <v>84</v>
       </c>
-      <c r="S63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>85</v>
       </c>
@@ -5672,12 +5507,8 @@
       <c r="J64" t="s">
         <v>845</v>
       </c>
-      <c r="S64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>87</v>
       </c>
@@ -5696,12 +5527,8 @@
       <c r="J65" t="s">
         <v>846</v>
       </c>
-      <c r="S65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>89</v>
       </c>
@@ -5720,12 +5547,8 @@
       <c r="J66" t="s">
         <v>847</v>
       </c>
-      <c r="S66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>91</v>
       </c>
@@ -5744,12 +5567,8 @@
       <c r="J67" t="s">
         <v>848</v>
       </c>
-      <c r="S67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>93</v>
       </c>
@@ -5768,12 +5587,8 @@
       <c r="J68" t="s">
         <v>849</v>
       </c>
-      <c r="S68">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>95</v>
       </c>
@@ -5793,7 +5608,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>316</v>
       </c>
@@ -5815,12 +5630,8 @@
       <c r="J70" t="s">
         <v>1040</v>
       </c>
-      <c r="S70">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>437</v>
       </c>
@@ -5845,12 +5656,8 @@
       <c r="J71" t="s">
         <v>947</v>
       </c>
-      <c r="S71">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>433</v>
       </c>
@@ -5873,7 +5680,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>435</v>
       </c>
@@ -5896,7 +5703,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>430</v>
       </c>
@@ -5925,7 +5732,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -5947,12 +5754,8 @@
       <c r="G75" t="s">
         <v>4</v>
       </c>
-      <c r="S75">
-        <f t="shared" ref="S75:S138" si="1">IF((O75&lt;&gt;", "),O75,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>102</v>
       </c>
@@ -5972,7 +5775,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>105</v>
       </c>
@@ -5992,7 +5795,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>107</v>
       </c>
@@ -6012,7 +5815,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>110</v>
       </c>
@@ -6035,7 +5838,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>490</v>
       </c>
@@ -6061,7 +5864,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>492</v>
       </c>
@@ -6087,7 +5890,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>494</v>
       </c>
@@ -6113,7 +5916,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>117</v>
       </c>
@@ -6136,7 +5939,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>113</v>
       </c>
@@ -6156,7 +5959,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>121</v>
       </c>
@@ -6176,7 +5979,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>123</v>
       </c>
@@ -6196,7 +5999,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>125</v>
       </c>
@@ -6216,7 +6019,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>127</v>
       </c>
@@ -6236,7 +6039,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>129</v>
       </c>
@@ -6252,12 +6055,8 @@
       <c r="I89" t="s">
         <v>42</v>
       </c>
-      <c r="S89">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>130</v>
       </c>
@@ -6276,12 +6075,8 @@
       <c r="J90" t="s">
         <v>855</v>
       </c>
-      <c r="S90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>132</v>
       </c>
@@ -6300,12 +6095,8 @@
       <c r="J91" t="s">
         <v>856</v>
       </c>
-      <c r="S91">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>134</v>
       </c>
@@ -6324,12 +6115,8 @@
       <c r="J92" t="s">
         <v>857</v>
       </c>
-      <c r="S92">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>136</v>
       </c>
@@ -6348,12 +6135,8 @@
       <c r="J93" t="s">
         <v>858</v>
       </c>
-      <c r="S93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>138</v>
       </c>
@@ -6372,12 +6155,8 @@
       <c r="J94" t="s">
         <v>859</v>
       </c>
-      <c r="S94">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>140</v>
       </c>
@@ -6397,7 +6176,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>142</v>
       </c>
@@ -6416,12 +6195,8 @@
       <c r="J96" t="s">
         <v>861</v>
       </c>
-      <c r="S96">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>144</v>
       </c>
@@ -6440,12 +6215,8 @@
       <c r="J97" t="s">
         <v>862</v>
       </c>
-      <c r="S97">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>146</v>
       </c>
@@ -6464,12 +6235,8 @@
       <c r="J98" t="s">
         <v>863</v>
       </c>
-      <c r="S98">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>148</v>
       </c>
@@ -6488,12 +6255,8 @@
       <c r="J99" t="s">
         <v>864</v>
       </c>
-      <c r="S99">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>150</v>
       </c>
@@ -6512,12 +6275,8 @@
       <c r="J100" t="s">
         <v>865</v>
       </c>
-      <c r="S100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>152</v>
       </c>
@@ -6533,12 +6292,8 @@
       <c r="I101" t="s">
         <v>42</v>
       </c>
-      <c r="S101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>153</v>
       </c>
@@ -6558,7 +6313,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>155</v>
       </c>
@@ -6578,7 +6333,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>157</v>
       </c>
@@ -6598,7 +6353,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>159</v>
       </c>
@@ -6618,7 +6373,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>161</v>
       </c>
@@ -6638,7 +6393,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>163</v>
       </c>
@@ -6658,7 +6413,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>165</v>
       </c>
@@ -6677,12 +6432,8 @@
       <c r="J108" t="s">
         <v>872</v>
       </c>
-      <c r="S108">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>167</v>
       </c>
@@ -6705,7 +6456,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>359</v>
       </c>
@@ -6734,7 +6485,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>171</v>
       </c>
@@ -6750,12 +6501,8 @@
       <c r="G111" t="s">
         <v>172</v>
       </c>
-      <c r="S111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>173</v>
       </c>
@@ -6775,7 +6522,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>208</v>
       </c>
@@ -6797,12 +6544,8 @@
       <c r="J113" t="s">
         <v>875</v>
       </c>
-      <c r="S113">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>241</v>
       </c>
@@ -6821,12 +6564,8 @@
       <c r="G114" t="s">
         <v>242</v>
       </c>
-      <c r="S114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>175</v>
       </c>
@@ -6845,12 +6584,8 @@
       <c r="J115" t="s">
         <v>875</v>
       </c>
-      <c r="S115">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>178</v>
       </c>
@@ -6869,12 +6604,8 @@
       <c r="G116" t="s">
         <v>180</v>
       </c>
-      <c r="S116">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>181</v>
       </c>
@@ -6893,12 +6624,8 @@
       <c r="H117" t="s">
         <v>183</v>
       </c>
-      <c r="S117">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>184</v>
       </c>
@@ -6917,12 +6644,8 @@
       <c r="H118" t="s">
         <v>188</v>
       </c>
-      <c r="S118">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>189</v>
       </c>
@@ -6944,12 +6667,8 @@
       <c r="J119" t="s">
         <v>876</v>
       </c>
-      <c r="S119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>196</v>
       </c>
@@ -6965,12 +6684,8 @@
       <c r="I120" t="s">
         <v>42</v>
       </c>
-      <c r="S120">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>197</v>
       </c>
@@ -6986,12 +6701,8 @@
       <c r="I121" t="s">
         <v>42</v>
       </c>
-      <c r="S121">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>198</v>
       </c>
@@ -7007,12 +6718,8 @@
       <c r="I122" t="s">
         <v>42</v>
       </c>
-      <c r="S122">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>199</v>
       </c>
@@ -7028,12 +6735,8 @@
       <c r="I123" t="s">
         <v>42</v>
       </c>
-      <c r="S123">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>200</v>
       </c>
@@ -7049,12 +6752,8 @@
       <c r="I124" t="s">
         <v>42</v>
       </c>
-      <c r="S124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>201</v>
       </c>
@@ -7070,12 +6769,8 @@
       <c r="I125" t="s">
         <v>42</v>
       </c>
-      <c r="S125">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>202</v>
       </c>
@@ -7091,12 +6786,8 @@
       <c r="I126" t="s">
         <v>42</v>
       </c>
-      <c r="S126">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>203</v>
       </c>
@@ -7112,12 +6803,8 @@
       <c r="I127" t="s">
         <v>42</v>
       </c>
-      <c r="S127">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>204</v>
       </c>
@@ -7133,12 +6820,8 @@
       <c r="I128" t="s">
         <v>42</v>
       </c>
-      <c r="S128">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>205</v>
       </c>
@@ -7154,12 +6837,8 @@
       <c r="I129" t="s">
         <v>42</v>
       </c>
-      <c r="S129">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>206</v>
       </c>
@@ -7175,12 +6854,8 @@
       <c r="I130" t="s">
         <v>42</v>
       </c>
-      <c r="S130">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>207</v>
       </c>
@@ -7196,12 +6871,8 @@
       <c r="I131" t="s">
         <v>42</v>
       </c>
-      <c r="S131">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>480</v>
       </c>
@@ -7223,12 +6894,8 @@
       <c r="J132" t="s">
         <v>1040</v>
       </c>
-      <c r="S132">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>478</v>
       </c>
@@ -7250,12 +6917,8 @@
       <c r="J133" t="s">
         <v>1040</v>
       </c>
-      <c r="S133">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>654</v>
       </c>
@@ -7277,12 +6940,8 @@
       <c r="J134" t="s">
         <v>1040</v>
       </c>
-      <c r="S134">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>679</v>
       </c>
@@ -7304,12 +6963,8 @@
       <c r="J135" t="s">
         <v>1040</v>
       </c>
-      <c r="S135">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>723</v>
       </c>
@@ -7331,12 +6986,8 @@
       <c r="J136" t="s">
         <v>1040</v>
       </c>
-      <c r="S136">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>534</v>
       </c>
@@ -7361,12 +7012,8 @@
       <c r="J137" t="s">
         <v>974</v>
       </c>
-      <c r="S137">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>540</v>
       </c>
@@ -7391,12 +7038,8 @@
       <c r="J138" t="s">
         <v>1040</v>
       </c>
-      <c r="S138">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>536</v>
       </c>
@@ -7421,12 +7064,8 @@
       <c r="J139" t="s">
         <v>975</v>
       </c>
-      <c r="S139">
-        <f t="shared" ref="S139:S202" si="2">IF((O139&lt;&gt;", "),O139,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>538</v>
       </c>
@@ -7448,12 +7087,8 @@
       <c r="J140" t="s">
         <v>1040</v>
       </c>
-      <c r="S140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>192</v>
       </c>
@@ -7475,12 +7110,8 @@
       <c r="H141" t="s">
         <v>195</v>
       </c>
-      <c r="S141">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>210</v>
       </c>
@@ -7499,12 +7130,8 @@
       <c r="J142" t="s">
         <v>877</v>
       </c>
-      <c r="S142">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>212</v>
       </c>
@@ -7523,12 +7150,8 @@
       <c r="J143" t="s">
         <v>878</v>
       </c>
-      <c r="S143">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>214</v>
       </c>
@@ -7547,12 +7170,8 @@
       <c r="J144" t="s">
         <v>879</v>
       </c>
-      <c r="S144">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>216</v>
       </c>
@@ -7571,12 +7190,8 @@
       <c r="J145" t="s">
         <v>880</v>
       </c>
-      <c r="S145">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>218</v>
       </c>
@@ -7595,12 +7210,8 @@
       <c r="J146" t="s">
         <v>881</v>
       </c>
-      <c r="S146">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>220</v>
       </c>
@@ -7616,12 +7227,8 @@
       <c r="I147" t="s">
         <v>42</v>
       </c>
-      <c r="S147">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>221</v>
       </c>
@@ -7640,12 +7247,8 @@
       <c r="J148" t="s">
         <v>882</v>
       </c>
-      <c r="S148">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>223</v>
       </c>
@@ -7664,12 +7267,8 @@
       <c r="J149" t="s">
         <v>883</v>
       </c>
-      <c r="S149">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>225</v>
       </c>
@@ -7688,12 +7287,8 @@
       <c r="J150" t="s">
         <v>884</v>
       </c>
-      <c r="S150">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>227</v>
       </c>
@@ -7712,12 +7307,8 @@
       <c r="J151" t="s">
         <v>885</v>
       </c>
-      <c r="S151">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>229</v>
       </c>
@@ -7736,12 +7327,8 @@
       <c r="J152" t="s">
         <v>886</v>
       </c>
-      <c r="S152">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>231</v>
       </c>
@@ -7760,12 +7347,8 @@
       <c r="J153" t="s">
         <v>887</v>
       </c>
-      <c r="S153">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>97</v>
       </c>
@@ -7790,12 +7373,8 @@
       <c r="H154" t="s">
         <v>101</v>
       </c>
-      <c r="S154">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>233</v>
       </c>
@@ -7815,12 +7394,8 @@
       <c r="G155" t="s">
         <v>234</v>
       </c>
-      <c r="S155">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>593</v>
       </c>
@@ -7842,12 +7417,8 @@
       <c r="J156" t="s">
         <v>991</v>
       </c>
-      <c r="S156">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>589</v>
       </c>
@@ -7866,12 +7437,8 @@
       <c r="J157" t="s">
         <v>989</v>
       </c>
-      <c r="S157">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>591</v>
       </c>
@@ -7890,12 +7457,8 @@
       <c r="J158" t="s">
         <v>990</v>
       </c>
-      <c r="S158">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>587</v>
       </c>
@@ -7917,12 +7480,8 @@
       <c r="J159" t="s">
         <v>988</v>
       </c>
-      <c r="S159">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>595</v>
       </c>
@@ -7944,12 +7503,8 @@
       <c r="J160" t="s">
         <v>1040</v>
       </c>
-      <c r="S160">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>603</v>
       </c>
@@ -7971,12 +7526,8 @@
       <c r="J161" t="s">
         <v>995</v>
       </c>
-      <c r="S161">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>599</v>
       </c>
@@ -7995,12 +7546,8 @@
       <c r="J162" t="s">
         <v>993</v>
       </c>
-      <c r="S162">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>601</v>
       </c>
@@ -8019,12 +7566,8 @@
       <c r="J163" t="s">
         <v>994</v>
       </c>
-      <c r="S163">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>597</v>
       </c>
@@ -8046,12 +7589,8 @@
       <c r="J164" t="s">
         <v>992</v>
       </c>
-      <c r="S164">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>605</v>
       </c>
@@ -8073,12 +7612,8 @@
       <c r="J165" t="s">
         <v>1040</v>
       </c>
-      <c r="S165">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>5</v>
       </c>
@@ -8103,12 +7638,8 @@
       <c r="H166" t="s">
         <v>8</v>
       </c>
-      <c r="S166">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>9</v>
       </c>
@@ -8133,12 +7664,8 @@
       <c r="H167" t="s">
         <v>11</v>
       </c>
-      <c r="S167">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>459</v>
       </c>
@@ -8163,12 +7690,8 @@
       <c r="J168" t="s">
         <v>951</v>
       </c>
-      <c r="S168">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>453</v>
       </c>
@@ -8190,12 +7713,8 @@
       <c r="J169" t="s">
         <v>949</v>
       </c>
-      <c r="S169">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>457</v>
       </c>
@@ -8217,12 +7736,8 @@
       <c r="J170" t="s">
         <v>950</v>
       </c>
-      <c r="S170">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>450</v>
       </c>
@@ -8247,12 +7762,8 @@
       <c r="J171" t="s">
         <v>948</v>
       </c>
-      <c r="S171">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>455</v>
       </c>
@@ -8277,12 +7788,8 @@
       <c r="J172" t="s">
         <v>1040</v>
       </c>
-      <c r="S172">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>472</v>
       </c>
@@ -8307,12 +7814,8 @@
       <c r="J173" t="s">
         <v>956</v>
       </c>
-      <c r="S173">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>466</v>
       </c>
@@ -8334,12 +7837,8 @@
       <c r="J174" t="s">
         <v>953</v>
       </c>
-      <c r="S174">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>468</v>
       </c>
@@ -8361,12 +7860,8 @@
       <c r="J175" t="s">
         <v>954</v>
       </c>
-      <c r="S175">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>463</v>
       </c>
@@ -8391,12 +7886,8 @@
       <c r="J176" t="s">
         <v>952</v>
       </c>
-      <c r="S176">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>476</v>
       </c>
@@ -8418,12 +7909,8 @@
       <c r="J177" t="s">
         <v>958</v>
       </c>
-      <c r="S177">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>470</v>
       </c>
@@ -8445,12 +7932,8 @@
       <c r="J178" t="s">
         <v>955</v>
       </c>
-      <c r="S178">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>474</v>
       </c>
@@ -8472,12 +7955,8 @@
       <c r="J179" t="s">
         <v>957</v>
       </c>
-      <c r="S179">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>635</v>
       </c>
@@ -8502,12 +7981,8 @@
       <c r="J180" t="s">
         <v>1040</v>
       </c>
-      <c r="S180">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>505</v>
       </c>
@@ -8532,12 +8007,8 @@
       <c r="J181" t="s">
         <v>1040</v>
       </c>
-      <c r="S181">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>499</v>
       </c>
@@ -8559,12 +8030,8 @@
       <c r="J182" t="s">
         <v>960</v>
       </c>
-      <c r="S182">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>501</v>
       </c>
@@ -8586,12 +8053,8 @@
       <c r="J183" t="s">
         <v>961</v>
       </c>
-      <c r="S183">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>496</v>
       </c>
@@ -8616,12 +8079,8 @@
       <c r="J184" t="s">
         <v>959</v>
       </c>
-      <c r="S184">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>503</v>
       </c>
@@ -8646,12 +8105,8 @@
       <c r="J185" t="s">
         <v>962</v>
       </c>
-      <c r="S185">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>485</v>
       </c>
@@ -8673,12 +8128,8 @@
       <c r="J186" t="s">
         <v>1040</v>
       </c>
-      <c r="S186">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>544</v>
       </c>
@@ -8703,12 +8154,8 @@
       <c r="J187" t="s">
         <v>1040</v>
       </c>
-      <c r="S187">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>574</v>
       </c>
@@ -8733,12 +8180,8 @@
       <c r="J188" t="s">
         <v>987</v>
       </c>
-      <c r="S188">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>570</v>
       </c>
@@ -8760,12 +8203,8 @@
       <c r="J189" t="s">
         <v>985</v>
       </c>
-      <c r="S189">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>572</v>
       </c>
@@ -8787,12 +8226,8 @@
       <c r="J190" t="s">
         <v>986</v>
       </c>
-      <c r="S190">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>567</v>
       </c>
@@ -8817,12 +8252,8 @@
       <c r="J191" t="s">
         <v>984</v>
       </c>
-      <c r="S191">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>576</v>
       </c>
@@ -8847,12 +8278,8 @@
       <c r="J192" t="s">
         <v>1040</v>
       </c>
-      <c r="S192">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>578</v>
       </c>
@@ -8877,12 +8304,8 @@
       <c r="J193" t="s">
         <v>1040</v>
       </c>
-      <c r="S193">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>581</v>
       </c>
@@ -8904,12 +8327,8 @@
       <c r="J194" t="s">
         <v>1040</v>
       </c>
-      <c r="S194">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>733</v>
       </c>
@@ -8934,12 +8353,8 @@
       <c r="J195" t="s">
         <v>1030</v>
       </c>
-      <c r="S195">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>729</v>
       </c>
@@ -8961,12 +8376,8 @@
       <c r="J196" t="s">
         <v>1028</v>
       </c>
-      <c r="S196">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>731</v>
       </c>
@@ -8988,12 +8399,8 @@
       <c r="J197" t="s">
         <v>1029</v>
       </c>
-      <c r="S197">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>727</v>
       </c>
@@ -9018,12 +8425,8 @@
       <c r="J198" t="s">
         <v>1027</v>
       </c>
-      <c r="S198">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>735</v>
       </c>
@@ -9045,12 +8448,8 @@
       <c r="J199" t="s">
         <v>1040</v>
       </c>
-      <c r="S199">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>609</v>
       </c>
@@ -9075,12 +8474,8 @@
       <c r="J200" t="s">
         <v>1040</v>
       </c>
-      <c r="S200">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>612</v>
       </c>
@@ -9105,12 +8500,8 @@
       <c r="J201" t="s">
         <v>1040</v>
       </c>
-      <c r="S201">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>614</v>
       </c>
@@ -9135,12 +8526,8 @@
       <c r="J202" t="s">
         <v>1040</v>
       </c>
-      <c r="S202">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>488</v>
       </c>
@@ -9162,12 +8549,8 @@
       <c r="J203" t="s">
         <v>1040</v>
       </c>
-      <c r="S203">
-        <f t="shared" ref="S203:S266" si="3">IF((O203&lt;&gt;", "),O203,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>638</v>
       </c>
@@ -9192,12 +8575,8 @@
       <c r="J204" t="s">
         <v>1040</v>
       </c>
-      <c r="S204">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>772</v>
       </c>
@@ -9225,12 +8604,8 @@
       <c r="K205" t="s">
         <v>814</v>
       </c>
-      <c r="S205">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>351</v>
       </c>
@@ -9252,12 +8627,8 @@
       <c r="J206" t="s">
         <v>1040</v>
       </c>
-      <c r="S206">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>648</v>
       </c>
@@ -9282,12 +8653,8 @@
       <c r="J207" t="s">
         <v>1003</v>
       </c>
-      <c r="S207">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>644</v>
       </c>
@@ -9309,12 +8676,8 @@
       <c r="J208" t="s">
         <v>1001</v>
       </c>
-      <c r="S208">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>646</v>
       </c>
@@ -9336,12 +8699,8 @@
       <c r="J209" t="s">
         <v>1002</v>
       </c>
-      <c r="S209">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>641</v>
       </c>
@@ -9366,12 +8725,8 @@
       <c r="J210" t="s">
         <v>1000</v>
       </c>
-      <c r="S210">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>652</v>
       </c>
@@ -9396,12 +8751,8 @@
       <c r="J211" t="s">
         <v>1040</v>
       </c>
-      <c r="S211">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>650</v>
       </c>
@@ -9423,12 +8774,8 @@
       <c r="J212" t="s">
         <v>1004</v>
       </c>
-      <c r="S212">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>673</v>
       </c>
@@ -9453,12 +8800,8 @@
       <c r="J213" t="s">
         <v>1012</v>
       </c>
-      <c r="S213">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>669</v>
       </c>
@@ -9480,12 +8823,8 @@
       <c r="J214" t="s">
         <v>1010</v>
       </c>
-      <c r="S214">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>671</v>
       </c>
@@ -9507,12 +8846,8 @@
       <c r="J215" t="s">
         <v>1011</v>
       </c>
-      <c r="S215">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>666</v>
       </c>
@@ -9537,12 +8872,8 @@
       <c r="J216" t="s">
         <v>1009</v>
       </c>
-      <c r="S216">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>677</v>
       </c>
@@ -9567,12 +8898,8 @@
       <c r="J217" t="s">
         <v>1040</v>
       </c>
-      <c r="S217">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>675</v>
       </c>
@@ -9594,12 +8921,8 @@
       <c r="J218" t="s">
         <v>1013</v>
       </c>
-      <c r="S218">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>585</v>
       </c>
@@ -9627,12 +8950,8 @@
       <c r="K219" t="s">
         <v>817</v>
       </c>
-      <c r="S219">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>583</v>
       </c>
@@ -9657,12 +8976,8 @@
       <c r="K220" t="s">
         <v>818</v>
       </c>
-      <c r="S220">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>662</v>
       </c>
@@ -9687,12 +9002,8 @@
       <c r="J221" t="s">
         <v>1008</v>
       </c>
-      <c r="S221">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>658</v>
       </c>
@@ -9714,12 +9025,8 @@
       <c r="J222" t="s">
         <v>1006</v>
       </c>
-      <c r="S222">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>660</v>
       </c>
@@ -9741,12 +9048,8 @@
       <c r="J223" t="s">
         <v>1007</v>
       </c>
-      <c r="S223">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>656</v>
       </c>
@@ -9771,12 +9074,8 @@
       <c r="J224" t="s">
         <v>1005</v>
       </c>
-      <c r="S224">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>664</v>
       </c>
@@ -9801,12 +9100,8 @@
       <c r="J225" t="s">
         <v>1040</v>
       </c>
-      <c r="S225">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>685</v>
       </c>
@@ -9831,12 +9126,8 @@
       <c r="J226" t="s">
         <v>1040</v>
       </c>
-      <c r="S226">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>717</v>
       </c>
@@ -9861,12 +9152,8 @@
       <c r="J227" t="s">
         <v>1025</v>
       </c>
-      <c r="S227">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>713</v>
       </c>
@@ -9888,12 +9175,8 @@
       <c r="J228" t="s">
         <v>1023</v>
       </c>
-      <c r="S228">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>715</v>
       </c>
@@ -9915,12 +9198,8 @@
       <c r="J229" t="s">
         <v>1024</v>
       </c>
-      <c r="S229">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>710</v>
       </c>
@@ -9945,12 +9224,8 @@
       <c r="J230" t="s">
         <v>1022</v>
       </c>
-      <c r="S230">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>721</v>
       </c>
@@ -9975,12 +9250,8 @@
       <c r="J231" t="s">
         <v>1040</v>
       </c>
-      <c r="S231">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>719</v>
       </c>
@@ -10002,12 +9273,8 @@
       <c r="J232" t="s">
         <v>1026</v>
       </c>
-      <c r="S232">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>516</v>
       </c>
@@ -10032,12 +9299,8 @@
       <c r="J233" t="s">
         <v>967</v>
       </c>
-      <c r="S233">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>510</v>
       </c>
@@ -10059,12 +9322,8 @@
       <c r="J234" t="s">
         <v>964</v>
       </c>
-      <c r="S234">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>512</v>
       </c>
@@ -10086,12 +9345,8 @@
       <c r="J235" t="s">
         <v>965</v>
       </c>
-      <c r="S235">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>507</v>
       </c>
@@ -10116,12 +9371,8 @@
       <c r="J236" t="s">
         <v>963</v>
       </c>
-      <c r="S236">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>520</v>
       </c>
@@ -10146,12 +9397,8 @@
       <c r="J237" t="s">
         <v>969</v>
       </c>
-      <c r="S237">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>514</v>
       </c>
@@ -10176,12 +9423,8 @@
       <c r="J238" t="s">
         <v>966</v>
       </c>
-      <c r="S238">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>518</v>
       </c>
@@ -10203,12 +9446,8 @@
       <c r="J239" t="s">
         <v>968</v>
       </c>
-      <c r="S239">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>528</v>
       </c>
@@ -10233,12 +9472,8 @@
       <c r="J240" t="s">
         <v>972</v>
       </c>
-      <c r="S240">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>524</v>
       </c>
@@ -10260,12 +9495,8 @@
       <c r="J241" t="s">
         <v>971</v>
       </c>
-      <c r="S241">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>526</v>
       </c>
@@ -10287,12 +9518,8 @@
       <c r="J242" t="s">
         <v>969</v>
       </c>
-      <c r="S242">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>522</v>
       </c>
@@ -10317,12 +9544,8 @@
       <c r="J243" t="s">
         <v>970</v>
       </c>
-      <c r="S243">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>532</v>
       </c>
@@ -10347,12 +9570,8 @@
       <c r="J244" t="s">
         <v>969</v>
       </c>
-      <c r="S244">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>530</v>
       </c>
@@ -10374,12 +9593,8 @@
       <c r="J245" t="s">
         <v>973</v>
       </c>
-      <c r="S245">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>737</v>
       </c>
@@ -10404,12 +9619,8 @@
       <c r="J246" t="s">
         <v>1040</v>
       </c>
-      <c r="S246">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>740</v>
       </c>
@@ -10434,12 +9645,8 @@
       <c r="J247" t="s">
         <v>1040</v>
       </c>
-      <c r="S247">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>742</v>
       </c>
@@ -10464,12 +9671,8 @@
       <c r="J248" t="s">
         <v>1040</v>
       </c>
-      <c r="S248">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>756</v>
       </c>
@@ -10494,12 +9697,8 @@
       <c r="J249" t="s">
         <v>1040</v>
       </c>
-      <c r="S249">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>482</v>
       </c>
@@ -10524,12 +9723,8 @@
       <c r="J250" t="s">
         <v>1040</v>
       </c>
-      <c r="S250">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>765</v>
       </c>
@@ -10554,12 +9749,8 @@
       <c r="J251" t="s">
         <v>1034</v>
       </c>
-      <c r="S251">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>761</v>
       </c>
@@ -10581,12 +9772,8 @@
       <c r="J252" t="s">
         <v>1032</v>
       </c>
-      <c r="S252">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>763</v>
       </c>
@@ -10608,12 +9795,8 @@
       <c r="J253" t="s">
         <v>1033</v>
       </c>
-      <c r="S253">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>758</v>
       </c>
@@ -10638,12 +9821,8 @@
       <c r="J254" t="s">
         <v>1031</v>
       </c>
-      <c r="S254">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>767</v>
       </c>
@@ -10668,12 +9847,8 @@
       <c r="J255" t="s">
         <v>1040</v>
       </c>
-      <c r="S255">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>769</v>
       </c>
@@ -10698,12 +9873,8 @@
       <c r="J256" t="s">
         <v>1040</v>
       </c>
-      <c r="S256">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>781</v>
       </c>
@@ -10728,12 +9899,8 @@
       <c r="J257" t="s">
         <v>1038</v>
       </c>
-      <c r="S257">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>777</v>
       </c>
@@ -10755,12 +9922,8 @@
       <c r="J258" t="s">
         <v>1036</v>
       </c>
-      <c r="S258">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>779</v>
       </c>
@@ -10782,12 +9945,8 @@
       <c r="J259" t="s">
         <v>1037</v>
       </c>
-      <c r="S259">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>774</v>
       </c>
@@ -10812,12 +9971,8 @@
       <c r="J260" t="s">
         <v>1035</v>
       </c>
-      <c r="S260">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>783</v>
       </c>
@@ -10839,12 +9994,8 @@
       <c r="G261" t="s">
         <v>784</v>
       </c>
-      <c r="S261">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>246</v>
       </c>
@@ -10863,12 +10014,8 @@
       <c r="H262" t="s">
         <v>248</v>
       </c>
-      <c r="S262">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>243</v>
       </c>
@@ -10884,12 +10031,8 @@
       <c r="G263" t="s">
         <v>245</v>
       </c>
-      <c r="S263">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>249</v>
       </c>
@@ -10908,12 +10051,8 @@
       <c r="J264" t="s">
         <v>888</v>
       </c>
-      <c r="S264">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>251</v>
       </c>
@@ -10932,12 +10071,8 @@
       <c r="H265" t="s">
         <v>254</v>
       </c>
-      <c r="S265">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>256</v>
       </c>
@@ -10956,12 +10091,8 @@
       <c r="J266" t="s">
         <v>889</v>
       </c>
-      <c r="S266">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>258</v>
       </c>
@@ -10980,12 +10111,8 @@
       <c r="H267" t="s">
         <v>261</v>
       </c>
-      <c r="S267">
-        <f t="shared" ref="S267:S330" si="4">IF((O267&lt;&gt;", "),O267,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>262</v>
       </c>
@@ -11004,12 +10131,8 @@
       <c r="J268" t="s">
         <v>890</v>
       </c>
-      <c r="S268">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>264</v>
       </c>
@@ -11028,12 +10151,8 @@
       <c r="J269" t="s">
         <v>891</v>
       </c>
-      <c r="S269">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>255</v>
       </c>
@@ -11052,12 +10171,8 @@
       <c r="I270" t="s">
         <v>42</v>
       </c>
-      <c r="S270">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>269</v>
       </c>
@@ -11079,12 +10194,8 @@
       <c r="J271" t="s">
         <v>1040</v>
       </c>
-      <c r="S271">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>266</v>
       </c>
@@ -11103,12 +10214,8 @@
       <c r="J272" t="s">
         <v>892</v>
       </c>
-      <c r="S272">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>268</v>
       </c>
@@ -11127,12 +10234,8 @@
       <c r="J273" t="s">
         <v>1040</v>
       </c>
-      <c r="S273">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>607</v>
       </c>
@@ -11154,12 +10257,8 @@
       <c r="J274" t="s">
         <v>1040</v>
       </c>
-      <c r="S274">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>271</v>
       </c>
@@ -11178,12 +10277,8 @@
       <c r="J275" t="s">
         <v>893</v>
       </c>
-      <c r="S275">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>273</v>
       </c>
@@ -11205,12 +10300,8 @@
       <c r="J276" t="s">
         <v>1040</v>
       </c>
-      <c r="S276">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -11229,12 +10320,8 @@
       <c r="J277" t="s">
         <v>894</v>
       </c>
-      <c r="S277">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>281</v>
       </c>
@@ -11253,12 +10340,8 @@
       <c r="J278" t="s">
         <v>895</v>
       </c>
-      <c r="S278">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -11283,12 +10366,8 @@
       <c r="J279" t="s">
         <v>1040</v>
       </c>
-      <c r="S279">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>283</v>
       </c>
@@ -11307,12 +10386,8 @@
       <c r="J280" t="s">
         <v>896</v>
       </c>
-      <c r="S280">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>285</v>
       </c>
@@ -11331,12 +10406,8 @@
       <c r="J281" t="s">
         <v>897</v>
       </c>
-      <c r="S281">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>412</v>
       </c>
@@ -11358,12 +10429,8 @@
       <c r="J282" t="s">
         <v>1040</v>
       </c>
-      <c r="S282">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>287</v>
       </c>
@@ -11382,12 +10449,8 @@
       <c r="J283" t="s">
         <v>898</v>
       </c>
-      <c r="S283">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>293</v>
       </c>
@@ -11406,12 +10469,8 @@
       <c r="J284" t="s">
         <v>899</v>
       </c>
-      <c r="S284">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>295</v>
       </c>
@@ -11430,12 +10489,8 @@
       <c r="J285" t="s">
         <v>900</v>
       </c>
-      <c r="S285">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>297</v>
       </c>
@@ -11454,12 +10509,8 @@
       <c r="J286" t="s">
         <v>901</v>
       </c>
-      <c r="S286">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>299</v>
       </c>
@@ -11478,12 +10529,8 @@
       <c r="J287" t="s">
         <v>902</v>
       </c>
-      <c r="S287">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>301</v>
       </c>
@@ -11502,12 +10549,8 @@
       <c r="J288" t="s">
         <v>903</v>
       </c>
-      <c r="S288">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>303</v>
       </c>
@@ -11526,12 +10569,8 @@
       <c r="J289" t="s">
         <v>1040</v>
       </c>
-      <c r="S289">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>304</v>
       </c>
@@ -11550,12 +10589,8 @@
       <c r="J290" t="s">
         <v>904</v>
       </c>
-      <c r="S290">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>306</v>
       </c>
@@ -11574,12 +10609,8 @@
       <c r="J291" t="s">
         <v>905</v>
       </c>
-      <c r="S291">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>308</v>
       </c>
@@ -11598,12 +10629,8 @@
       <c r="J292" t="s">
         <v>906</v>
       </c>
-      <c r="S292">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>310</v>
       </c>
@@ -11622,12 +10649,8 @@
       <c r="J293" t="s">
         <v>907</v>
       </c>
-      <c r="S293">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>312</v>
       </c>
@@ -11646,12 +10669,8 @@
       <c r="J294" t="s">
         <v>908</v>
       </c>
-      <c r="S294">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>314</v>
       </c>
@@ -11670,12 +10689,8 @@
       <c r="J295" t="s">
         <v>909</v>
       </c>
-      <c r="S295">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>693</v>
       </c>
@@ -11697,12 +10712,8 @@
       <c r="J296" t="s">
         <v>1017</v>
       </c>
-      <c r="S296">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>689</v>
       </c>
@@ -11721,12 +10732,8 @@
       <c r="J297" t="s">
         <v>1015</v>
       </c>
-      <c r="S297">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>691</v>
       </c>
@@ -11745,12 +10752,8 @@
       <c r="J298" t="s">
         <v>1016</v>
       </c>
-      <c r="S298">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>687</v>
       </c>
@@ -11772,12 +10775,8 @@
       <c r="J299" t="s">
         <v>1014</v>
       </c>
-      <c r="S299">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>695</v>
       </c>
@@ -11799,12 +10798,8 @@
       <c r="J300" t="s">
         <v>1040</v>
       </c>
-      <c r="S300">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>322</v>
       </c>
@@ -11823,12 +10818,8 @@
       <c r="J301" t="s">
         <v>910</v>
       </c>
-      <c r="S301">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>324</v>
       </c>
@@ -11847,12 +10838,8 @@
       <c r="J302" t="s">
         <v>911</v>
       </c>
-      <c r="S302">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>326</v>
       </c>
@@ -11871,12 +10858,8 @@
       <c r="J303" t="s">
         <v>912</v>
       </c>
-      <c r="S303">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>328</v>
       </c>
@@ -11895,12 +10878,8 @@
       <c r="J304" t="s">
         <v>913</v>
       </c>
-      <c r="S304">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>330</v>
       </c>
@@ -11919,12 +10898,8 @@
       <c r="J305" t="s">
         <v>914</v>
       </c>
-      <c r="S305">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>332</v>
       </c>
@@ -11943,12 +10918,8 @@
       <c r="J306" t="s">
         <v>1040</v>
       </c>
-      <c r="S306">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>333</v>
       </c>
@@ -11967,12 +10938,8 @@
       <c r="J307" t="s">
         <v>915</v>
       </c>
-      <c r="S307">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>335</v>
       </c>
@@ -11991,12 +10958,8 @@
       <c r="J308" t="s">
         <v>916</v>
       </c>
-      <c r="S308">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>337</v>
       </c>
@@ -12015,12 +10978,8 @@
       <c r="J309" t="s">
         <v>917</v>
       </c>
-      <c r="S309">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>339</v>
       </c>
@@ -12039,12 +10998,8 @@
       <c r="J310" t="s">
         <v>918</v>
       </c>
-      <c r="S310">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>341</v>
       </c>
@@ -12063,12 +11018,8 @@
       <c r="J311" t="s">
         <v>919</v>
       </c>
-      <c r="S311">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>343</v>
       </c>
@@ -12087,12 +11038,8 @@
       <c r="J312" t="s">
         <v>920</v>
       </c>
-      <c r="S312">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>345</v>
       </c>
@@ -12114,12 +11061,8 @@
       <c r="J313" t="s">
         <v>1040</v>
       </c>
-      <c r="S313">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>704</v>
       </c>
@@ -12141,12 +11084,8 @@
       <c r="J314" t="s">
         <v>1021</v>
       </c>
-      <c r="S314">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>700</v>
       </c>
@@ -12165,12 +11104,8 @@
       <c r="J315" t="s">
         <v>1019</v>
       </c>
-      <c r="S315">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>702</v>
       </c>
@@ -12189,12 +11124,8 @@
       <c r="J316" t="s">
         <v>1020</v>
       </c>
-      <c r="S316">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>697</v>
       </c>
@@ -12216,12 +11147,8 @@
       <c r="J317" t="s">
         <v>1018</v>
       </c>
-      <c r="S317">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>706</v>
       </c>
@@ -12243,12 +11170,8 @@
       <c r="J318" t="s">
         <v>1040</v>
       </c>
-      <c r="S318">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>708</v>
       </c>
@@ -12267,12 +11190,8 @@
       <c r="J319" t="s">
         <v>1040</v>
       </c>
-      <c r="S319">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>362</v>
       </c>
@@ -12294,12 +11213,8 @@
       <c r="J320" t="s">
         <v>1040</v>
       </c>
-      <c r="S320">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>366</v>
       </c>
@@ -12318,12 +11233,8 @@
       <c r="J321" t="s">
         <v>921</v>
       </c>
-      <c r="S321">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>368</v>
       </c>
@@ -12342,12 +11253,8 @@
       <c r="J322" t="s">
         <v>922</v>
       </c>
-      <c r="S322">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>370</v>
       </c>
@@ -12366,12 +11273,8 @@
       <c r="J323" t="s">
         <v>923</v>
       </c>
-      <c r="S323">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>372</v>
       </c>
@@ -12390,12 +11293,8 @@
       <c r="J324" t="s">
         <v>924</v>
       </c>
-      <c r="S324">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>374</v>
       </c>
@@ -12414,12 +11313,8 @@
       <c r="J325" t="s">
         <v>925</v>
       </c>
-      <c r="S325">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>376</v>
       </c>
@@ -12438,12 +11333,8 @@
       <c r="J326" t="s">
         <v>1040</v>
       </c>
-      <c r="S326">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>725</v>
       </c>
@@ -12465,12 +11356,8 @@
       <c r="J327" t="s">
         <v>1040</v>
       </c>
-      <c r="S327">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>377</v>
       </c>
@@ -12489,12 +11376,8 @@
       <c r="J328" t="s">
         <v>926</v>
       </c>
-      <c r="S328">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>379</v>
       </c>
@@ -12513,12 +11396,8 @@
       <c r="J329" t="s">
         <v>927</v>
       </c>
-      <c r="S329">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>381</v>
       </c>
@@ -12537,12 +11416,8 @@
       <c r="J330" t="s">
         <v>928</v>
       </c>
-      <c r="S330">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>383</v>
       </c>
@@ -12561,12 +11436,8 @@
       <c r="J331" t="s">
         <v>929</v>
       </c>
-      <c r="S331">
-        <f t="shared" ref="S331:S353" si="5">IF((O331&lt;&gt;", "),O331,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>385</v>
       </c>
@@ -12585,12 +11456,8 @@
       <c r="J332" t="s">
         <v>930</v>
       </c>
-      <c r="S332">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>387</v>
       </c>
@@ -12609,12 +11476,8 @@
       <c r="J333" t="s">
         <v>931</v>
       </c>
-      <c r="S333">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>389</v>
       </c>
@@ -12633,12 +11496,8 @@
       <c r="J334" t="s">
         <v>932</v>
       </c>
-      <c r="S334">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>391</v>
       </c>
@@ -12657,12 +11516,8 @@
       <c r="J335" t="s">
         <v>933</v>
       </c>
-      <c r="S335">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>393</v>
       </c>
@@ -12681,12 +11536,8 @@
       <c r="J336" t="s">
         <v>934</v>
       </c>
-      <c r="S336">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>395</v>
       </c>
@@ -12705,12 +11556,8 @@
       <c r="J337" t="s">
         <v>935</v>
       </c>
-      <c r="S337">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>397</v>
       </c>
@@ -12729,12 +11576,8 @@
       <c r="J338" t="s">
         <v>1040</v>
       </c>
-      <c r="S338">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>399</v>
       </c>
@@ -12753,12 +11596,8 @@
       <c r="J339" t="s">
         <v>936</v>
       </c>
-      <c r="S339">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>400</v>
       </c>
@@ -12777,12 +11616,8 @@
       <c r="J340" t="s">
         <v>937</v>
       </c>
-      <c r="S340">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>402</v>
       </c>
@@ -12801,12 +11636,8 @@
       <c r="J341" t="s">
         <v>938</v>
       </c>
-      <c r="S341">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>404</v>
       </c>
@@ -12825,12 +11656,8 @@
       <c r="J342" t="s">
         <v>939</v>
       </c>
-      <c r="S342">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>406</v>
       </c>
@@ -12849,12 +11676,8 @@
       <c r="J343" t="s">
         <v>940</v>
       </c>
-      <c r="S343">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>408</v>
       </c>
@@ -12873,12 +11696,8 @@
       <c r="J344" t="s">
         <v>941</v>
       </c>
-      <c r="S344">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>410</v>
       </c>
@@ -12897,12 +11716,8 @@
       <c r="J345" t="s">
         <v>942</v>
       </c>
-      <c r="S345">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>420</v>
       </c>
@@ -12924,12 +11739,8 @@
       <c r="J346" t="s">
         <v>1040</v>
       </c>
-      <c r="S346">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>448</v>
       </c>
@@ -12954,12 +11765,8 @@
       <c r="J347" t="s">
         <v>1040</v>
       </c>
-      <c r="S347">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>416</v>
       </c>
@@ -12978,12 +11785,8 @@
       <c r="J348" t="s">
         <v>943</v>
       </c>
-      <c r="S348">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>418</v>
       </c>
@@ -13005,12 +11808,8 @@
       <c r="J349" t="s">
         <v>944</v>
       </c>
-      <c r="S349">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>419</v>
       </c>
@@ -13032,12 +11831,8 @@
       <c r="J350" t="s">
         <v>1040</v>
       </c>
-      <c r="S350">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>751</v>
       </c>
@@ -13059,12 +11854,8 @@
       <c r="J351" t="s">
         <v>1040</v>
       </c>
-      <c r="S351">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>747</v>
       </c>
@@ -13083,12 +11874,8 @@
       <c r="J352" t="s">
         <v>1040</v>
       </c>
-      <c r="S352">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>749</v>
       </c>
@@ -13107,12 +11894,8 @@
       <c r="J353" t="s">
         <v>1040</v>
       </c>
-      <c r="S353">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>66</v>
       </c>

--- a/src/main/resources/data/ICU-Transliterations.xlsx
+++ b/src/main/resources/data/ICU-Transliterations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmekonnen/git/Xliterator/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8E36F3-6F18-2F48-A992-F7E19041E5D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BACF29F-EFAC-AB46-ABA3-D70EC326951F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2380,9 +2380,6 @@
     <t>Visibility</t>
   </si>
   <si>
-    <t>File</t>
-  </si>
-  <si>
     <t>Script In</t>
   </si>
   <si>
@@ -3146,6 +3143,9 @@
   </si>
   <si>
     <t>Comment (Tooltip)</t>
+  </si>
+  <si>
+    <t>Path</t>
   </si>
 </sst>
 </file>
@@ -4029,9 +4029,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W1" sqref="W1:Z1048576"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4050,37 +4050,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>786</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>792</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>793</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>785</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -4094,7 +4094,7 @@
         <v>349</v>
       </c>
       <c r="D2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E2" t="s">
         <v>349</v>
@@ -4106,7 +4106,7 @@
         <v>543</v>
       </c>
       <c r="J2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -4132,7 +4132,7 @@
         <v>350</v>
       </c>
       <c r="J3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -4146,7 +4146,7 @@
         <v>745</v>
       </c>
       <c r="D4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E4" t="s">
         <v>745</v>
@@ -4158,7 +4158,7 @@
         <v>746</v>
       </c>
       <c r="J4" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -4209,7 +4209,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -4224,7 +4224,7 @@
         <v>564</v>
       </c>
       <c r="J7" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -4235,7 +4235,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -4247,7 +4247,7 @@
         <v>560</v>
       </c>
       <c r="J8" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -4258,10 +4258,10 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D9" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F9" t="s">
         <v>3</v>
@@ -4270,7 +4270,7 @@
         <v>562</v>
       </c>
       <c r="J9" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -4281,7 +4281,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D10" t="s">
         <v>259</v>
@@ -4296,7 +4296,7 @@
         <v>558</v>
       </c>
       <c r="J10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -4307,13 +4307,13 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D11" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E11" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F11" t="s">
         <v>3</v>
@@ -4322,7 +4322,7 @@
         <v>566</v>
       </c>
       <c r="J11" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -4345,7 +4345,7 @@
         <v>554</v>
       </c>
       <c r="J12" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -4365,7 +4365,7 @@
         <v>550</v>
       </c>
       <c r="J13" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -4376,7 +4376,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F14" t="s">
         <v>3</v>
@@ -4385,7 +4385,7 @@
         <v>552</v>
       </c>
       <c r="J14" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -4408,7 +4408,7 @@
         <v>548</v>
       </c>
       <c r="J15" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -4419,7 +4419,7 @@
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
@@ -4431,7 +4431,7 @@
         <v>556</v>
       </c>
       <c r="J16" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -4471,7 +4471,7 @@
         <v>30</v>
       </c>
       <c r="J18" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -4491,7 +4491,7 @@
         <v>33</v>
       </c>
       <c r="J19" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -4511,7 +4511,7 @@
         <v>36</v>
       </c>
       <c r="J20" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -4531,7 +4531,7 @@
         <v>39</v>
       </c>
       <c r="J21" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -4568,7 +4568,7 @@
         <v>45</v>
       </c>
       <c r="J23" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -4588,7 +4588,7 @@
         <v>47</v>
       </c>
       <c r="J24" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -4608,7 +4608,7 @@
         <v>50</v>
       </c>
       <c r="J25" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -4628,7 +4628,7 @@
         <v>53</v>
       </c>
       <c r="J26" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -4648,7 +4648,7 @@
         <v>56</v>
       </c>
       <c r="J27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -4668,7 +4668,7 @@
         <v>59</v>
       </c>
       <c r="J28" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -4688,7 +4688,7 @@
         <v>62</v>
       </c>
       <c r="J29" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -4711,7 +4711,7 @@
         <v>627</v>
       </c>
       <c r="J30" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -4731,7 +4731,7 @@
         <v>623</v>
       </c>
       <c r="J31" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -4754,10 +4754,10 @@
         <v>634</v>
       </c>
       <c r="J32" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="K32" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -4768,7 +4768,7 @@
         <v>620</v>
       </c>
       <c r="D33" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F33" t="s">
         <v>3</v>
@@ -4777,7 +4777,7 @@
         <v>625</v>
       </c>
       <c r="J33" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -4800,7 +4800,7 @@
         <v>621</v>
       </c>
       <c r="J34" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -4811,7 +4811,7 @@
         <v>620</v>
       </c>
       <c r="D35" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E35" t="s">
         <v>620</v>
@@ -4823,7 +4823,7 @@
         <v>629</v>
       </c>
       <c r="J35" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -4843,7 +4843,7 @@
         <v>632</v>
       </c>
       <c r="J36" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -4851,13 +4851,13 @@
         <v>461</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D37" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F37" t="s">
         <v>3</v>
@@ -4866,7 +4866,7 @@
         <v>462</v>
       </c>
       <c r="J37" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -4892,7 +4892,7 @@
         <v>441</v>
       </c>
       <c r="J38" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -4918,7 +4918,7 @@
         <v>444</v>
       </c>
       <c r="J39" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -4944,7 +4944,7 @@
         <v>447</v>
       </c>
       <c r="J40" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -5085,7 +5085,7 @@
         <v>292</v>
       </c>
       <c r="J46" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -5111,7 +5111,7 @@
         <v>321</v>
       </c>
       <c r="J47" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -5137,7 +5137,7 @@
         <v>618</v>
       </c>
       <c r="J48" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -5154,7 +5154,7 @@
         <v>168</v>
       </c>
       <c r="E49" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F49" t="s">
         <v>3</v>
@@ -5163,10 +5163,10 @@
         <v>684</v>
       </c>
       <c r="J49" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="K49" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -5189,7 +5189,7 @@
         <v>682</v>
       </c>
       <c r="J50" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -5215,7 +5215,7 @@
         <v>355</v>
       </c>
       <c r="J51" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -5241,7 +5241,7 @@
         <v>358</v>
       </c>
       <c r="J52" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -5267,7 +5267,7 @@
         <v>423</v>
       </c>
       <c r="J53" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -5293,7 +5293,7 @@
         <v>426</v>
       </c>
       <c r="J54" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -5319,7 +5319,7 @@
         <v>429</v>
       </c>
       <c r="J55" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -5348,7 +5348,7 @@
         <v>755</v>
       </c>
       <c r="J56" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -5388,7 +5388,7 @@
         <v>75</v>
       </c>
       <c r="J58" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -5408,7 +5408,7 @@
         <v>77</v>
       </c>
       <c r="J59" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -5428,7 +5428,7 @@
         <v>79</v>
       </c>
       <c r="J60" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -5448,7 +5448,7 @@
         <v>81</v>
       </c>
       <c r="J61" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -5468,7 +5468,7 @@
         <v>42</v>
       </c>
       <c r="J62" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -5505,7 +5505,7 @@
         <v>86</v>
       </c>
       <c r="J64" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -5525,7 +5525,7 @@
         <v>88</v>
       </c>
       <c r="J65" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -5545,7 +5545,7 @@
         <v>90</v>
       </c>
       <c r="J66" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -5565,7 +5565,7 @@
         <v>92</v>
       </c>
       <c r="J67" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -5585,7 +5585,7 @@
         <v>94</v>
       </c>
       <c r="J68" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -5605,7 +5605,7 @@
         <v>96</v>
       </c>
       <c r="J69" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -5628,7 +5628,7 @@
         <v>318</v>
       </c>
       <c r="J70" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -5654,7 +5654,7 @@
         <v>438</v>
       </c>
       <c r="J71" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -5677,7 +5677,7 @@
         <v>434</v>
       </c>
       <c r="J72" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -5691,7 +5691,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F73" t="s">
         <v>3</v>
@@ -5700,7 +5700,7 @@
         <v>436</v>
       </c>
       <c r="J73" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -5714,7 +5714,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E74" t="s">
         <v>1</v>
@@ -5729,7 +5729,7 @@
         <v>432</v>
       </c>
       <c r="J74" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -5786,7 +5786,7 @@
         <v>16</v>
       </c>
       <c r="E77" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F77" t="s">
         <v>3</v>
@@ -5823,7 +5823,7 @@
         <v>114</v>
       </c>
       <c r="C79" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D79" t="s">
         <v>16</v>
@@ -5861,7 +5861,7 @@
         <v>491</v>
       </c>
       <c r="J80" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -5887,7 +5887,7 @@
         <v>493</v>
       </c>
       <c r="J81" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
@@ -5913,7 +5913,7 @@
         <v>495</v>
       </c>
       <c r="J82" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
@@ -5976,7 +5976,7 @@
         <v>122</v>
       </c>
       <c r="J85" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
@@ -5996,7 +5996,7 @@
         <v>124</v>
       </c>
       <c r="J86" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
@@ -6016,7 +6016,7 @@
         <v>126</v>
       </c>
       <c r="J87" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
@@ -6036,7 +6036,7 @@
         <v>128</v>
       </c>
       <c r="J88" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
@@ -6073,7 +6073,7 @@
         <v>131</v>
       </c>
       <c r="J90" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
@@ -6093,7 +6093,7 @@
         <v>133</v>
       </c>
       <c r="J91" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
@@ -6113,7 +6113,7 @@
         <v>135</v>
       </c>
       <c r="J92" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
@@ -6133,7 +6133,7 @@
         <v>137</v>
       </c>
       <c r="J93" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
@@ -6153,7 +6153,7 @@
         <v>139</v>
       </c>
       <c r="J94" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
@@ -6173,7 +6173,7 @@
         <v>141</v>
       </c>
       <c r="J95" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
@@ -6193,7 +6193,7 @@
         <v>143</v>
       </c>
       <c r="J96" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
@@ -6213,7 +6213,7 @@
         <v>145</v>
       </c>
       <c r="J97" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
@@ -6233,7 +6233,7 @@
         <v>147</v>
       </c>
       <c r="J98" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
@@ -6253,7 +6253,7 @@
         <v>149</v>
       </c>
       <c r="J99" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
@@ -6273,7 +6273,7 @@
         <v>151</v>
       </c>
       <c r="J100" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
@@ -6310,7 +6310,7 @@
         <v>154</v>
       </c>
       <c r="J102" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
@@ -6330,7 +6330,7 @@
         <v>156</v>
       </c>
       <c r="J103" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
@@ -6350,7 +6350,7 @@
         <v>158</v>
       </c>
       <c r="J104" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
@@ -6370,7 +6370,7 @@
         <v>160</v>
       </c>
       <c r="J105" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
@@ -6390,7 +6390,7 @@
         <v>162</v>
       </c>
       <c r="J106" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
@@ -6410,7 +6410,7 @@
         <v>164</v>
       </c>
       <c r="J107" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
@@ -6430,7 +6430,7 @@
         <v>166</v>
       </c>
       <c r="J108" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
@@ -6453,7 +6453,7 @@
         <v>170</v>
       </c>
       <c r="J109" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
@@ -6464,13 +6464,13 @@
         <v>168</v>
       </c>
       <c r="C110" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D110" t="s">
         <v>168</v>
       </c>
       <c r="E110" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F110" t="s">
         <v>6</v>
@@ -6482,7 +6482,7 @@
         <v>361</v>
       </c>
       <c r="J110" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
@@ -6519,7 +6519,7 @@
         <v>42</v>
       </c>
       <c r="J112" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
@@ -6530,7 +6530,7 @@
         <v>176</v>
       </c>
       <c r="C113" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D113" t="s">
         <v>16</v>
@@ -6542,7 +6542,7 @@
         <v>209</v>
       </c>
       <c r="J113" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
@@ -6582,7 +6582,7 @@
         <v>177</v>
       </c>
       <c r="J115" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
@@ -6665,7 +6665,7 @@
         <v>191</v>
       </c>
       <c r="J119" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
@@ -6877,7 +6877,7 @@
         <v>480</v>
       </c>
       <c r="B132" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C132" t="s">
         <v>464</v>
@@ -6892,7 +6892,7 @@
         <v>481</v>
       </c>
       <c r="J132" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
@@ -6900,7 +6900,7 @@
         <v>478</v>
       </c>
       <c r="B133" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C133" t="s">
         <v>464</v>
@@ -6915,7 +6915,7 @@
         <v>479</v>
       </c>
       <c r="J133" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
@@ -6923,7 +6923,7 @@
         <v>654</v>
       </c>
       <c r="B134" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C134" t="s">
         <v>642</v>
@@ -6938,7 +6938,7 @@
         <v>655</v>
       </c>
       <c r="J134" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
@@ -6946,7 +6946,7 @@
         <v>679</v>
       </c>
       <c r="B135" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C135" t="s">
         <v>667</v>
@@ -6961,7 +6961,7 @@
         <v>680</v>
       </c>
       <c r="J135" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
@@ -6969,7 +6969,7 @@
         <v>723</v>
       </c>
       <c r="B136" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C136" t="s">
         <v>711</v>
@@ -6984,7 +6984,7 @@
         <v>724</v>
       </c>
       <c r="J136" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
@@ -6992,10 +6992,10 @@
         <v>534</v>
       </c>
       <c r="B137" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C137" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D137" t="s">
         <v>259</v>
@@ -7010,7 +7010,7 @@
         <v>535</v>
       </c>
       <c r="J137" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
@@ -7018,16 +7018,16 @@
         <v>540</v>
       </c>
       <c r="B138" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C138" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E138" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F138" t="s">
         <v>3</v>
@@ -7036,7 +7036,7 @@
         <v>541</v>
       </c>
       <c r="J138" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
@@ -7044,16 +7044,16 @@
         <v>536</v>
       </c>
       <c r="B139" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C139" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D139" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E139" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F139" t="s">
         <v>3</v>
@@ -7062,7 +7062,7 @@
         <v>537</v>
       </c>
       <c r="J139" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
@@ -7070,10 +7070,10 @@
         <v>538</v>
       </c>
       <c r="B140" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C140" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D140" t="s">
         <v>186</v>
@@ -7085,7 +7085,7 @@
         <v>539</v>
       </c>
       <c r="J140" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
@@ -7093,13 +7093,13 @@
         <v>192</v>
       </c>
       <c r="B141" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D141" t="s">
         <v>16</v>
       </c>
       <c r="E141" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F141" t="s">
         <v>6</v>
@@ -7128,7 +7128,7 @@
         <v>211</v>
       </c>
       <c r="J142" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
@@ -7148,7 +7148,7 @@
         <v>213</v>
       </c>
       <c r="J143" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
@@ -7168,7 +7168,7 @@
         <v>215</v>
       </c>
       <c r="J144" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
@@ -7188,7 +7188,7 @@
         <v>217</v>
       </c>
       <c r="J145" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
@@ -7208,7 +7208,7 @@
         <v>219</v>
       </c>
       <c r="J146" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
@@ -7245,7 +7245,7 @@
         <v>222</v>
       </c>
       <c r="J148" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
@@ -7265,7 +7265,7 @@
         <v>224</v>
       </c>
       <c r="J149" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
@@ -7285,7 +7285,7 @@
         <v>226</v>
       </c>
       <c r="J150" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
@@ -7305,7 +7305,7 @@
         <v>228</v>
       </c>
       <c r="J151" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
@@ -7325,7 +7325,7 @@
         <v>230</v>
       </c>
       <c r="J152" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
@@ -7345,7 +7345,7 @@
         <v>232</v>
       </c>
       <c r="J153" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
@@ -7415,7 +7415,7 @@
         <v>594</v>
       </c>
       <c r="J156" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
@@ -7435,7 +7435,7 @@
         <v>590</v>
       </c>
       <c r="J157" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
@@ -7446,7 +7446,7 @@
         <v>236</v>
       </c>
       <c r="D158" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F158" t="s">
         <v>3</v>
@@ -7455,7 +7455,7 @@
         <v>592</v>
       </c>
       <c r="J158" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
@@ -7478,7 +7478,7 @@
         <v>588</v>
       </c>
       <c r="J159" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
@@ -7489,7 +7489,7 @@
         <v>236</v>
       </c>
       <c r="D160" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E160" t="s">
         <v>236</v>
@@ -7501,7 +7501,7 @@
         <v>596</v>
       </c>
       <c r="J160" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
@@ -7524,7 +7524,7 @@
         <v>604</v>
       </c>
       <c r="J161" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
@@ -7544,7 +7544,7 @@
         <v>600</v>
       </c>
       <c r="J162" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
@@ -7555,7 +7555,7 @@
         <v>239</v>
       </c>
       <c r="D163" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F163" t="s">
         <v>3</v>
@@ -7564,7 +7564,7 @@
         <v>602</v>
       </c>
       <c r="J163" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
@@ -7587,7 +7587,7 @@
         <v>598</v>
       </c>
       <c r="J164" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
@@ -7598,7 +7598,7 @@
         <v>239</v>
       </c>
       <c r="D165" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E165" t="s">
         <v>239</v>
@@ -7610,7 +7610,7 @@
         <v>606</v>
       </c>
       <c r="J165" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
@@ -7621,13 +7621,13 @@
         <v>16</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F166" t="s">
         <v>6</v>
@@ -7647,13 +7647,13 @@
         <v>16</v>
       </c>
       <c r="C167" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>826</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>827</v>
       </c>
       <c r="F167" t="s">
         <v>6</v>
@@ -7688,7 +7688,7 @@
         <v>460</v>
       </c>
       <c r="J168" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
@@ -7711,7 +7711,7 @@
         <v>454</v>
       </c>
       <c r="J169" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
@@ -7725,7 +7725,7 @@
         <v>451</v>
       </c>
       <c r="D170" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F170" t="s">
         <v>3</v>
@@ -7734,7 +7734,7 @@
         <v>458</v>
       </c>
       <c r="J170" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
@@ -7760,7 +7760,7 @@
         <v>452</v>
       </c>
       <c r="J171" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
@@ -7774,7 +7774,7 @@
         <v>451</v>
       </c>
       <c r="D172" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E172" t="s">
         <v>451</v>
@@ -7786,7 +7786,7 @@
         <v>456</v>
       </c>
       <c r="J172" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
@@ -7812,7 +7812,7 @@
         <v>473</v>
       </c>
       <c r="J173" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
@@ -7835,7 +7835,7 @@
         <v>467</v>
       </c>
       <c r="J174" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
@@ -7849,7 +7849,7 @@
         <v>464</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F175" t="s">
         <v>3</v>
@@ -7858,7 +7858,7 @@
         <v>469</v>
       </c>
       <c r="J175" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
@@ -7884,7 +7884,7 @@
         <v>465</v>
       </c>
       <c r="J176" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
@@ -7907,7 +7907,7 @@
         <v>477</v>
       </c>
       <c r="J177" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
@@ -7921,7 +7921,7 @@
         <v>464</v>
       </c>
       <c r="D178" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F178" t="s">
         <v>3</v>
@@ -7930,7 +7930,7 @@
         <v>471</v>
       </c>
       <c r="J178" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
@@ -7953,7 +7953,7 @@
         <v>475</v>
       </c>
       <c r="J179" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
@@ -7979,7 +7979,7 @@
         <v>637</v>
       </c>
       <c r="J180" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
@@ -8005,7 +8005,7 @@
         <v>506</v>
       </c>
       <c r="J181" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
@@ -8028,7 +8028,7 @@
         <v>500</v>
       </c>
       <c r="J182" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
@@ -8042,7 +8042,7 @@
         <v>497</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F183" t="s">
         <v>3</v>
@@ -8051,7 +8051,7 @@
         <v>502</v>
       </c>
       <c r="J183" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
@@ -8077,7 +8077,7 @@
         <v>498</v>
       </c>
       <c r="J184" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
@@ -8091,7 +8091,7 @@
         <v>497</v>
       </c>
       <c r="D185" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E185" t="s">
         <v>497</v>
@@ -8103,7 +8103,7 @@
         <v>504</v>
       </c>
       <c r="J185" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
@@ -8126,7 +8126,7 @@
         <v>487</v>
       </c>
       <c r="J186" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
@@ -8143,7 +8143,7 @@
         <v>16</v>
       </c>
       <c r="E187" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F187" t="s">
         <v>3</v>
@@ -8152,7 +8152,7 @@
         <v>546</v>
       </c>
       <c r="J187" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
@@ -8178,7 +8178,7 @@
         <v>575</v>
       </c>
       <c r="J188" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
@@ -8201,7 +8201,7 @@
         <v>571</v>
       </c>
       <c r="J189" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
@@ -8215,7 +8215,7 @@
         <v>568</v>
       </c>
       <c r="D190" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F190" t="s">
         <v>3</v>
@@ -8224,7 +8224,7 @@
         <v>573</v>
       </c>
       <c r="J190" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
@@ -8250,7 +8250,7 @@
         <v>569</v>
       </c>
       <c r="J191" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
@@ -8264,7 +8264,7 @@
         <v>568</v>
       </c>
       <c r="D192" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E192" t="s">
         <v>568</v>
@@ -8276,7 +8276,7 @@
         <v>577</v>
       </c>
       <c r="J192" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -8302,7 +8302,7 @@
         <v>580</v>
       </c>
       <c r="J193" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
@@ -8325,7 +8325,7 @@
         <v>582</v>
       </c>
       <c r="J194" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
@@ -8336,7 +8336,7 @@
         <v>16</v>
       </c>
       <c r="C195" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D195" t="s">
         <v>13</v>
@@ -8351,7 +8351,7 @@
         <v>734</v>
       </c>
       <c r="J195" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
@@ -8362,7 +8362,7 @@
         <v>16</v>
       </c>
       <c r="C196" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D196" t="s">
         <v>13</v>
@@ -8374,7 +8374,7 @@
         <v>730</v>
       </c>
       <c r="J196" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
@@ -8385,10 +8385,10 @@
         <v>16</v>
       </c>
       <c r="C197" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D197" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F197" t="s">
         <v>3</v>
@@ -8397,7 +8397,7 @@
         <v>732</v>
       </c>
       <c r="J197" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
@@ -8408,7 +8408,7 @@
         <v>16</v>
       </c>
       <c r="C198" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D198" t="s">
         <v>259</v>
@@ -8423,7 +8423,7 @@
         <v>728</v>
       </c>
       <c r="J198" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
@@ -8434,10 +8434,10 @@
         <v>16</v>
       </c>
       <c r="C199" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D199" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F199" t="s">
         <v>3</v>
@@ -8446,7 +8446,7 @@
         <v>736</v>
       </c>
       <c r="J199" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
@@ -8472,7 +8472,7 @@
         <v>611</v>
       </c>
       <c r="J200" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
@@ -8498,7 +8498,7 @@
         <v>613</v>
       </c>
       <c r="J201" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
@@ -8524,7 +8524,7 @@
         <v>615</v>
       </c>
       <c r="J202" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
@@ -8535,10 +8535,10 @@
         <v>16</v>
       </c>
       <c r="C203" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D203" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F203" t="s">
         <v>3</v>
@@ -8547,7 +8547,7 @@
         <v>489</v>
       </c>
       <c r="J203" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
@@ -8561,7 +8561,7 @@
         <v>639</v>
       </c>
       <c r="D204" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E204" t="s">
         <v>639</v>
@@ -8573,7 +8573,7 @@
         <v>640</v>
       </c>
       <c r="J204" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
@@ -8599,10 +8599,10 @@
         <v>773</v>
       </c>
       <c r="J205" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="K205" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
@@ -8619,13 +8619,13 @@
         <v>16</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F206" t="s">
         <v>6</v>
       </c>
       <c r="J206" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
@@ -8651,7 +8651,7 @@
         <v>649</v>
       </c>
       <c r="J207" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
@@ -8674,7 +8674,7 @@
         <v>645</v>
       </c>
       <c r="J208" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
@@ -8688,7 +8688,7 @@
         <v>642</v>
       </c>
       <c r="D209" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F209" t="s">
         <v>3</v>
@@ -8697,7 +8697,7 @@
         <v>647</v>
       </c>
       <c r="J209" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
@@ -8723,7 +8723,7 @@
         <v>643</v>
       </c>
       <c r="J210" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
@@ -8737,7 +8737,7 @@
         <v>642</v>
       </c>
       <c r="D211" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E211" t="s">
         <v>642</v>
@@ -8749,7 +8749,7 @@
         <v>653</v>
       </c>
       <c r="J211" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
@@ -8772,7 +8772,7 @@
         <v>651</v>
       </c>
       <c r="J212" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
@@ -8798,7 +8798,7 @@
         <v>674</v>
       </c>
       <c r="J213" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
@@ -8821,7 +8821,7 @@
         <v>670</v>
       </c>
       <c r="J214" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
@@ -8835,7 +8835,7 @@
         <v>667</v>
       </c>
       <c r="D215" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F215" t="s">
         <v>3</v>
@@ -8844,7 +8844,7 @@
         <v>672</v>
       </c>
       <c r="J215" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
@@ -8870,7 +8870,7 @@
         <v>668</v>
       </c>
       <c r="J216" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
@@ -8884,7 +8884,7 @@
         <v>667</v>
       </c>
       <c r="D217" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E217" t="s">
         <v>667</v>
@@ -8896,7 +8896,7 @@
         <v>678</v>
       </c>
       <c r="J217" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
@@ -8919,7 +8919,7 @@
         <v>676</v>
       </c>
       <c r="J218" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
@@ -8930,7 +8930,7 @@
         <v>16</v>
       </c>
       <c r="C219" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D219" t="s">
         <v>71</v>
@@ -8945,10 +8945,10 @@
         <v>586</v>
       </c>
       <c r="J219" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="K219" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
@@ -8959,7 +8959,7 @@
         <v>16</v>
       </c>
       <c r="C220" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D220" t="s">
         <v>176</v>
@@ -8971,10 +8971,10 @@
         <v>584</v>
       </c>
       <c r="J220" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="K220" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
@@ -8985,7 +8985,7 @@
         <v>16</v>
       </c>
       <c r="C221" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D221" t="s">
         <v>13</v>
@@ -9000,7 +9000,7 @@
         <v>663</v>
       </c>
       <c r="J221" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
@@ -9011,7 +9011,7 @@
         <v>16</v>
       </c>
       <c r="C222" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D222" t="s">
         <v>13</v>
@@ -9023,7 +9023,7 @@
         <v>659</v>
       </c>
       <c r="J222" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
@@ -9034,10 +9034,10 @@
         <v>16</v>
       </c>
       <c r="C223" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D223" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F223" t="s">
         <v>3</v>
@@ -9046,7 +9046,7 @@
         <v>661</v>
       </c>
       <c r="J223" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
@@ -9057,7 +9057,7 @@
         <v>16</v>
       </c>
       <c r="C224" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D224" t="s">
         <v>259</v>
@@ -9072,7 +9072,7 @@
         <v>657</v>
       </c>
       <c r="J224" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.2">
@@ -9083,13 +9083,13 @@
         <v>16</v>
       </c>
       <c r="C225" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D225" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E225" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F225" t="s">
         <v>3</v>
@@ -9098,7 +9098,7 @@
         <v>665</v>
       </c>
       <c r="J225" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
@@ -9124,7 +9124,7 @@
         <v>686</v>
       </c>
       <c r="J226" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
@@ -9150,7 +9150,7 @@
         <v>718</v>
       </c>
       <c r="J227" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
@@ -9173,7 +9173,7 @@
         <v>714</v>
       </c>
       <c r="J228" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
@@ -9187,7 +9187,7 @@
         <v>711</v>
       </c>
       <c r="D229" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F229" t="s">
         <v>3</v>
@@ -9196,7 +9196,7 @@
         <v>716</v>
       </c>
       <c r="J229" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
@@ -9222,7 +9222,7 @@
         <v>712</v>
       </c>
       <c r="J230" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
@@ -9236,7 +9236,7 @@
         <v>711</v>
       </c>
       <c r="D231" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E231" t="s">
         <v>711</v>
@@ -9248,7 +9248,7 @@
         <v>722</v>
       </c>
       <c r="J231" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
@@ -9271,7 +9271,7 @@
         <v>720</v>
       </c>
       <c r="J232" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
@@ -9297,7 +9297,7 @@
         <v>517</v>
       </c>
       <c r="J233" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
@@ -9320,7 +9320,7 @@
         <v>511</v>
       </c>
       <c r="J234" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
@@ -9334,7 +9334,7 @@
         <v>508</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F235" t="s">
         <v>3</v>
@@ -9343,7 +9343,7 @@
         <v>513</v>
       </c>
       <c r="J235" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
@@ -9369,7 +9369,7 @@
         <v>509</v>
       </c>
       <c r="J236" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
@@ -9386,7 +9386,7 @@
         <v>168</v>
       </c>
       <c r="E237" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F237" t="s">
         <v>3</v>
@@ -9395,7 +9395,7 @@
         <v>521</v>
       </c>
       <c r="J237" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
@@ -9409,7 +9409,7 @@
         <v>508</v>
       </c>
       <c r="D238" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E238" t="s">
         <v>508</v>
@@ -9421,7 +9421,7 @@
         <v>515</v>
       </c>
       <c r="J238" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
@@ -9444,7 +9444,7 @@
         <v>519</v>
       </c>
       <c r="J239" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
@@ -9455,7 +9455,7 @@
         <v>16</v>
       </c>
       <c r="C240" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D240" t="s">
         <v>13</v>
@@ -9470,7 +9470,7 @@
         <v>529</v>
       </c>
       <c r="J240" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
@@ -9481,7 +9481,7 @@
         <v>16</v>
       </c>
       <c r="C241" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D241" t="s">
         <v>13</v>
@@ -9493,7 +9493,7 @@
         <v>525</v>
       </c>
       <c r="J241" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
@@ -9504,10 +9504,10 @@
         <v>16</v>
       </c>
       <c r="C242" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D242" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F242" t="s">
         <v>3</v>
@@ -9516,7 +9516,7 @@
         <v>527</v>
       </c>
       <c r="J242" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
@@ -9527,7 +9527,7 @@
         <v>16</v>
       </c>
       <c r="C243" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D243" t="s">
         <v>259</v>
@@ -9542,7 +9542,7 @@
         <v>523</v>
       </c>
       <c r="J243" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.2">
@@ -9553,13 +9553,13 @@
         <v>16</v>
       </c>
       <c r="C244" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E244" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F244" t="s">
         <v>3</v>
@@ -9568,7 +9568,7 @@
         <v>533</v>
       </c>
       <c r="J244" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
@@ -9579,7 +9579,7 @@
         <v>16</v>
       </c>
       <c r="C245" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D245" t="s">
         <v>186</v>
@@ -9591,7 +9591,7 @@
         <v>531</v>
       </c>
       <c r="J245" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
@@ -9617,7 +9617,7 @@
         <v>739</v>
       </c>
       <c r="J246" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
@@ -9643,7 +9643,7 @@
         <v>741</v>
       </c>
       <c r="J247" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
@@ -9669,7 +9669,7 @@
         <v>743</v>
       </c>
       <c r="J248" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
@@ -9680,13 +9680,13 @@
         <v>16</v>
       </c>
       <c r="C249" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D249" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E249" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F249" t="s">
         <v>3</v>
@@ -9695,7 +9695,7 @@
         <v>757</v>
       </c>
       <c r="J249" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
@@ -9709,7 +9709,7 @@
         <v>483</v>
       </c>
       <c r="D250" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E250" t="s">
         <v>483</v>
@@ -9721,7 +9721,7 @@
         <v>484</v>
       </c>
       <c r="J250" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
@@ -9747,7 +9747,7 @@
         <v>766</v>
       </c>
       <c r="J251" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
@@ -9770,7 +9770,7 @@
         <v>762</v>
       </c>
       <c r="J252" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.2">
@@ -9784,7 +9784,7 @@
         <v>759</v>
       </c>
       <c r="D253" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F253" t="s">
         <v>3</v>
@@ -9793,7 +9793,7 @@
         <v>764</v>
       </c>
       <c r="J253" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
@@ -9819,7 +9819,7 @@
         <v>760</v>
       </c>
       <c r="J254" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
@@ -9833,7 +9833,7 @@
         <v>759</v>
       </c>
       <c r="D255" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E255" t="s">
         <v>759</v>
@@ -9845,7 +9845,7 @@
         <v>768</v>
       </c>
       <c r="J255" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
@@ -9862,7 +9862,7 @@
         <v>16</v>
       </c>
       <c r="E256" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F256" t="s">
         <v>3</v>
@@ -9871,7 +9871,7 @@
         <v>771</v>
       </c>
       <c r="J256" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.2">
@@ -9897,7 +9897,7 @@
         <v>782</v>
       </c>
       <c r="J257" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.2">
@@ -9920,7 +9920,7 @@
         <v>778</v>
       </c>
       <c r="J258" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.2">
@@ -9934,7 +9934,7 @@
         <v>775</v>
       </c>
       <c r="D259" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F259" t="s">
         <v>3</v>
@@ -9943,7 +9943,7 @@
         <v>780</v>
       </c>
       <c r="J259" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.2">
@@ -9969,7 +9969,7 @@
         <v>776</v>
       </c>
       <c r="J260" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.2">
@@ -9983,7 +9983,7 @@
         <v>775</v>
       </c>
       <c r="D261" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E261" t="s">
         <v>775</v>
@@ -10049,7 +10049,7 @@
         <v>250</v>
       </c>
       <c r="J264" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.2">
@@ -10089,7 +10089,7 @@
         <v>257</v>
       </c>
       <c r="J266" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.2">
@@ -10129,7 +10129,7 @@
         <v>263</v>
       </c>
       <c r="J268" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.2">
@@ -10149,7 +10149,7 @@
         <v>265</v>
       </c>
       <c r="J269" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.2">
@@ -10163,7 +10163,7 @@
         <v>176</v>
       </c>
       <c r="E270" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F270" t="s">
         <v>6</v>
@@ -10183,7 +10183,7 @@
         <v>176</v>
       </c>
       <c r="E271" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F271" t="s">
         <v>3</v>
@@ -10192,7 +10192,7 @@
         <v>270</v>
       </c>
       <c r="J271" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.2">
@@ -10212,7 +10212,7 @@
         <v>267</v>
       </c>
       <c r="J272" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
@@ -10232,7 +10232,7 @@
         <v>42</v>
       </c>
       <c r="J273" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
@@ -10243,7 +10243,7 @@
         <v>16</v>
       </c>
       <c r="D274" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E274" t="s">
         <v>16</v>
@@ -10255,7 +10255,7 @@
         <v>608</v>
       </c>
       <c r="J274" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.2">
@@ -10275,7 +10275,7 @@
         <v>272</v>
       </c>
       <c r="J275" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
@@ -10298,7 +10298,7 @@
         <v>275</v>
       </c>
       <c r="J276" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
@@ -10318,7 +10318,7 @@
         <v>277</v>
       </c>
       <c r="J277" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
@@ -10338,7 +10338,7 @@
         <v>282</v>
       </c>
       <c r="J278" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
@@ -10352,7 +10352,7 @@
         <v>352</v>
       </c>
       <c r="E279" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F279" t="s">
         <v>6</v>
@@ -10364,7 +10364,7 @@
         <v>280</v>
       </c>
       <c r="J279" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
@@ -10384,7 +10384,7 @@
         <v>284</v>
       </c>
       <c r="J280" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.2">
@@ -10404,7 +10404,7 @@
         <v>286</v>
       </c>
       <c r="J281" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
@@ -10427,7 +10427,7 @@
         <v>415</v>
       </c>
       <c r="J282" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
@@ -10447,7 +10447,7 @@
         <v>289</v>
       </c>
       <c r="J283" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
@@ -10467,7 +10467,7 @@
         <v>294</v>
       </c>
       <c r="J284" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.2">
@@ -10487,7 +10487,7 @@
         <v>296</v>
       </c>
       <c r="J285" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.2">
@@ -10507,7 +10507,7 @@
         <v>298</v>
       </c>
       <c r="J286" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.2">
@@ -10527,7 +10527,7 @@
         <v>300</v>
       </c>
       <c r="J287" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
@@ -10547,7 +10547,7 @@
         <v>302</v>
       </c>
       <c r="J288" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
@@ -10567,7 +10567,7 @@
         <v>42</v>
       </c>
       <c r="J289" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
@@ -10587,7 +10587,7 @@
         <v>305</v>
       </c>
       <c r="J290" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
@@ -10607,7 +10607,7 @@
         <v>307</v>
       </c>
       <c r="J291" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
@@ -10627,7 +10627,7 @@
         <v>309</v>
       </c>
       <c r="J292" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
@@ -10647,7 +10647,7 @@
         <v>311</v>
       </c>
       <c r="J293" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
@@ -10667,7 +10667,7 @@
         <v>313</v>
       </c>
       <c r="J294" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
@@ -10687,7 +10687,7 @@
         <v>315</v>
       </c>
       <c r="J295" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
@@ -10695,7 +10695,7 @@
         <v>693</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D296" t="s">
         <v>13</v>
@@ -10710,7 +10710,7 @@
         <v>694</v>
       </c>
       <c r="J296" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
@@ -10718,7 +10718,7 @@
         <v>689</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D297" t="s">
         <v>13</v>
@@ -10730,7 +10730,7 @@
         <v>690</v>
       </c>
       <c r="J297" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
@@ -10738,10 +10738,10 @@
         <v>691</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D298" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F298" t="s">
         <v>3</v>
@@ -10750,7 +10750,7 @@
         <v>692</v>
       </c>
       <c r="J298" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
@@ -10758,7 +10758,7 @@
         <v>687</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D299" t="s">
         <v>259</v>
@@ -10773,7 +10773,7 @@
         <v>688</v>
       </c>
       <c r="J299" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
@@ -10781,13 +10781,13 @@
         <v>695</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D300" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F300" t="s">
         <v>3</v>
@@ -10796,7 +10796,7 @@
         <v>696</v>
       </c>
       <c r="J300" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.2">
@@ -10816,7 +10816,7 @@
         <v>323</v>
       </c>
       <c r="J301" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
@@ -10836,7 +10836,7 @@
         <v>325</v>
       </c>
       <c r="J302" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
@@ -10856,7 +10856,7 @@
         <v>327</v>
       </c>
       <c r="J303" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.2">
@@ -10876,7 +10876,7 @@
         <v>329</v>
       </c>
       <c r="J304" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
@@ -10896,7 +10896,7 @@
         <v>331</v>
       </c>
       <c r="J305" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.2">
@@ -10916,7 +10916,7 @@
         <v>42</v>
       </c>
       <c r="J306" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
@@ -10936,7 +10936,7 @@
         <v>334</v>
       </c>
       <c r="J307" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
@@ -10956,7 +10956,7 @@
         <v>336</v>
       </c>
       <c r="J308" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
@@ -10976,7 +10976,7 @@
         <v>338</v>
       </c>
       <c r="J309" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
@@ -10996,7 +10996,7 @@
         <v>340</v>
       </c>
       <c r="J310" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.2">
@@ -11016,7 +11016,7 @@
         <v>342</v>
       </c>
       <c r="J311" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
@@ -11036,7 +11036,7 @@
         <v>344</v>
       </c>
       <c r="J312" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
@@ -11059,7 +11059,7 @@
         <v>347</v>
       </c>
       <c r="J313" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
@@ -11082,7 +11082,7 @@
         <v>705</v>
       </c>
       <c r="J314" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
@@ -11102,7 +11102,7 @@
         <v>701</v>
       </c>
       <c r="J315" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
@@ -11113,7 +11113,7 @@
         <v>698</v>
       </c>
       <c r="D316" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F316" t="s">
         <v>3</v>
@@ -11122,7 +11122,7 @@
         <v>703</v>
       </c>
       <c r="J316" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
@@ -11145,7 +11145,7 @@
         <v>699</v>
       </c>
       <c r="J317" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.2">
@@ -11156,7 +11156,7 @@
         <v>698</v>
       </c>
       <c r="D318" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E318" t="s">
         <v>698</v>
@@ -11168,7 +11168,7 @@
         <v>707</v>
       </c>
       <c r="J318" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.2">
@@ -11188,7 +11188,7 @@
         <v>709</v>
       </c>
       <c r="J319" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
@@ -11211,7 +11211,7 @@
         <v>365</v>
       </c>
       <c r="J320" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.2">
@@ -11231,7 +11231,7 @@
         <v>367</v>
       </c>
       <c r="J321" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.2">
@@ -11251,7 +11251,7 @@
         <v>369</v>
       </c>
       <c r="J322" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.2">
@@ -11271,7 +11271,7 @@
         <v>371</v>
       </c>
       <c r="J323" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.2">
@@ -11291,7 +11291,7 @@
         <v>373</v>
       </c>
       <c r="J324" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.2">
@@ -11311,7 +11311,7 @@
         <v>375</v>
       </c>
       <c r="J325" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.2">
@@ -11331,7 +11331,7 @@
         <v>42</v>
       </c>
       <c r="J326" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
@@ -11342,7 +11342,7 @@
         <v>55</v>
       </c>
       <c r="D327" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E327" t="s">
         <v>55</v>
@@ -11354,7 +11354,7 @@
         <v>726</v>
       </c>
       <c r="J327" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.2">
@@ -11374,7 +11374,7 @@
         <v>378</v>
       </c>
       <c r="J328" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
@@ -11394,7 +11394,7 @@
         <v>380</v>
       </c>
       <c r="J329" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.2">
@@ -11414,7 +11414,7 @@
         <v>382</v>
       </c>
       <c r="J330" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
@@ -11434,7 +11434,7 @@
         <v>384</v>
       </c>
       <c r="J331" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
@@ -11454,7 +11454,7 @@
         <v>386</v>
       </c>
       <c r="J332" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
@@ -11474,7 +11474,7 @@
         <v>388</v>
       </c>
       <c r="J333" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.2">
@@ -11494,7 +11494,7 @@
         <v>390</v>
       </c>
       <c r="J334" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.2">
@@ -11514,7 +11514,7 @@
         <v>392</v>
       </c>
       <c r="J335" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
@@ -11534,7 +11534,7 @@
         <v>394</v>
       </c>
       <c r="J336" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
@@ -11554,7 +11554,7 @@
         <v>396</v>
       </c>
       <c r="J337" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.2">
@@ -11574,7 +11574,7 @@
         <v>398</v>
       </c>
       <c r="J338" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.2">
@@ -11594,7 +11594,7 @@
         <v>42</v>
       </c>
       <c r="J339" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
@@ -11614,7 +11614,7 @@
         <v>401</v>
       </c>
       <c r="J340" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
@@ -11634,7 +11634,7 @@
         <v>403</v>
       </c>
       <c r="J341" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
@@ -11654,7 +11654,7 @@
         <v>405</v>
       </c>
       <c r="J342" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.2">
@@ -11674,7 +11674,7 @@
         <v>407</v>
       </c>
       <c r="J343" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.2">
@@ -11694,7 +11694,7 @@
         <v>409</v>
       </c>
       <c r="J344" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.2">
@@ -11714,7 +11714,7 @@
         <v>411</v>
       </c>
       <c r="J345" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.2">
@@ -11725,7 +11725,7 @@
         <v>288</v>
       </c>
       <c r="C346" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D346" t="s">
         <v>16</v>
@@ -11737,7 +11737,7 @@
         <v>42</v>
       </c>
       <c r="J346" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.2">
@@ -11748,13 +11748,13 @@
         <v>288</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D347" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F347" t="s">
         <v>3</v>
@@ -11763,7 +11763,7 @@
         <v>449</v>
       </c>
       <c r="J347" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.2">
@@ -11783,7 +11783,7 @@
         <v>417</v>
       </c>
       <c r="J348" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.2">
@@ -11797,7 +11797,7 @@
         <v>288</v>
       </c>
       <c r="E349" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F349" t="s">
         <v>6</v>
@@ -11806,7 +11806,7 @@
         <v>42</v>
       </c>
       <c r="J349" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.2">
@@ -11820,7 +11820,7 @@
         <v>288</v>
       </c>
       <c r="E350" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F350" t="s">
         <v>6</v>
@@ -11829,7 +11829,7 @@
         <v>42</v>
       </c>
       <c r="J350" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.2">
@@ -11852,7 +11852,7 @@
         <v>752</v>
       </c>
       <c r="J351" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
@@ -11872,7 +11872,7 @@
         <v>748</v>
       </c>
       <c r="J352" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.2">
@@ -11883,7 +11883,7 @@
         <v>193</v>
       </c>
       <c r="D353" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F353" t="s">
         <v>3</v>
@@ -11892,7 +11892,7 @@
         <v>750</v>
       </c>
       <c r="J353" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.2">

--- a/src/main/resources/data/ICU-Transliterations.xlsx
+++ b/src/main/resources/data/ICU-Transliterations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmekonnen/git/Xliterator/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BACF29F-EFAC-AB46-ABA3-D70EC326951F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4576CFAF-EF85-0945-8A00-806A1D9FDF7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38360" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICU Transliterations" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="1045">
   <si>
     <t>Amharic-Latin-BGN.xml</t>
   </si>
@@ -2401,9 +2401,6 @@
     <t>Backward Alias</t>
   </si>
   <si>
-    <t>Modern (1453-)</t>
-  </si>
-  <si>
     <t>Jamo</t>
   </si>
   <si>
@@ -3146,6 +3143,18 @@
   </si>
   <si>
     <t>Path</t>
+  </si>
+  <si>
+    <t>Aethiopica</t>
+  </si>
+  <si>
+    <t>Ethiopic-Latin/Aethiopica</t>
+  </si>
+  <si>
+    <t>Latin-EthiopicEthiopic-Latin-Aethiopica.xml/Aethiopica</t>
+  </si>
+  <si>
+    <t>Ethiopic-Latin-Aethiopica.xml</t>
   </si>
 </sst>
 </file>
@@ -4027,11 +4036,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K354"/>
+  <dimension ref="A1:K355"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4050,7 +4059,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>786</v>
@@ -4077,10 +4086,10 @@
         <v>785</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -4094,7 +4103,7 @@
         <v>349</v>
       </c>
       <c r="D2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E2" t="s">
         <v>349</v>
@@ -4106,7 +4115,7 @@
         <v>543</v>
       </c>
       <c r="J2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -4132,7 +4141,7 @@
         <v>350</v>
       </c>
       <c r="J3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -4146,7 +4155,7 @@
         <v>745</v>
       </c>
       <c r="D4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E4" t="s">
         <v>745</v>
@@ -4158,7 +4167,7 @@
         <v>746</v>
       </c>
       <c r="J4" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -4209,7 +4218,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -4224,7 +4233,7 @@
         <v>564</v>
       </c>
       <c r="J7" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -4235,7 +4244,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -4247,7 +4256,7 @@
         <v>560</v>
       </c>
       <c r="J8" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -4258,10 +4267,10 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D9" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F9" t="s">
         <v>3</v>
@@ -4270,7 +4279,7 @@
         <v>562</v>
       </c>
       <c r="J9" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -4281,7 +4290,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D10" t="s">
         <v>259</v>
@@ -4296,7 +4305,7 @@
         <v>558</v>
       </c>
       <c r="J10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -4307,13 +4316,13 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D11" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E11" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F11" t="s">
         <v>3</v>
@@ -4322,7 +4331,7 @@
         <v>566</v>
       </c>
       <c r="J11" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -4345,7 +4354,7 @@
         <v>554</v>
       </c>
       <c r="J12" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -4365,7 +4374,7 @@
         <v>550</v>
       </c>
       <c r="J13" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -4376,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F14" t="s">
         <v>3</v>
@@ -4385,7 +4394,7 @@
         <v>552</v>
       </c>
       <c r="J14" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -4408,7 +4417,7 @@
         <v>548</v>
       </c>
       <c r="J15" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -4419,7 +4428,7 @@
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
@@ -4431,7 +4440,7 @@
         <v>556</v>
       </c>
       <c r="J16" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -4471,7 +4480,7 @@
         <v>30</v>
       </c>
       <c r="J18" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -4491,7 +4500,7 @@
         <v>33</v>
       </c>
       <c r="J19" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -4511,7 +4520,7 @@
         <v>36</v>
       </c>
       <c r="J20" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -4531,7 +4540,7 @@
         <v>39</v>
       </c>
       <c r="J21" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -4568,7 +4577,7 @@
         <v>45</v>
       </c>
       <c r="J23" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -4588,7 +4597,7 @@
         <v>47</v>
       </c>
       <c r="J24" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -4608,7 +4617,7 @@
         <v>50</v>
       </c>
       <c r="J25" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -4628,7 +4637,7 @@
         <v>53</v>
       </c>
       <c r="J26" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -4648,7 +4657,7 @@
         <v>56</v>
       </c>
       <c r="J27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -4668,7 +4677,7 @@
         <v>59</v>
       </c>
       <c r="J28" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -4688,7 +4697,7 @@
         <v>62</v>
       </c>
       <c r="J29" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -4711,7 +4720,7 @@
         <v>627</v>
       </c>
       <c r="J30" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -4731,7 +4740,7 @@
         <v>623</v>
       </c>
       <c r="J31" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -4754,10 +4763,10 @@
         <v>634</v>
       </c>
       <c r="J32" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="K32" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -4768,7 +4777,7 @@
         <v>620</v>
       </c>
       <c r="D33" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F33" t="s">
         <v>3</v>
@@ -4777,7 +4786,7 @@
         <v>625</v>
       </c>
       <c r="J33" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -4800,7 +4809,7 @@
         <v>621</v>
       </c>
       <c r="J34" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -4811,7 +4820,7 @@
         <v>620</v>
       </c>
       <c r="D35" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E35" t="s">
         <v>620</v>
@@ -4823,7 +4832,7 @@
         <v>629</v>
       </c>
       <c r="J35" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -4843,7 +4852,7 @@
         <v>632</v>
       </c>
       <c r="J36" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -4851,13 +4860,13 @@
         <v>461</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D37" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F37" t="s">
         <v>3</v>
@@ -4866,7 +4875,7 @@
         <v>462</v>
       </c>
       <c r="J37" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -4892,7 +4901,7 @@
         <v>441</v>
       </c>
       <c r="J38" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -4918,7 +4927,7 @@
         <v>444</v>
       </c>
       <c r="J39" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -4944,7 +4953,7 @@
         <v>447</v>
       </c>
       <c r="J40" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -5085,7 +5094,7 @@
         <v>292</v>
       </c>
       <c r="J46" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -5111,7 +5120,7 @@
         <v>321</v>
       </c>
       <c r="J47" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -5137,7 +5146,7 @@
         <v>618</v>
       </c>
       <c r="J48" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -5154,7 +5163,7 @@
         <v>168</v>
       </c>
       <c r="E49" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F49" t="s">
         <v>3</v>
@@ -5163,10 +5172,10 @@
         <v>684</v>
       </c>
       <c r="J49" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="K49" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -5189,7 +5198,7 @@
         <v>682</v>
       </c>
       <c r="J50" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -5215,7 +5224,7 @@
         <v>355</v>
       </c>
       <c r="J51" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -5241,7 +5250,7 @@
         <v>358</v>
       </c>
       <c r="J52" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -5267,7 +5276,7 @@
         <v>423</v>
       </c>
       <c r="J53" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -5293,7 +5302,7 @@
         <v>426</v>
       </c>
       <c r="J54" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -5319,7 +5328,7 @@
         <v>429</v>
       </c>
       <c r="J55" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -5348,7 +5357,7 @@
         <v>755</v>
       </c>
       <c r="J56" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -5388,7 +5397,7 @@
         <v>75</v>
       </c>
       <c r="J58" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -5408,7 +5417,7 @@
         <v>77</v>
       </c>
       <c r="J59" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -5428,7 +5437,7 @@
         <v>79</v>
       </c>
       <c r="J60" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -5448,7 +5457,7 @@
         <v>81</v>
       </c>
       <c r="J61" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -5468,7 +5477,7 @@
         <v>42</v>
       </c>
       <c r="J62" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -5505,7 +5514,7 @@
         <v>86</v>
       </c>
       <c r="J64" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -5525,7 +5534,7 @@
         <v>88</v>
       </c>
       <c r="J65" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -5545,7 +5554,7 @@
         <v>90</v>
       </c>
       <c r="J66" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -5565,7 +5574,7 @@
         <v>92</v>
       </c>
       <c r="J67" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -5585,7 +5594,7 @@
         <v>94</v>
       </c>
       <c r="J68" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -5605,7 +5614,7 @@
         <v>96</v>
       </c>
       <c r="J69" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -5628,7 +5637,7 @@
         <v>318</v>
       </c>
       <c r="J70" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -5654,7 +5663,7 @@
         <v>438</v>
       </c>
       <c r="J71" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -5677,7 +5686,7 @@
         <v>434</v>
       </c>
       <c r="J72" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -5691,7 +5700,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F73" t="s">
         <v>3</v>
@@ -5700,7 +5709,7 @@
         <v>436</v>
       </c>
       <c r="J73" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -5714,7 +5723,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E74" t="s">
         <v>1</v>
@@ -5729,7 +5738,7 @@
         <v>432</v>
       </c>
       <c r="J74" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -5757,27 +5766,30 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>102</v>
+        <v>1044</v>
       </c>
       <c r="B76" t="s">
-        <v>103</v>
+        <v>259</v>
       </c>
       <c r="D76" t="s">
         <v>16</v>
       </c>
       <c r="E76" t="s">
-        <v>2</v>
+        <v>1041</v>
       </c>
       <c r="F76" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G76" t="s">
-        <v>104</v>
+        <v>1042</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B77" t="s">
         <v>103</v>
@@ -5786,18 +5798,18 @@
         <v>16</v>
       </c>
       <c r="E77" t="s">
-        <v>818</v>
+        <v>2</v>
       </c>
       <c r="F77" t="s">
         <v>3</v>
       </c>
       <c r="G77" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B78" t="s">
         <v>103</v>
@@ -5805,42 +5817,39 @@
       <c r="D78" t="s">
         <v>16</v>
       </c>
+      <c r="E78" t="s">
+        <v>817</v>
+      </c>
       <c r="F78" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G78" t="s">
-        <v>108</v>
-      </c>
-      <c r="H78" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B79" t="s">
-        <v>114</v>
-      </c>
-      <c r="C79" t="s">
-        <v>793</v>
+        <v>103</v>
       </c>
       <c r="D79" t="s">
         <v>16</v>
       </c>
-      <c r="E79" t="s">
-        <v>2</v>
-      </c>
       <c r="F79" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G79" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="H79" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>490</v>
+        <v>110</v>
       </c>
       <c r="B80" t="s">
         <v>114</v>
@@ -5849,24 +5858,21 @@
         <v>111</v>
       </c>
       <c r="D80" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="E80" t="s">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="F80" t="s">
         <v>3</v>
       </c>
       <c r="G80" t="s">
-        <v>491</v>
-      </c>
-      <c r="J80" t="s">
-        <v>1039</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B81" t="s">
         <v>114</v>
@@ -5878,21 +5884,21 @@
         <v>114</v>
       </c>
       <c r="E81" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F81" t="s">
         <v>3</v>
       </c>
       <c r="G81" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J81" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B82" t="s">
         <v>114</v>
@@ -5904,44 +5910,47 @@
         <v>114</v>
       </c>
       <c r="E82" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F82" t="s">
         <v>3</v>
       </c>
       <c r="G82" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J82" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>494</v>
       </c>
       <c r="B83" t="s">
         <v>114</v>
       </c>
+      <c r="C83" t="s">
+        <v>111</v>
+      </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="E83" t="s">
-        <v>118</v>
+        <v>446</v>
       </c>
       <c r="F83" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G83" t="s">
-        <v>119</v>
-      </c>
-      <c r="H83" t="s">
-        <v>120</v>
+        <v>495</v>
+      </c>
+      <c r="J83" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B84" t="s">
         <v>114</v>
@@ -5949,625 +5958,628 @@
       <c r="D84" t="s">
         <v>16</v>
       </c>
+      <c r="E84" t="s">
+        <v>118</v>
+      </c>
       <c r="F84" t="s">
         <v>6</v>
       </c>
       <c r="G84" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H84" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B85" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="D85" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F85" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G85" t="s">
-        <v>122</v>
-      </c>
-      <c r="J85" t="s">
-        <v>850</v>
+        <v>115</v>
+      </c>
+      <c r="H85" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B86" t="s">
         <v>35</v>
       </c>
       <c r="D86" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F86" t="s">
         <v>3</v>
       </c>
       <c r="G86" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J86" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B87" t="s">
         <v>35</v>
       </c>
       <c r="D87" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F87" t="s">
         <v>3</v>
       </c>
       <c r="G87" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J87" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B88" t="s">
         <v>35</v>
       </c>
       <c r="D88" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F88" t="s">
         <v>3</v>
       </c>
       <c r="G88" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J88" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B89" t="s">
         <v>35</v>
       </c>
       <c r="D89" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F89" t="s">
         <v>3</v>
       </c>
-      <c r="I89" t="s">
-        <v>42</v>
+      <c r="G89" t="s">
+        <v>128</v>
+      </c>
+      <c r="J89" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B90" t="s">
         <v>35</v>
       </c>
       <c r="D90" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F90" t="s">
         <v>3</v>
       </c>
-      <c r="G90" t="s">
-        <v>131</v>
-      </c>
-      <c r="J90" t="s">
-        <v>854</v>
+      <c r="I90" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B91" t="s">
         <v>35</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
         <v>3</v>
       </c>
       <c r="G91" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J91" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B92" t="s">
         <v>35</v>
       </c>
       <c r="D92" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F92" t="s">
         <v>3</v>
       </c>
       <c r="G92" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J92" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B93" t="s">
         <v>35</v>
       </c>
       <c r="D93" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F93" t="s">
         <v>3</v>
       </c>
       <c r="G93" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J93" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B94" t="s">
         <v>35</v>
       </c>
       <c r="D94" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F94" t="s">
         <v>3</v>
       </c>
       <c r="G94" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J94" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B95" t="s">
         <v>35</v>
       </c>
       <c r="D95" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F95" t="s">
         <v>3</v>
       </c>
       <c r="G95" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J95" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B96" t="s">
         <v>35</v>
       </c>
       <c r="D96" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F96" t="s">
         <v>3</v>
       </c>
       <c r="G96" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J96" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B97" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D97" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F97" t="s">
         <v>3</v>
       </c>
       <c r="G97" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J97" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B98" t="s">
         <v>38</v>
       </c>
       <c r="D98" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F98" t="s">
         <v>3</v>
       </c>
       <c r="G98" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J98" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B99" t="s">
         <v>38</v>
       </c>
       <c r="D99" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F99" t="s">
         <v>3</v>
       </c>
       <c r="G99" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J99" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B100" t="s">
         <v>38</v>
       </c>
       <c r="D100" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
         <v>3</v>
       </c>
       <c r="G100" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J100" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B101" t="s">
         <v>38</v>
       </c>
       <c r="D101" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F101" t="s">
         <v>3</v>
       </c>
-      <c r="I101" t="s">
-        <v>42</v>
+      <c r="G101" t="s">
+        <v>151</v>
+      </c>
+      <c r="J101" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B102" t="s">
         <v>38</v>
       </c>
       <c r="D102" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F102" t="s">
         <v>3</v>
       </c>
-      <c r="G102" t="s">
-        <v>154</v>
-      </c>
-      <c r="J102" t="s">
-        <v>865</v>
+      <c r="I102" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B103" t="s">
         <v>38</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F103" t="s">
         <v>3</v>
       </c>
       <c r="G103" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J103" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B104" t="s">
         <v>38</v>
       </c>
       <c r="D104" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F104" t="s">
         <v>3</v>
       </c>
       <c r="G104" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J104" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B105" t="s">
         <v>38</v>
       </c>
       <c r="D105" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F105" t="s">
         <v>3</v>
       </c>
       <c r="G105" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J105" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B106" t="s">
         <v>38</v>
       </c>
       <c r="D106" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F106" t="s">
         <v>3</v>
       </c>
       <c r="G106" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J106" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B107" t="s">
         <v>38</v>
       </c>
       <c r="D107" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F107" t="s">
         <v>3</v>
       </c>
       <c r="G107" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J107" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B108" t="s">
         <v>38</v>
       </c>
       <c r="D108" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F108" t="s">
         <v>3</v>
       </c>
       <c r="G108" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J108" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B109" t="s">
-        <v>168</v>
-      </c>
-      <c r="C109" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="D109" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="F109" t="s">
         <v>3</v>
       </c>
       <c r="G109" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J109" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>359</v>
+        <v>167</v>
       </c>
       <c r="B110" t="s">
         <v>168</v>
       </c>
       <c r="C110" t="s">
-        <v>795</v>
+        <v>169</v>
       </c>
       <c r="D110" t="s">
-        <v>168</v>
-      </c>
-      <c r="E110" t="s">
-        <v>798</v>
+        <v>16</v>
       </c>
       <c r="F110" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G110" t="s">
-        <v>360</v>
-      </c>
-      <c r="H110" t="s">
-        <v>361</v>
+        <v>170</v>
       </c>
       <c r="J110" t="s">
-        <v>1039</v>
+        <v>871</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>171</v>
+        <v>359</v>
       </c>
       <c r="B111" t="s">
         <v>168</v>
       </c>
+      <c r="C111" t="s">
+        <v>794</v>
+      </c>
       <c r="D111" t="s">
-        <v>16</v>
+        <v>168</v>
+      </c>
+      <c r="E111" t="s">
+        <v>797</v>
       </c>
       <c r="F111" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G111" t="s">
-        <v>172</v>
+        <v>360</v>
+      </c>
+      <c r="H111" t="s">
+        <v>361</v>
+      </c>
+      <c r="J111" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B112" t="s">
         <v>168</v>
       </c>
       <c r="D112" t="s">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="F112" t="s">
-        <v>6</v>
-      </c>
-      <c r="I112" t="s">
-        <v>42</v>
-      </c>
-      <c r="J112" t="s">
-        <v>873</v>
+        <v>3</v>
+      </c>
+      <c r="G112" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="B113" t="s">
-        <v>176</v>
-      </c>
-      <c r="C113" t="s">
-        <v>794</v>
+        <v>168</v>
       </c>
       <c r="D113" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="F113" t="s">
-        <v>3</v>
-      </c>
-      <c r="G113" t="s">
-        <v>209</v>
+        <v>6</v>
+      </c>
+      <c r="I113" t="s">
+        <v>42</v>
       </c>
       <c r="J113" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="B114" t="s">
         <v>176</v>
       </c>
+      <c r="C114" t="s">
+        <v>793</v>
+      </c>
       <c r="D114" t="s">
         <v>16</v>
       </c>
-      <c r="E114" t="s">
-        <v>2</v>
-      </c>
       <c r="F114" t="s">
         <v>3</v>
       </c>
       <c r="G114" t="s">
-        <v>242</v>
+        <v>209</v>
+      </c>
+      <c r="J114" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>175</v>
+        <v>241</v>
       </c>
       <c r="B115" t="s">
         <v>176</v>
@@ -6575,39 +6587,39 @@
       <c r="D115" t="s">
         <v>16</v>
       </c>
+      <c r="E115" t="s">
+        <v>2</v>
+      </c>
       <c r="F115" t="s">
         <v>3</v>
       </c>
       <c r="G115" t="s">
-        <v>177</v>
-      </c>
-      <c r="J115" t="s">
-        <v>874</v>
+        <v>242</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B116" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D116" t="s">
         <v>16</v>
       </c>
-      <c r="E116" t="s">
-        <v>2</v>
-      </c>
       <c r="F116" t="s">
         <v>3</v>
       </c>
       <c r="G116" t="s">
-        <v>180</v>
+        <v>177</v>
+      </c>
+      <c r="J116" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B117" t="s">
         <v>179</v>
@@ -6615,85 +6627,88 @@
       <c r="D117" t="s">
         <v>16</v>
       </c>
+      <c r="E117" t="s">
+        <v>2</v>
+      </c>
       <c r="F117" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G117" t="s">
-        <v>182</v>
-      </c>
-      <c r="H117" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B118" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D118" t="s">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="F118" t="s">
         <v>6</v>
       </c>
       <c r="G118" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H118" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B119" t="s">
         <v>185</v>
       </c>
       <c r="D119" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="F119" t="s">
         <v>6</v>
       </c>
       <c r="G119" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H119" t="s">
-        <v>191</v>
-      </c>
-      <c r="J119" t="s">
-        <v>875</v>
+        <v>188</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B120" t="s">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="D120" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F120" t="s">
-        <v>3</v>
-      </c>
-      <c r="I120" t="s">
-        <v>42</v>
+        <v>6</v>
+      </c>
+      <c r="G120" t="s">
+        <v>190</v>
+      </c>
+      <c r="H120" t="s">
+        <v>191</v>
+      </c>
+      <c r="J120" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B121" t="s">
         <v>41</v>
       </c>
       <c r="D121" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F121" t="s">
         <v>3</v>
@@ -6704,13 +6719,13 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B122" t="s">
         <v>41</v>
       </c>
       <c r="D122" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F122" t="s">
         <v>3</v>
@@ -6721,13 +6736,13 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B123" t="s">
         <v>41</v>
       </c>
       <c r="D123" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F123" t="s">
         <v>3</v>
@@ -6738,13 +6753,13 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B124" t="s">
         <v>41</v>
       </c>
       <c r="D124" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F124" t="s">
         <v>3</v>
@@ -6755,13 +6770,13 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B125" t="s">
         <v>41</v>
       </c>
       <c r="D125" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F125" t="s">
         <v>3</v>
@@ -6772,13 +6787,13 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B126" t="s">
         <v>41</v>
       </c>
       <c r="D126" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F126" t="s">
         <v>3</v>
@@ -6789,13 +6804,13 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B127" t="s">
         <v>41</v>
       </c>
       <c r="D127" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F127" t="s">
         <v>3</v>
@@ -6806,13 +6821,13 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B128" t="s">
         <v>41</v>
       </c>
       <c r="D128" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F128" t="s">
         <v>3</v>
@@ -6823,13 +6838,13 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B129" t="s">
         <v>41</v>
       </c>
       <c r="D129" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F129" t="s">
         <v>3</v>
@@ -6840,13 +6855,13 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B130" t="s">
         <v>41</v>
       </c>
       <c r="D130" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F130" t="s">
         <v>3</v>
@@ -6857,13 +6872,13 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B131" t="s">
         <v>41</v>
       </c>
       <c r="D131" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F131" t="s">
         <v>3</v>
@@ -6874,59 +6889,53 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>480</v>
+        <v>207</v>
       </c>
       <c r="B132" t="s">
-        <v>800</v>
-      </c>
-      <c r="C132" t="s">
-        <v>464</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>176</v>
+        <v>41</v>
+      </c>
+      <c r="D132" t="s">
+        <v>61</v>
       </c>
       <c r="F132" t="s">
         <v>3</v>
       </c>
-      <c r="G132" t="s">
-        <v>481</v>
-      </c>
-      <c r="J132" t="s">
-        <v>1039</v>
+      <c r="I132" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B133" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C133" t="s">
         <v>464</v>
       </c>
-      <c r="D133" t="s">
-        <v>186</v>
+      <c r="D133" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="F133" t="s">
         <v>3</v>
       </c>
       <c r="G133" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="J133" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>654</v>
+        <v>478</v>
       </c>
       <c r="B134" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C134" t="s">
-        <v>642</v>
+        <v>464</v>
       </c>
       <c r="D134" t="s">
         <v>186</v>
@@ -6935,21 +6944,21 @@
         <v>3</v>
       </c>
       <c r="G134" t="s">
-        <v>655</v>
+        <v>479</v>
       </c>
       <c r="J134" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>679</v>
+        <v>654</v>
       </c>
       <c r="B135" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C135" t="s">
-        <v>667</v>
+        <v>642</v>
       </c>
       <c r="D135" t="s">
         <v>186</v>
@@ -6958,21 +6967,21 @@
         <v>3</v>
       </c>
       <c r="G135" t="s">
-        <v>680</v>
+        <v>655</v>
       </c>
       <c r="J135" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>723</v>
+        <v>679</v>
       </c>
       <c r="B136" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C136" t="s">
-        <v>711</v>
+        <v>667</v>
       </c>
       <c r="D136" t="s">
         <v>186</v>
@@ -6981,446 +6990,446 @@
         <v>3</v>
       </c>
       <c r="G136" t="s">
-        <v>724</v>
+        <v>680</v>
       </c>
       <c r="J136" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>534</v>
+        <v>723</v>
       </c>
       <c r="B137" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C137" t="s">
-        <v>809</v>
+        <v>711</v>
       </c>
       <c r="D137" t="s">
-        <v>259</v>
-      </c>
-      <c r="E137" t="s">
-        <v>1</v>
+        <v>186</v>
       </c>
       <c r="F137" t="s">
         <v>3</v>
       </c>
       <c r="G137" t="s">
-        <v>535</v>
+        <v>724</v>
       </c>
       <c r="J137" t="s">
-        <v>973</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B138" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C138" t="s">
-        <v>809</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>168</v>
+        <v>808</v>
+      </c>
+      <c r="D138" t="s">
+        <v>259</v>
       </c>
       <c r="E138" t="s">
-        <v>821</v>
+        <v>1</v>
       </c>
       <c r="F138" t="s">
         <v>3</v>
       </c>
       <c r="G138" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="J138" t="s">
-        <v>1039</v>
+        <v>972</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B139" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C139" t="s">
-        <v>809</v>
-      </c>
-      <c r="D139" t="s">
-        <v>800</v>
+        <v>808</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="E139" t="s">
-        <v>809</v>
+        <v>820</v>
       </c>
       <c r="F139" t="s">
         <v>3</v>
       </c>
       <c r="G139" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="J139" t="s">
-        <v>974</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B140" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C140" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D140" t="s">
-        <v>186</v>
+        <v>799</v>
+      </c>
+      <c r="E140" t="s">
+        <v>808</v>
       </c>
       <c r="F140" t="s">
         <v>3</v>
       </c>
       <c r="G140" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J140" t="s">
-        <v>1039</v>
+        <v>973</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>192</v>
+        <v>538</v>
       </c>
       <c r="B141" t="s">
-        <v>800</v>
+        <v>799</v>
+      </c>
+      <c r="C141" t="s">
+        <v>808</v>
       </c>
       <c r="D141" t="s">
-        <v>16</v>
-      </c>
-      <c r="E141" t="s">
-        <v>803</v>
+        <v>186</v>
       </c>
       <c r="F141" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G141" t="s">
-        <v>194</v>
-      </c>
-      <c r="H141" t="s">
-        <v>195</v>
+        <v>539</v>
+      </c>
+      <c r="J141" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="B142" t="s">
-        <v>44</v>
+        <v>799</v>
       </c>
       <c r="D142" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="E142" t="s">
+        <v>802</v>
       </c>
       <c r="F142" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G142" t="s">
-        <v>211</v>
-      </c>
-      <c r="J142" t="s">
-        <v>876</v>
+        <v>194</v>
+      </c>
+      <c r="H142" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B143" t="s">
         <v>44</v>
       </c>
       <c r="D143" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F143" t="s">
         <v>3</v>
       </c>
       <c r="G143" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J143" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B144" t="s">
         <v>44</v>
       </c>
       <c r="D144" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F144" t="s">
         <v>3</v>
       </c>
       <c r="G144" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J144" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B145" t="s">
         <v>44</v>
       </c>
       <c r="D145" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F145" t="s">
         <v>3</v>
       </c>
       <c r="G145" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J145" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B146" t="s">
         <v>44</v>
       </c>
       <c r="D146" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F146" t="s">
         <v>3</v>
       </c>
       <c r="G146" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J146" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B147" t="s">
         <v>44</v>
       </c>
       <c r="D147" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F147" t="s">
         <v>3</v>
       </c>
-      <c r="I147" t="s">
-        <v>42</v>
+      <c r="G147" t="s">
+        <v>219</v>
+      </c>
+      <c r="J147" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B148" t="s">
         <v>44</v>
       </c>
       <c r="D148" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F148" t="s">
         <v>3</v>
       </c>
-      <c r="G148" t="s">
-        <v>222</v>
-      </c>
-      <c r="J148" t="s">
-        <v>881</v>
+      <c r="I148" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B149" t="s">
         <v>44</v>
       </c>
       <c r="D149" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F149" t="s">
         <v>3</v>
       </c>
       <c r="G149" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J149" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B150" t="s">
         <v>44</v>
       </c>
       <c r="D150" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F150" t="s">
         <v>3</v>
       </c>
       <c r="G150" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J150" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B151" t="s">
         <v>44</v>
       </c>
       <c r="D151" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F151" t="s">
         <v>3</v>
       </c>
       <c r="G151" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J151" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B152" t="s">
         <v>44</v>
       </c>
       <c r="D152" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F152" t="s">
         <v>3</v>
       </c>
       <c r="G152" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J152" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B153" t="s">
         <v>44</v>
       </c>
       <c r="D153" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F153" t="s">
         <v>3</v>
       </c>
       <c r="G153" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J153" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>97</v>
+        <v>231</v>
       </c>
       <c r="B154" t="s">
-        <v>186</v>
-      </c>
-      <c r="C154" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="D154" t="s">
-        <v>186</v>
-      </c>
-      <c r="E154" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="F154" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G154" t="s">
-        <v>100</v>
-      </c>
-      <c r="H154" t="s">
-        <v>101</v>
+        <v>232</v>
+      </c>
+      <c r="J154" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>233</v>
+        <v>97</v>
       </c>
       <c r="B155" t="s">
         <v>186</v>
       </c>
-      <c r="C155" s="4"/>
+      <c r="C155" t="s">
+        <v>98</v>
+      </c>
       <c r="D155" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="E155" t="s">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="F155" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G155" t="s">
-        <v>234</v>
+        <v>100</v>
+      </c>
+      <c r="H155" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>593</v>
+        <v>233</v>
       </c>
       <c r="B156" t="s">
-        <v>236</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="C156" s="4"/>
       <c r="D156" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E156" t="s">
-        <v>349</v>
+        <v>2</v>
       </c>
       <c r="F156" t="s">
         <v>3</v>
       </c>
       <c r="G156" t="s">
-        <v>594</v>
-      </c>
-      <c r="J156" t="s">
-        <v>990</v>
+        <v>234</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="B157" t="s">
         <v>236</v>
@@ -7428,108 +7437,108 @@
       <c r="D157" t="s">
         <v>13</v>
       </c>
+      <c r="E157" t="s">
+        <v>349</v>
+      </c>
       <c r="F157" t="s">
         <v>3</v>
       </c>
       <c r="G157" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="J157" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B158" t="s">
         <v>236</v>
       </c>
       <c r="D158" t="s">
-        <v>802</v>
+        <v>13</v>
       </c>
       <c r="F158" t="s">
         <v>3</v>
       </c>
       <c r="G158" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J158" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B159" t="s">
         <v>236</v>
       </c>
       <c r="D159" t="s">
-        <v>259</v>
-      </c>
-      <c r="E159" t="s">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="F159" t="s">
         <v>3</v>
       </c>
       <c r="G159" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="J159" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B160" t="s">
         <v>236</v>
       </c>
       <c r="D160" t="s">
-        <v>800</v>
+        <v>259</v>
       </c>
       <c r="E160" t="s">
-        <v>236</v>
+        <v>1</v>
       </c>
       <c r="F160" t="s">
         <v>3</v>
       </c>
       <c r="G160" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="J160" t="s">
-        <v>1039</v>
+        <v>986</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B161" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D161" t="s">
-        <v>13</v>
+        <v>799</v>
       </c>
       <c r="E161" t="s">
-        <v>349</v>
+        <v>236</v>
       </c>
       <c r="F161" t="s">
         <v>3</v>
       </c>
       <c r="G161" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="J161" t="s">
-        <v>994</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B162" t="s">
         <v>239</v>
@@ -7537,117 +7546,114 @@
       <c r="D162" t="s">
         <v>13</v>
       </c>
+      <c r="E162" t="s">
+        <v>349</v>
+      </c>
       <c r="F162" t="s">
         <v>3</v>
       </c>
       <c r="G162" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="J162" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B163" t="s">
         <v>239</v>
       </c>
       <c r="D163" t="s">
-        <v>802</v>
+        <v>13</v>
       </c>
       <c r="F163" t="s">
         <v>3</v>
       </c>
       <c r="G163" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J163" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="B164" t="s">
         <v>239</v>
       </c>
       <c r="D164" t="s">
-        <v>259</v>
-      </c>
-      <c r="E164" t="s">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="F164" t="s">
         <v>3</v>
       </c>
       <c r="G164" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="J164" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="B165" t="s">
         <v>239</v>
       </c>
       <c r="D165" t="s">
-        <v>800</v>
+        <v>259</v>
       </c>
       <c r="E165" t="s">
-        <v>239</v>
+        <v>1</v>
       </c>
       <c r="F165" t="s">
         <v>3</v>
       </c>
       <c r="G165" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="J165" t="s">
-        <v>1039</v>
+        <v>990</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>827</v>
+        <v>605</v>
+      </c>
+      <c r="B166" t="s">
+        <v>239</v>
+      </c>
+      <c r="D166" t="s">
+        <v>799</v>
+      </c>
+      <c r="E166" t="s">
+        <v>239</v>
       </c>
       <c r="F166" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G166" t="s">
-        <v>7</v>
-      </c>
-      <c r="H166" t="s">
-        <v>8</v>
+        <v>606</v>
+      </c>
+      <c r="J166" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>16</v>
@@ -7659,41 +7665,41 @@
         <v>6</v>
       </c>
       <c r="G167" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H167" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>459</v>
-      </c>
-      <c r="B168" t="s">
-        <v>16</v>
-      </c>
-      <c r="C168" t="s">
-        <v>451</v>
-      </c>
-      <c r="D168" t="s">
-        <v>13</v>
-      </c>
-      <c r="E168" t="s">
-        <v>349</v>
+        <v>9</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>825</v>
       </c>
       <c r="F168" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G168" t="s">
-        <v>460</v>
-      </c>
-      <c r="J168" t="s">
-        <v>950</v>
+        <v>10</v>
+      </c>
+      <c r="H168" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B169" t="s">
         <v>16</v>
@@ -7704,19 +7710,22 @@
       <c r="D169" t="s">
         <v>13</v>
       </c>
+      <c r="E169" t="s">
+        <v>349</v>
+      </c>
       <c r="F169" t="s">
         <v>3</v>
       </c>
       <c r="G169" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="J169" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B170" t="s">
         <v>16</v>
@@ -7725,21 +7734,21 @@
         <v>451</v>
       </c>
       <c r="D170" t="s">
-        <v>802</v>
+        <v>13</v>
       </c>
       <c r="F170" t="s">
         <v>3</v>
       </c>
       <c r="G170" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="J170" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B171" t="s">
         <v>16</v>
@@ -7748,24 +7757,21 @@
         <v>451</v>
       </c>
       <c r="D171" t="s">
-        <v>259</v>
-      </c>
-      <c r="E171" t="s">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="F171" t="s">
         <v>3</v>
       </c>
       <c r="G171" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="J171" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B172" t="s">
         <v>16</v>
@@ -7774,50 +7780,50 @@
         <v>451</v>
       </c>
       <c r="D172" t="s">
-        <v>800</v>
+        <v>259</v>
       </c>
       <c r="E172" t="s">
-        <v>451</v>
+        <v>1</v>
       </c>
       <c r="F172" t="s">
         <v>3</v>
       </c>
       <c r="G172" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="J172" t="s">
-        <v>1039</v>
+        <v>946</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>472</v>
-      </c>
-      <c r="B173" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B173" t="s">
         <v>16</v>
       </c>
       <c r="C173" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="D173" t="s">
-        <v>13</v>
+        <v>799</v>
       </c>
       <c r="E173" t="s">
-        <v>349</v>
+        <v>451</v>
       </c>
       <c r="F173" t="s">
         <v>3</v>
       </c>
       <c r="G173" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="J173" t="s">
-        <v>955</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>16</v>
@@ -7828,19 +7834,22 @@
       <c r="D174" t="s">
         <v>13</v>
       </c>
+      <c r="E174" t="s">
+        <v>349</v>
+      </c>
       <c r="F174" t="s">
         <v>3</v>
       </c>
       <c r="G174" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="J174" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>16</v>
@@ -7848,22 +7857,22 @@
       <c r="C175" t="s">
         <v>464</v>
       </c>
-      <c r="D175" s="2" t="s">
-        <v>802</v>
+      <c r="D175" t="s">
+        <v>13</v>
       </c>
       <c r="F175" t="s">
         <v>3</v>
       </c>
       <c r="G175" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J175" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>16</v>
@@ -7871,25 +7880,22 @@
       <c r="C176" t="s">
         <v>464</v>
       </c>
-      <c r="D176" t="s">
-        <v>259</v>
-      </c>
-      <c r="E176" t="s">
-        <v>1</v>
+      <c r="D176" s="2" t="s">
+        <v>801</v>
       </c>
       <c r="F176" t="s">
         <v>3</v>
       </c>
       <c r="G176" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="J176" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>16</v>
@@ -7897,22 +7903,25 @@
       <c r="C177" t="s">
         <v>464</v>
       </c>
-      <c r="D177" s="2" t="s">
-        <v>176</v>
+      <c r="D177" t="s">
+        <v>259</v>
+      </c>
+      <c r="E177" t="s">
+        <v>1</v>
       </c>
       <c r="F177" t="s">
         <v>3</v>
       </c>
       <c r="G177" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="J177" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>16</v>
@@ -7920,22 +7929,22 @@
       <c r="C178" t="s">
         <v>464</v>
       </c>
-      <c r="D178" t="s">
-        <v>800</v>
+      <c r="D178" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="F178" t="s">
         <v>3</v>
       </c>
       <c r="G178" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="J178" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>16</v>
@@ -7944,73 +7953,70 @@
         <v>464</v>
       </c>
       <c r="D179" t="s">
-        <v>186</v>
+        <v>799</v>
       </c>
       <c r="F179" t="s">
         <v>3</v>
       </c>
       <c r="G179" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="J179" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>635</v>
-      </c>
-      <c r="B180" t="s">
+        <v>474</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C180" t="s">
-        <v>636</v>
+        <v>464</v>
       </c>
       <c r="D180" t="s">
-        <v>16</v>
-      </c>
-      <c r="E180" t="s">
-        <v>443</v>
+        <v>186</v>
       </c>
       <c r="F180" t="s">
         <v>3</v>
       </c>
       <c r="G180" t="s">
-        <v>637</v>
+        <v>475</v>
       </c>
       <c r="J180" t="s">
-        <v>1039</v>
+        <v>955</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>505</v>
+        <v>635</v>
       </c>
       <c r="B181" t="s">
         <v>16</v>
       </c>
       <c r="C181" t="s">
-        <v>497</v>
+        <v>636</v>
       </c>
       <c r="D181" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E181" t="s">
-        <v>349</v>
+        <v>443</v>
       </c>
       <c r="F181" t="s">
         <v>3</v>
       </c>
       <c r="G181" t="s">
-        <v>506</v>
+        <v>637</v>
       </c>
       <c r="J181" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B182" t="s">
         <v>16</v>
@@ -8021,19 +8027,22 @@
       <c r="D182" t="s">
         <v>13</v>
       </c>
+      <c r="E182" t="s">
+        <v>349</v>
+      </c>
       <c r="F182" t="s">
         <v>3</v>
       </c>
       <c r="G182" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="J182" t="s">
-        <v>959</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B183" t="s">
         <v>16</v>
@@ -8041,22 +8050,22 @@
       <c r="C183" t="s">
         <v>497</v>
       </c>
-      <c r="D183" s="2" t="s">
-        <v>802</v>
+      <c r="D183" t="s">
+        <v>13</v>
       </c>
       <c r="F183" t="s">
         <v>3</v>
       </c>
       <c r="G183" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="J183" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B184" t="s">
         <v>16</v>
@@ -8064,25 +8073,22 @@
       <c r="C184" t="s">
         <v>497</v>
       </c>
-      <c r="D184" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E184" s="3" t="s">
-        <v>1</v>
+      <c r="D184" s="2" t="s">
+        <v>801</v>
       </c>
       <c r="F184" t="s">
         <v>3</v>
       </c>
       <c r="G184" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J184" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B185" t="s">
         <v>16</v>
@@ -8090,100 +8096,100 @@
       <c r="C185" t="s">
         <v>497</v>
       </c>
-      <c r="D185" t="s">
-        <v>800</v>
-      </c>
-      <c r="E185" t="s">
-        <v>497</v>
+      <c r="D185" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="F185" t="s">
         <v>3</v>
       </c>
       <c r="G185" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="J185" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="B186" t="s">
         <v>16</v>
       </c>
       <c r="C186" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="D186" t="s">
-        <v>244</v>
+        <v>799</v>
+      </c>
+      <c r="E186" t="s">
+        <v>497</v>
       </c>
       <c r="F186" t="s">
         <v>3</v>
       </c>
       <c r="G186" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="J186" t="s">
-        <v>1039</v>
+        <v>960</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>544</v>
+        <v>485</v>
       </c>
       <c r="B187" t="s">
         <v>16</v>
       </c>
       <c r="C187" t="s">
-        <v>545</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E187" t="s">
-        <v>819</v>
+        <v>486</v>
+      </c>
+      <c r="D187" t="s">
+        <v>244</v>
       </c>
       <c r="F187" t="s">
         <v>3</v>
       </c>
       <c r="G187" t="s">
-        <v>546</v>
+        <v>487</v>
       </c>
       <c r="J187" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>574</v>
+        <v>544</v>
       </c>
       <c r="B188" t="s">
         <v>16</v>
       </c>
       <c r="C188" t="s">
-        <v>568</v>
-      </c>
-      <c r="D188" t="s">
-        <v>13</v>
+        <v>545</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="E188" t="s">
-        <v>349</v>
+        <v>818</v>
       </c>
       <c r="F188" t="s">
         <v>3</v>
       </c>
       <c r="G188" t="s">
-        <v>575</v>
+        <v>546</v>
       </c>
       <c r="J188" t="s">
-        <v>986</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B189" t="s">
         <v>16</v>
@@ -8194,19 +8200,22 @@
       <c r="D189" t="s">
         <v>13</v>
       </c>
+      <c r="E189" t="s">
+        <v>349</v>
+      </c>
       <c r="F189" t="s">
         <v>3</v>
       </c>
       <c r="G189" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="J189" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B190" t="s">
         <v>16</v>
@@ -8215,21 +8224,21 @@
         <v>568</v>
       </c>
       <c r="D190" t="s">
-        <v>802</v>
+        <v>13</v>
       </c>
       <c r="F190" t="s">
         <v>3</v>
       </c>
       <c r="G190" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J190" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="B191" t="s">
         <v>16</v>
@@ -8238,24 +8247,21 @@
         <v>568</v>
       </c>
       <c r="D191" t="s">
-        <v>259</v>
-      </c>
-      <c r="E191" t="s">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="F191" t="s">
         <v>3</v>
       </c>
       <c r="G191" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="J191" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="B192" t="s">
         <v>16</v>
@@ -8264,50 +8270,50 @@
         <v>568</v>
       </c>
       <c r="D192" t="s">
-        <v>800</v>
+        <v>259</v>
       </c>
       <c r="E192" t="s">
+        <v>1</v>
+      </c>
+      <c r="F192" t="s">
+        <v>3</v>
+      </c>
+      <c r="G192" t="s">
+        <v>569</v>
+      </c>
+      <c r="J192" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>576</v>
+      </c>
+      <c r="B193" t="s">
+        <v>16</v>
+      </c>
+      <c r="C193" t="s">
         <v>568</v>
       </c>
-      <c r="F192" t="s">
-        <v>3</v>
-      </c>
-      <c r="G192" t="s">
+      <c r="D193" t="s">
+        <v>799</v>
+      </c>
+      <c r="E193" t="s">
+        <v>568</v>
+      </c>
+      <c r="F193" t="s">
+        <v>3</v>
+      </c>
+      <c r="G193" t="s">
         <v>577</v>
       </c>
-      <c r="J192" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
+      <c r="J193" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
         <v>578</v>
-      </c>
-      <c r="B193" t="s">
-        <v>16</v>
-      </c>
-      <c r="C193" t="s">
-        <v>579</v>
-      </c>
-      <c r="D193" t="s">
-        <v>259</v>
-      </c>
-      <c r="E193" t="s">
-        <v>1</v>
-      </c>
-      <c r="F193" t="s">
-        <v>3</v>
-      </c>
-      <c r="G193" t="s">
-        <v>580</v>
-      </c>
-      <c r="J193" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>581</v>
       </c>
       <c r="B194" t="s">
         <v>16</v>
@@ -8316,168 +8322,168 @@
         <v>579</v>
       </c>
       <c r="D194" t="s">
-        <v>186</v>
+        <v>259</v>
+      </c>
+      <c r="E194" t="s">
+        <v>1</v>
       </c>
       <c r="F194" t="s">
         <v>3</v>
       </c>
       <c r="G194" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="J194" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>733</v>
+        <v>581</v>
       </c>
       <c r="B195" t="s">
         <v>16</v>
       </c>
       <c r="C195" t="s">
-        <v>811</v>
+        <v>579</v>
       </c>
       <c r="D195" t="s">
-        <v>13</v>
-      </c>
-      <c r="E195" t="s">
-        <v>349</v>
+        <v>186</v>
       </c>
       <c r="F195" t="s">
         <v>3</v>
       </c>
       <c r="G195" t="s">
-        <v>734</v>
+        <v>582</v>
       </c>
       <c r="J195" t="s">
-        <v>1029</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="B196" t="s">
         <v>16</v>
       </c>
       <c r="C196" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D196" t="s">
         <v>13</v>
       </c>
+      <c r="E196" t="s">
+        <v>349</v>
+      </c>
       <c r="F196" t="s">
         <v>3</v>
       </c>
       <c r="G196" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="J196" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B197" t="s">
         <v>16</v>
       </c>
       <c r="C197" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D197" t="s">
-        <v>802</v>
+        <v>13</v>
       </c>
       <c r="F197" t="s">
         <v>3</v>
       </c>
       <c r="G197" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="J197" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="B198" t="s">
         <v>16</v>
       </c>
       <c r="C198" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D198" t="s">
-        <v>259</v>
-      </c>
-      <c r="E198" t="s">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="F198" t="s">
         <v>3</v>
       </c>
       <c r="G198" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="J198" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="B199" t="s">
         <v>16</v>
       </c>
       <c r="C199" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D199" t="s">
-        <v>800</v>
+        <v>259</v>
+      </c>
+      <c r="E199" t="s">
+        <v>1</v>
       </c>
       <c r="F199" t="s">
         <v>3</v>
       </c>
       <c r="G199" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="J199" t="s">
-        <v>1039</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>609</v>
+        <v>735</v>
       </c>
       <c r="B200" t="s">
         <v>16</v>
       </c>
       <c r="C200" t="s">
-        <v>610</v>
+        <v>810</v>
       </c>
       <c r="D200" t="s">
-        <v>16</v>
-      </c>
-      <c r="E200" t="s">
-        <v>440</v>
+        <v>799</v>
       </c>
       <c r="F200" t="s">
         <v>3</v>
       </c>
       <c r="G200" t="s">
-        <v>611</v>
+        <v>736</v>
       </c>
       <c r="J200" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B201" t="s">
         <v>16</v>
@@ -8489,21 +8495,21 @@
         <v>16</v>
       </c>
       <c r="E201" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F201" t="s">
         <v>3</v>
       </c>
       <c r="G201" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="J201" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B202" t="s">
         <v>16</v>
@@ -8515,148 +8521,148 @@
         <v>16</v>
       </c>
       <c r="E202" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F202" t="s">
         <v>3</v>
       </c>
       <c r="G202" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="J202" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>488</v>
+        <v>614</v>
       </c>
       <c r="B203" t="s">
         <v>16</v>
       </c>
       <c r="C203" t="s">
-        <v>810</v>
+        <v>610</v>
       </c>
       <c r="D203" t="s">
-        <v>800</v>
+        <v>16</v>
+      </c>
+      <c r="E203" t="s">
+        <v>446</v>
       </c>
       <c r="F203" t="s">
         <v>3</v>
       </c>
       <c r="G203" t="s">
-        <v>489</v>
+        <v>615</v>
       </c>
       <c r="J203" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>638</v>
+        <v>488</v>
       </c>
       <c r="B204" t="s">
         <v>16</v>
       </c>
       <c r="C204" t="s">
-        <v>639</v>
+        <v>809</v>
       </c>
       <c r="D204" t="s">
-        <v>800</v>
-      </c>
-      <c r="E204" t="s">
-        <v>639</v>
+        <v>799</v>
       </c>
       <c r="F204" t="s">
         <v>3</v>
       </c>
       <c r="G204" t="s">
-        <v>640</v>
+        <v>489</v>
       </c>
       <c r="J204" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>772</v>
-      </c>
-      <c r="B205" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B205" t="s">
         <v>16</v>
       </c>
       <c r="C205" t="s">
-        <v>352</v>
+        <v>639</v>
       </c>
       <c r="D205" t="s">
-        <v>71</v>
+        <v>799</v>
       </c>
       <c r="E205" t="s">
-        <v>354</v>
+        <v>639</v>
       </c>
       <c r="F205" t="s">
         <v>3</v>
       </c>
       <c r="G205" t="s">
-        <v>773</v>
+        <v>640</v>
       </c>
       <c r="J205" t="s">
-        <v>1039</v>
-      </c>
-      <c r="K205" t="s">
-        <v>813</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>351</v>
-      </c>
-      <c r="B206" t="s">
-        <v>16</v>
-      </c>
-      <c r="C206" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C206" t="s">
         <v>352</v>
       </c>
-      <c r="D206" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>822</v>
+      <c r="D206" t="s">
+        <v>71</v>
+      </c>
+      <c r="E206" t="s">
+        <v>354</v>
       </c>
       <c r="F206" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="G206" t="s">
+        <v>773</v>
       </c>
       <c r="J206" t="s">
-        <v>1039</v>
+        <v>1038</v>
+      </c>
+      <c r="K206" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>648</v>
+        <v>351</v>
       </c>
       <c r="B207" t="s">
         <v>16</v>
       </c>
-      <c r="C207" t="s">
-        <v>642</v>
-      </c>
-      <c r="D207" t="s">
-        <v>13</v>
-      </c>
-      <c r="E207" t="s">
-        <v>349</v>
+      <c r="C207" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>821</v>
       </c>
       <c r="F207" t="s">
-        <v>3</v>
-      </c>
-      <c r="G207" t="s">
-        <v>649</v>
+        <v>6</v>
       </c>
       <c r="J207" t="s">
-        <v>1002</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B208" t="s">
         <v>16</v>
@@ -8667,19 +8673,22 @@
       <c r="D208" t="s">
         <v>13</v>
       </c>
+      <c r="E208" t="s">
+        <v>349</v>
+      </c>
       <c r="F208" t="s">
         <v>3</v>
       </c>
       <c r="G208" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="J208" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B209" t="s">
         <v>16</v>
@@ -8688,21 +8697,21 @@
         <v>642</v>
       </c>
       <c r="D209" t="s">
-        <v>802</v>
+        <v>13</v>
       </c>
       <c r="F209" t="s">
         <v>3</v>
       </c>
       <c r="G209" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="J209" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="B210" t="s">
         <v>16</v>
@@ -8711,24 +8720,21 @@
         <v>642</v>
       </c>
       <c r="D210" t="s">
-        <v>259</v>
-      </c>
-      <c r="E210" t="s">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="F210" t="s">
         <v>3</v>
       </c>
       <c r="G210" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="J210" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="B211" t="s">
         <v>16</v>
@@ -8737,24 +8743,24 @@
         <v>642</v>
       </c>
       <c r="D211" t="s">
-        <v>800</v>
+        <v>259</v>
       </c>
       <c r="E211" t="s">
-        <v>642</v>
+        <v>1</v>
       </c>
       <c r="F211" t="s">
         <v>3</v>
       </c>
       <c r="G211" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="J211" t="s">
-        <v>1039</v>
+        <v>998</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B212" t="s">
         <v>16</v>
@@ -8763,47 +8769,47 @@
         <v>642</v>
       </c>
       <c r="D212" t="s">
-        <v>186</v>
+        <v>799</v>
+      </c>
+      <c r="E212" t="s">
+        <v>642</v>
       </c>
       <c r="F212" t="s">
         <v>3</v>
       </c>
       <c r="G212" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="J212" t="s">
-        <v>1003</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>673</v>
+        <v>650</v>
       </c>
       <c r="B213" t="s">
         <v>16</v>
       </c>
       <c r="C213" t="s">
-        <v>667</v>
+        <v>642</v>
       </c>
       <c r="D213" t="s">
-        <v>13</v>
-      </c>
-      <c r="E213" t="s">
-        <v>349</v>
+        <v>186</v>
       </c>
       <c r="F213" t="s">
         <v>3</v>
       </c>
       <c r="G213" t="s">
-        <v>674</v>
+        <v>651</v>
       </c>
       <c r="J213" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="B214" t="s">
         <v>16</v>
@@ -8814,19 +8820,22 @@
       <c r="D214" t="s">
         <v>13</v>
       </c>
+      <c r="E214" t="s">
+        <v>349</v>
+      </c>
       <c r="F214" t="s">
         <v>3</v>
       </c>
       <c r="G214" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="J214" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B215" t="s">
         <v>16</v>
@@ -8835,21 +8844,21 @@
         <v>667</v>
       </c>
       <c r="D215" t="s">
-        <v>802</v>
+        <v>13</v>
       </c>
       <c r="F215" t="s">
         <v>3</v>
       </c>
       <c r="G215" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="J215" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="B216" t="s">
         <v>16</v>
@@ -8858,24 +8867,21 @@
         <v>667</v>
       </c>
       <c r="D216" t="s">
-        <v>259</v>
-      </c>
-      <c r="E216" t="s">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="F216" t="s">
         <v>3</v>
       </c>
       <c r="G216" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="J216" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="B217" t="s">
         <v>16</v>
@@ -8884,24 +8890,24 @@
         <v>667</v>
       </c>
       <c r="D217" t="s">
-        <v>800</v>
+        <v>259</v>
       </c>
       <c r="E217" t="s">
-        <v>667</v>
+        <v>1</v>
       </c>
       <c r="F217" t="s">
         <v>3</v>
       </c>
       <c r="G217" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="J217" t="s">
-        <v>1039</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B218" t="s">
         <v>16</v>
@@ -8910,252 +8916,252 @@
         <v>667</v>
       </c>
       <c r="D218" t="s">
-        <v>186</v>
+        <v>799</v>
+      </c>
+      <c r="E218" t="s">
+        <v>667</v>
       </c>
       <c r="F218" t="s">
         <v>3</v>
       </c>
       <c r="G218" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="J218" t="s">
-        <v>1012</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>585</v>
-      </c>
-      <c r="B219" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B219" t="s">
         <v>16</v>
       </c>
       <c r="C219" t="s">
-        <v>815</v>
+        <v>667</v>
       </c>
       <c r="D219" t="s">
-        <v>71</v>
-      </c>
-      <c r="E219" t="s">
-        <v>354</v>
+        <v>186</v>
       </c>
       <c r="F219" t="s">
         <v>3</v>
       </c>
       <c r="G219" t="s">
-        <v>586</v>
+        <v>676</v>
       </c>
       <c r="J219" t="s">
-        <v>1039</v>
-      </c>
-      <c r="K219" t="s">
-        <v>816</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C220" t="s">
+        <v>814</v>
+      </c>
+      <c r="D220" t="s">
+        <v>71</v>
+      </c>
+      <c r="E220" t="s">
+        <v>354</v>
+      </c>
+      <c r="F220" t="s">
+        <v>3</v>
+      </c>
+      <c r="G220" t="s">
+        <v>586</v>
+      </c>
+      <c r="J220" t="s">
+        <v>1038</v>
+      </c>
+      <c r="K220" t="s">
         <v>815</v>
-      </c>
-      <c r="D220" t="s">
-        <v>176</v>
-      </c>
-      <c r="F220" t="s">
-        <v>3</v>
-      </c>
-      <c r="G220" t="s">
-        <v>584</v>
-      </c>
-      <c r="J220" t="s">
-        <v>1039</v>
-      </c>
-      <c r="K220" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>662</v>
-      </c>
-      <c r="B221" t="s">
+        <v>583</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C221" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
       <c r="D221" t="s">
-        <v>13</v>
-      </c>
-      <c r="E221" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="F221" t="s">
         <v>3</v>
       </c>
       <c r="G221" t="s">
-        <v>663</v>
+        <v>584</v>
       </c>
       <c r="J221" t="s">
-        <v>1007</v>
+        <v>1038</v>
+      </c>
+      <c r="K221" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="B222" t="s">
         <v>16</v>
       </c>
       <c r="C222" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D222" t="s">
         <v>13</v>
       </c>
+      <c r="E222" t="s">
+        <v>349</v>
+      </c>
       <c r="F222" t="s">
         <v>3</v>
       </c>
       <c r="G222" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="J222" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B223" t="s">
         <v>16</v>
       </c>
       <c r="C223" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D223" t="s">
-        <v>802</v>
+        <v>13</v>
       </c>
       <c r="F223" t="s">
         <v>3</v>
       </c>
       <c r="G223" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="J223" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="B224" t="s">
         <v>16</v>
       </c>
       <c r="C224" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D224" t="s">
-        <v>259</v>
-      </c>
-      <c r="E224" t="s">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="F224" t="s">
         <v>3</v>
       </c>
       <c r="G224" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="J224" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="B225" t="s">
         <v>16</v>
       </c>
       <c r="C225" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D225" t="s">
-        <v>800</v>
+        <v>259</v>
       </c>
       <c r="E225" t="s">
-        <v>805</v>
+        <v>1</v>
       </c>
       <c r="F225" t="s">
         <v>3</v>
       </c>
       <c r="G225" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="J225" t="s">
-        <v>1039</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>685</v>
+        <v>664</v>
       </c>
       <c r="B226" t="s">
         <v>16</v>
       </c>
       <c r="C226" t="s">
-        <v>354</v>
+        <v>804</v>
       </c>
       <c r="D226" t="s">
-        <v>16</v>
+        <v>799</v>
       </c>
       <c r="E226" t="s">
-        <v>2</v>
+        <v>804</v>
       </c>
       <c r="F226" t="s">
         <v>3</v>
       </c>
       <c r="G226" t="s">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="J226" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>717</v>
+        <v>685</v>
       </c>
       <c r="B227" t="s">
         <v>16</v>
       </c>
       <c r="C227" t="s">
-        <v>711</v>
+        <v>354</v>
       </c>
       <c r="D227" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E227" t="s">
-        <v>349</v>
+        <v>2</v>
       </c>
       <c r="F227" t="s">
         <v>3</v>
       </c>
       <c r="G227" t="s">
-        <v>718</v>
+        <v>686</v>
       </c>
       <c r="J227" t="s">
-        <v>1024</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="B228" t="s">
         <v>16</v>
@@ -9166,19 +9172,22 @@
       <c r="D228" t="s">
         <v>13</v>
       </c>
+      <c r="E228" t="s">
+        <v>349</v>
+      </c>
       <c r="F228" t="s">
         <v>3</v>
       </c>
       <c r="G228" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="J228" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B229" t="s">
         <v>16</v>
@@ -9187,21 +9196,21 @@
         <v>711</v>
       </c>
       <c r="D229" t="s">
-        <v>802</v>
+        <v>13</v>
       </c>
       <c r="F229" t="s">
         <v>3</v>
       </c>
       <c r="G229" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J229" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="B230" t="s">
         <v>16</v>
@@ -9210,24 +9219,21 @@
         <v>711</v>
       </c>
       <c r="D230" t="s">
-        <v>259</v>
-      </c>
-      <c r="E230" t="s">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="F230" t="s">
         <v>3</v>
       </c>
       <c r="G230" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="J230" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="B231" t="s">
         <v>16</v>
@@ -9236,24 +9242,24 @@
         <v>711</v>
       </c>
       <c r="D231" t="s">
-        <v>800</v>
+        <v>259</v>
       </c>
       <c r="E231" t="s">
-        <v>711</v>
+        <v>1</v>
       </c>
       <c r="F231" t="s">
         <v>3</v>
       </c>
       <c r="G231" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="J231" t="s">
-        <v>1039</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B232" t="s">
         <v>16</v>
@@ -9262,47 +9268,47 @@
         <v>711</v>
       </c>
       <c r="D232" t="s">
-        <v>186</v>
+        <v>799</v>
+      </c>
+      <c r="E232" t="s">
+        <v>711</v>
       </c>
       <c r="F232" t="s">
         <v>3</v>
       </c>
       <c r="G232" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="J232" t="s">
-        <v>1025</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>516</v>
+        <v>719</v>
       </c>
       <c r="B233" t="s">
         <v>16</v>
       </c>
       <c r="C233" t="s">
-        <v>508</v>
+        <v>711</v>
       </c>
       <c r="D233" t="s">
-        <v>13</v>
-      </c>
-      <c r="E233" t="s">
-        <v>349</v>
+        <v>186</v>
       </c>
       <c r="F233" t="s">
         <v>3</v>
       </c>
       <c r="G233" t="s">
-        <v>517</v>
+        <v>720</v>
       </c>
       <c r="J233" t="s">
-        <v>966</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="B234" t="s">
         <v>16</v>
@@ -9313,19 +9319,22 @@
       <c r="D234" t="s">
         <v>13</v>
       </c>
+      <c r="E234" t="s">
+        <v>349</v>
+      </c>
       <c r="F234" t="s">
         <v>3</v>
       </c>
       <c r="G234" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="J234" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B235" t="s">
         <v>16</v>
@@ -9333,22 +9342,22 @@
       <c r="C235" t="s">
         <v>508</v>
       </c>
-      <c r="D235" s="2" t="s">
-        <v>802</v>
+      <c r="D235" t="s">
+        <v>13</v>
       </c>
       <c r="F235" t="s">
         <v>3</v>
       </c>
       <c r="G235" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J235" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="B236" t="s">
         <v>16</v>
@@ -9356,25 +9365,22 @@
       <c r="C236" t="s">
         <v>508</v>
       </c>
-      <c r="D236" t="s">
-        <v>259</v>
-      </c>
-      <c r="E236" t="s">
-        <v>1</v>
+      <c r="D236" s="2" t="s">
+        <v>801</v>
       </c>
       <c r="F236" t="s">
         <v>3</v>
       </c>
       <c r="G236" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="J236" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="B237" t="s">
         <v>16</v>
@@ -9382,25 +9388,25 @@
       <c r="C237" t="s">
         <v>508</v>
       </c>
-      <c r="D237" s="2" t="s">
-        <v>168</v>
+      <c r="D237" t="s">
+        <v>259</v>
       </c>
       <c r="E237" t="s">
-        <v>821</v>
+        <v>1</v>
       </c>
       <c r="F237" t="s">
         <v>3</v>
       </c>
       <c r="G237" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="J237" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B238" t="s">
         <v>16</v>
@@ -9408,25 +9414,25 @@
       <c r="C238" t="s">
         <v>508</v>
       </c>
-      <c r="D238" t="s">
-        <v>800</v>
+      <c r="D238" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="E238" t="s">
-        <v>508</v>
+        <v>820</v>
       </c>
       <c r="F238" t="s">
         <v>3</v>
       </c>
       <c r="G238" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="J238" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B239" t="s">
         <v>16</v>
@@ -9435,62 +9441,65 @@
         <v>508</v>
       </c>
       <c r="D239" t="s">
-        <v>186</v>
+        <v>799</v>
+      </c>
+      <c r="E239" t="s">
+        <v>508</v>
       </c>
       <c r="F239" t="s">
         <v>3</v>
       </c>
       <c r="G239" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="J239" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="B240" t="s">
         <v>16</v>
       </c>
       <c r="C240" t="s">
-        <v>809</v>
+        <v>508</v>
       </c>
       <c r="D240" t="s">
-        <v>13</v>
-      </c>
-      <c r="E240" t="s">
-        <v>349</v>
+        <v>186</v>
       </c>
       <c r="F240" t="s">
         <v>3</v>
       </c>
       <c r="G240" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="J240" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B241" t="s">
         <v>16</v>
       </c>
       <c r="C241" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D241" t="s">
         <v>13</v>
       </c>
+      <c r="E241" t="s">
+        <v>349</v>
+      </c>
       <c r="F241" t="s">
         <v>3</v>
       </c>
       <c r="G241" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="J241" t="s">
         <v>970</v>
@@ -9498,74 +9507,71 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B242" t="s">
         <v>16</v>
       </c>
       <c r="C242" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D242" t="s">
-        <v>802</v>
+        <v>13</v>
       </c>
       <c r="F242" t="s">
         <v>3</v>
       </c>
       <c r="G242" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="J242" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B243" t="s">
         <v>16</v>
       </c>
       <c r="C243" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D243" t="s">
-        <v>259</v>
-      </c>
-      <c r="E243" t="s">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="F243" t="s">
         <v>3</v>
       </c>
       <c r="G243" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="J243" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="B244" t="s">
         <v>16</v>
       </c>
       <c r="C244" t="s">
-        <v>809</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>168</v>
+        <v>808</v>
+      </c>
+      <c r="D244" t="s">
+        <v>259</v>
       </c>
       <c r="E244" t="s">
-        <v>821</v>
+        <v>1</v>
       </c>
       <c r="F244" t="s">
         <v>3</v>
       </c>
       <c r="G244" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="J244" t="s">
         <v>968</v>
@@ -9573,56 +9579,56 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B245" t="s">
         <v>16</v>
       </c>
       <c r="C245" t="s">
-        <v>809</v>
-      </c>
-      <c r="D245" t="s">
-        <v>186</v>
+        <v>808</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E245" t="s">
+        <v>820</v>
       </c>
       <c r="F245" t="s">
         <v>3</v>
       </c>
       <c r="G245" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J245" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>737</v>
+        <v>530</v>
       </c>
       <c r="B246" t="s">
         <v>16</v>
       </c>
       <c r="C246" t="s">
-        <v>738</v>
+        <v>808</v>
       </c>
       <c r="D246" t="s">
-        <v>16</v>
-      </c>
-      <c r="E246" t="s">
-        <v>440</v>
+        <v>186</v>
       </c>
       <c r="F246" t="s">
         <v>3</v>
       </c>
       <c r="G246" t="s">
-        <v>739</v>
+        <v>531</v>
       </c>
       <c r="J246" t="s">
-        <v>1039</v>
+        <v>971</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B247" t="s">
         <v>16</v>
@@ -9634,21 +9640,21 @@
         <v>16</v>
       </c>
       <c r="E247" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F247" t="s">
         <v>3</v>
       </c>
       <c r="G247" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="J247" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B248" t="s">
         <v>16</v>
@@ -9660,99 +9666,99 @@
         <v>16</v>
       </c>
       <c r="E248" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F248" t="s">
         <v>3</v>
       </c>
       <c r="G248" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="J248" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="B249" t="s">
         <v>16</v>
       </c>
       <c r="C249" t="s">
-        <v>806</v>
+        <v>738</v>
       </c>
       <c r="D249" t="s">
-        <v>800</v>
+        <v>16</v>
       </c>
       <c r="E249" t="s">
-        <v>806</v>
+        <v>446</v>
       </c>
       <c r="F249" t="s">
         <v>3</v>
       </c>
       <c r="G249" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="J249" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>482</v>
+        <v>756</v>
       </c>
       <c r="B250" t="s">
         <v>16</v>
       </c>
       <c r="C250" t="s">
-        <v>483</v>
+        <v>805</v>
       </c>
       <c r="D250" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E250" t="s">
-        <v>483</v>
+        <v>805</v>
       </c>
       <c r="F250" t="s">
         <v>3</v>
       </c>
       <c r="G250" t="s">
-        <v>484</v>
+        <v>757</v>
       </c>
       <c r="J250" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>765</v>
+        <v>482</v>
       </c>
       <c r="B251" t="s">
         <v>16</v>
       </c>
       <c r="C251" t="s">
-        <v>759</v>
+        <v>483</v>
       </c>
       <c r="D251" t="s">
-        <v>13</v>
+        <v>799</v>
       </c>
       <c r="E251" t="s">
-        <v>349</v>
+        <v>483</v>
       </c>
       <c r="F251" t="s">
         <v>3</v>
       </c>
       <c r="G251" t="s">
-        <v>766</v>
+        <v>484</v>
       </c>
       <c r="J251" t="s">
-        <v>1033</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="B252" t="s">
         <v>16</v>
@@ -9763,19 +9769,22 @@
       <c r="D252" t="s">
         <v>13</v>
       </c>
+      <c r="E252" t="s">
+        <v>349</v>
+      </c>
       <c r="F252" t="s">
         <v>3</v>
       </c>
       <c r="G252" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="J252" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B253" t="s">
         <v>16</v>
@@ -9784,21 +9793,21 @@
         <v>759</v>
       </c>
       <c r="D253" t="s">
-        <v>802</v>
+        <v>13</v>
       </c>
       <c r="F253" t="s">
         <v>3</v>
       </c>
       <c r="G253" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="J253" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="B254" t="s">
         <v>16</v>
@@ -9807,24 +9816,21 @@
         <v>759</v>
       </c>
       <c r="D254" t="s">
-        <v>259</v>
-      </c>
-      <c r="E254" t="s">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="F254" t="s">
         <v>3</v>
       </c>
       <c r="G254" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="J254" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="B255" t="s">
         <v>16</v>
@@ -9833,76 +9839,76 @@
         <v>759</v>
       </c>
       <c r="D255" t="s">
-        <v>800</v>
+        <v>259</v>
       </c>
       <c r="E255" t="s">
-        <v>759</v>
+        <v>1</v>
       </c>
       <c r="F255" t="s">
         <v>3</v>
       </c>
       <c r="G255" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="J255" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B256" t="s">
         <v>16</v>
       </c>
       <c r="C256" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="D256" t="s">
-        <v>16</v>
+        <v>799</v>
       </c>
       <c r="E256" t="s">
-        <v>812</v>
+        <v>759</v>
       </c>
       <c r="F256" t="s">
         <v>3</v>
       </c>
       <c r="G256" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="J256" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="B257" t="s">
         <v>16</v>
       </c>
       <c r="C257" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="D257" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E257" t="s">
-        <v>349</v>
+        <v>811</v>
       </c>
       <c r="F257" t="s">
         <v>3</v>
       </c>
       <c r="G257" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="J257" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="B258" t="s">
         <v>16</v>
@@ -9913,19 +9919,22 @@
       <c r="D258" t="s">
         <v>13</v>
       </c>
+      <c r="E258" t="s">
+        <v>349</v>
+      </c>
       <c r="F258" t="s">
         <v>3</v>
       </c>
       <c r="G258" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="J258" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B259" t="s">
         <v>16</v>
@@ -9934,21 +9943,21 @@
         <v>775</v>
       </c>
       <c r="D259" t="s">
-        <v>802</v>
+        <v>13</v>
       </c>
       <c r="F259" t="s">
         <v>3</v>
       </c>
       <c r="G259" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="J259" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="B260" t="s">
         <v>16</v>
@@ -9957,24 +9966,21 @@
         <v>775</v>
       </c>
       <c r="D260" t="s">
-        <v>259</v>
-      </c>
-      <c r="E260" t="s">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="F260" t="s">
         <v>3</v>
       </c>
       <c r="G260" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="J260" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="B261" t="s">
         <v>16</v>
@@ -9983,198 +9989,204 @@
         <v>775</v>
       </c>
       <c r="D261" t="s">
-        <v>800</v>
+        <v>259</v>
       </c>
       <c r="E261" t="s">
-        <v>775</v>
+        <v>1</v>
       </c>
       <c r="F261" t="s">
         <v>3</v>
       </c>
       <c r="G261" t="s">
-        <v>784</v>
+        <v>776</v>
+      </c>
+      <c r="J261" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>246</v>
+        <v>783</v>
       </c>
       <c r="B262" t="s">
         <v>16</v>
       </c>
+      <c r="C262" t="s">
+        <v>775</v>
+      </c>
       <c r="D262" t="s">
-        <v>20</v>
+        <v>799</v>
+      </c>
+      <c r="E262" t="s">
+        <v>775</v>
       </c>
       <c r="F262" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G262" t="s">
-        <v>247</v>
-      </c>
-      <c r="H262" t="s">
-        <v>248</v>
+        <v>784</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B263" t="s">
         <v>16</v>
       </c>
       <c r="D263" t="s">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="F263" t="s">
         <v>6</v>
       </c>
       <c r="G263" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="H263" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B264" t="s">
         <v>16</v>
       </c>
       <c r="D264" t="s">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="F264" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G264" t="s">
-        <v>250</v>
-      </c>
-      <c r="J264" t="s">
-        <v>887</v>
+        <v>245</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B265" t="s">
         <v>16</v>
       </c>
       <c r="D265" t="s">
-        <v>252</v>
+        <v>29</v>
       </c>
       <c r="F265" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G265" t="s">
-        <v>253</v>
-      </c>
-      <c r="H265" t="s">
-        <v>254</v>
+        <v>250</v>
+      </c>
+      <c r="J265" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B266" t="s">
         <v>16</v>
       </c>
       <c r="D266" t="s">
-        <v>32</v>
+        <v>252</v>
       </c>
       <c r="F266" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G266" t="s">
-        <v>257</v>
-      </c>
-      <c r="J266" t="s">
-        <v>888</v>
+        <v>253</v>
+      </c>
+      <c r="H266" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B267" t="s">
         <v>16</v>
       </c>
       <c r="D267" t="s">
-        <v>259</v>
+        <v>32</v>
       </c>
       <c r="F267" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G267" t="s">
-        <v>260</v>
-      </c>
-      <c r="H267" t="s">
-        <v>261</v>
+        <v>257</v>
+      </c>
+      <c r="J267" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B268" t="s">
         <v>16</v>
       </c>
       <c r="D268" t="s">
-        <v>35</v>
+        <v>259</v>
       </c>
       <c r="F268" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G268" t="s">
-        <v>263</v>
-      </c>
-      <c r="J268" t="s">
-        <v>889</v>
+        <v>260</v>
+      </c>
+      <c r="H268" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B269" t="s">
         <v>16</v>
       </c>
       <c r="D269" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F269" t="s">
         <v>3</v>
       </c>
       <c r="G269" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J269" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="B270" t="s">
         <v>16</v>
       </c>
       <c r="D270" t="s">
-        <v>176</v>
-      </c>
-      <c r="E270" t="s">
-        <v>797</v>
+        <v>38</v>
       </c>
       <c r="F270" t="s">
-        <v>6</v>
-      </c>
-      <c r="I270" t="s">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="G270" t="s">
+        <v>265</v>
+      </c>
+      <c r="J270" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="B271" t="s">
         <v>16</v>
@@ -10183,21 +10195,18 @@
         <v>176</v>
       </c>
       <c r="E271" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="F271" t="s">
-        <v>3</v>
-      </c>
-      <c r="G271" t="s">
-        <v>270</v>
-      </c>
-      <c r="J271" t="s">
-        <v>1039</v>
+        <v>6</v>
+      </c>
+      <c r="I271" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B272" t="s">
         <v>16</v>
@@ -10205,889 +10214,889 @@
       <c r="D272" t="s">
         <v>176</v>
       </c>
+      <c r="E272" t="s">
+        <v>793</v>
+      </c>
       <c r="F272" t="s">
         <v>3</v>
       </c>
       <c r="G272" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="J272" t="s">
-        <v>891</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B273" t="s">
         <v>16</v>
       </c>
       <c r="D273" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="F273" t="s">
         <v>3</v>
       </c>
-      <c r="I273" t="s">
-        <v>42</v>
+      <c r="G273" t="s">
+        <v>267</v>
       </c>
       <c r="J273" t="s">
-        <v>1039</v>
+        <v>890</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>607</v>
+        <v>268</v>
       </c>
       <c r="B274" t="s">
         <v>16</v>
       </c>
       <c r="D274" t="s">
-        <v>800</v>
-      </c>
-      <c r="E274" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F274" t="s">
         <v>3</v>
       </c>
-      <c r="G274" t="s">
-        <v>608</v>
+      <c r="I274" t="s">
+        <v>42</v>
       </c>
       <c r="J274" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>271</v>
+        <v>607</v>
       </c>
       <c r="B275" t="s">
         <v>16</v>
       </c>
       <c r="D275" t="s">
-        <v>44</v>
+        <v>799</v>
+      </c>
+      <c r="E275" t="s">
+        <v>16</v>
       </c>
       <c r="F275" t="s">
         <v>3</v>
       </c>
       <c r="G275" t="s">
-        <v>272</v>
+        <v>608</v>
       </c>
       <c r="J275" t="s">
-        <v>892</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B276" t="s">
         <v>16</v>
       </c>
       <c r="D276" t="s">
-        <v>186</v>
+        <v>44</v>
       </c>
       <c r="F276" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G276" t="s">
-        <v>274</v>
-      </c>
-      <c r="H276" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J276" t="s">
-        <v>1039</v>
+        <v>891</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B277" t="s">
         <v>16</v>
       </c>
       <c r="D277" t="s">
-        <v>49</v>
+        <v>186</v>
       </c>
       <c r="F277" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G277" t="s">
-        <v>277</v>
+        <v>274</v>
+      </c>
+      <c r="H277" t="s">
+        <v>275</v>
       </c>
       <c r="J277" t="s">
-        <v>893</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B278" t="s">
         <v>16</v>
       </c>
       <c r="D278" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F278" t="s">
         <v>3</v>
       </c>
       <c r="G278" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="J278" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B279" t="s">
         <v>16</v>
       </c>
       <c r="D279" t="s">
-        <v>352</v>
-      </c>
-      <c r="E279" t="s">
-        <v>796</v>
+        <v>52</v>
       </c>
       <c r="F279" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G279" t="s">
-        <v>279</v>
-      </c>
-      <c r="H279" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J279" t="s">
-        <v>1039</v>
+        <v>893</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B280" t="s">
         <v>16</v>
       </c>
       <c r="D280" t="s">
-        <v>55</v>
+        <v>352</v>
+      </c>
+      <c r="E280" t="s">
+        <v>795</v>
       </c>
       <c r="F280" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G280" t="s">
-        <v>284</v>
+        <v>279</v>
+      </c>
+      <c r="H280" t="s">
+        <v>280</v>
       </c>
       <c r="J280" t="s">
-        <v>895</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B281" t="s">
         <v>16</v>
       </c>
       <c r="D281" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F281" t="s">
         <v>3</v>
       </c>
       <c r="G281" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J281" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>412</v>
+        <v>285</v>
       </c>
       <c r="B282" t="s">
         <v>16</v>
       </c>
       <c r="D282" t="s">
-        <v>413</v>
+        <v>58</v>
       </c>
       <c r="F282" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G282" t="s">
-        <v>414</v>
-      </c>
-      <c r="H282" t="s">
-        <v>415</v>
+        <v>286</v>
       </c>
       <c r="J282" t="s">
-        <v>1039</v>
+        <v>895</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>287</v>
+        <v>412</v>
       </c>
       <c r="B283" t="s">
         <v>16</v>
       </c>
       <c r="D283" t="s">
-        <v>288</v>
+        <v>413</v>
       </c>
       <c r="F283" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G283" t="s">
-        <v>289</v>
+        <v>414</v>
+      </c>
+      <c r="H283" t="s">
+        <v>415</v>
       </c>
       <c r="J283" t="s">
-        <v>897</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D284" t="s">
-        <v>13</v>
+        <v>288</v>
       </c>
       <c r="F284" t="s">
         <v>3</v>
       </c>
       <c r="G284" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="J284" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B285" t="s">
         <v>49</v>
       </c>
       <c r="D285" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F285" t="s">
         <v>3</v>
       </c>
       <c r="G285" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J285" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B286" t="s">
         <v>49</v>
       </c>
       <c r="D286" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F286" t="s">
         <v>3</v>
       </c>
       <c r="G286" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J286" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B287" t="s">
         <v>49</v>
       </c>
       <c r="D287" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F287" t="s">
         <v>3</v>
       </c>
       <c r="G287" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J287" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B288" t="s">
         <v>49</v>
       </c>
       <c r="D288" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F288" t="s">
         <v>3</v>
       </c>
       <c r="G288" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J288" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B289" t="s">
         <v>49</v>
       </c>
       <c r="D289" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F289" t="s">
         <v>3</v>
       </c>
-      <c r="I289" t="s">
-        <v>42</v>
+      <c r="G289" t="s">
+        <v>302</v>
       </c>
       <c r="J289" t="s">
-        <v>1039</v>
+        <v>901</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B290" t="s">
         <v>49</v>
       </c>
       <c r="D290" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F290" t="s">
         <v>3</v>
       </c>
-      <c r="G290" t="s">
-        <v>305</v>
+      <c r="I290" t="s">
+        <v>42</v>
       </c>
       <c r="J290" t="s">
-        <v>903</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B291" t="s">
         <v>49</v>
       </c>
       <c r="D291" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F291" t="s">
         <v>3</v>
       </c>
       <c r="G291" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J291" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B292" t="s">
         <v>49</v>
       </c>
       <c r="D292" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="F292" t="s">
         <v>3</v>
       </c>
       <c r="G292" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J292" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B293" t="s">
         <v>49</v>
       </c>
       <c r="D293" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F293" t="s">
         <v>3</v>
       </c>
       <c r="G293" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J293" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B294" t="s">
         <v>49</v>
       </c>
       <c r="D294" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F294" t="s">
         <v>3</v>
       </c>
       <c r="G294" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J294" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B295" t="s">
         <v>49</v>
       </c>
       <c r="D295" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F295" t="s">
         <v>3</v>
       </c>
       <c r="G295" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J295" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>693</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>804</v>
+        <v>314</v>
+      </c>
+      <c r="B296" t="s">
+        <v>49</v>
       </c>
       <c r="D296" t="s">
-        <v>13</v>
-      </c>
-      <c r="E296" t="s">
-        <v>349</v>
+        <v>61</v>
       </c>
       <c r="F296" t="s">
         <v>3</v>
       </c>
       <c r="G296" t="s">
-        <v>694</v>
+        <v>315</v>
       </c>
       <c r="J296" t="s">
-        <v>1016</v>
+        <v>907</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D297" t="s">
         <v>13</v>
       </c>
+      <c r="E297" t="s">
+        <v>349</v>
+      </c>
       <c r="F297" t="s">
         <v>3</v>
       </c>
       <c r="G297" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="J297" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D298" t="s">
-        <v>802</v>
+        <v>13</v>
       </c>
       <c r="F298" t="s">
         <v>3</v>
       </c>
       <c r="G298" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J298" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D299" t="s">
-        <v>259</v>
-      </c>
-      <c r="E299" t="s">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="F299" t="s">
         <v>3</v>
       </c>
       <c r="G299" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="J299" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D300" t="s">
-        <v>800</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>804</v>
+        <v>259</v>
+      </c>
+      <c r="E300" t="s">
+        <v>1</v>
       </c>
       <c r="F300" t="s">
         <v>3</v>
       </c>
       <c r="G300" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="J300" t="s">
-        <v>1039</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>322</v>
-      </c>
-      <c r="B301" t="s">
-        <v>52</v>
+        <v>695</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>803</v>
       </c>
       <c r="D301" t="s">
-        <v>13</v>
+        <v>799</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>803</v>
       </c>
       <c r="F301" t="s">
         <v>3</v>
       </c>
       <c r="G301" t="s">
-        <v>323</v>
+        <v>696</v>
       </c>
       <c r="J301" t="s">
-        <v>909</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B302" t="s">
         <v>52</v>
       </c>
       <c r="D302" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F302" t="s">
         <v>3</v>
       </c>
       <c r="G302" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J302" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B303" t="s">
         <v>52</v>
       </c>
       <c r="D303" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F303" t="s">
         <v>3</v>
       </c>
       <c r="G303" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J303" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B304" t="s">
         <v>52</v>
       </c>
       <c r="D304" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F304" t="s">
         <v>3</v>
       </c>
       <c r="G304" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J304" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B305" t="s">
         <v>52</v>
       </c>
       <c r="D305" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F305" t="s">
         <v>3</v>
       </c>
       <c r="G305" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J305" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B306" t="s">
         <v>52</v>
       </c>
       <c r="D306" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F306" t="s">
         <v>3</v>
       </c>
-      <c r="I306" t="s">
-        <v>42</v>
+      <c r="G306" t="s">
+        <v>331</v>
       </c>
       <c r="J306" t="s">
-        <v>1039</v>
+        <v>912</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B307" t="s">
         <v>52</v>
       </c>
       <c r="D307" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F307" t="s">
         <v>3</v>
       </c>
-      <c r="G307" t="s">
-        <v>334</v>
+      <c r="I307" t="s">
+        <v>42</v>
       </c>
       <c r="J307" t="s">
-        <v>914</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B308" t="s">
         <v>52</v>
       </c>
       <c r="D308" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F308" t="s">
         <v>3</v>
       </c>
       <c r="G308" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J308" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B309" t="s">
         <v>52</v>
       </c>
       <c r="D309" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F309" t="s">
         <v>3</v>
       </c>
       <c r="G309" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J309" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B310" t="s">
         <v>52</v>
       </c>
       <c r="D310" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F310" t="s">
         <v>3</v>
       </c>
       <c r="G310" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J310" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B311" t="s">
         <v>52</v>
       </c>
       <c r="D311" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F311" t="s">
         <v>3</v>
       </c>
       <c r="G311" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J311" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B312" t="s">
         <v>52</v>
       </c>
       <c r="D312" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F312" t="s">
         <v>3</v>
       </c>
       <c r="G312" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J312" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B313" t="s">
-        <v>346</v>
+        <v>52</v>
       </c>
       <c r="D313" t="s">
-        <v>16</v>
-      </c>
-      <c r="E313" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="F313" t="s">
         <v>3</v>
       </c>
       <c r="G313" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J313" t="s">
-        <v>1039</v>
+        <v>918</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>704</v>
+        <v>345</v>
       </c>
       <c r="B314" t="s">
-        <v>698</v>
+        <v>346</v>
       </c>
       <c r="D314" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E314" t="s">
-        <v>349</v>
+        <v>2</v>
       </c>
       <c r="F314" t="s">
         <v>3</v>
       </c>
       <c r="G314" t="s">
-        <v>705</v>
+        <v>347</v>
       </c>
       <c r="J314" t="s">
-        <v>1020</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="B315" t="s">
         <v>698</v>
@@ -11095,723 +11104,723 @@
       <c r="D315" t="s">
         <v>13</v>
       </c>
+      <c r="E315" t="s">
+        <v>349</v>
+      </c>
       <c r="F315" t="s">
         <v>3</v>
       </c>
       <c r="G315" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="J315" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B316" t="s">
         <v>698</v>
       </c>
       <c r="D316" t="s">
-        <v>802</v>
+        <v>13</v>
       </c>
       <c r="F316" t="s">
         <v>3</v>
       </c>
       <c r="G316" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="J316" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="B317" t="s">
         <v>698</v>
       </c>
       <c r="D317" t="s">
-        <v>259</v>
-      </c>
-      <c r="E317" t="s">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="F317" t="s">
         <v>3</v>
       </c>
       <c r="G317" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="J317" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="B318" t="s">
         <v>698</v>
       </c>
       <c r="D318" t="s">
-        <v>800</v>
+        <v>259</v>
       </c>
       <c r="E318" t="s">
-        <v>698</v>
+        <v>1</v>
       </c>
       <c r="F318" t="s">
         <v>3</v>
       </c>
       <c r="G318" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="J318" t="s">
-        <v>1039</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B319" t="s">
         <v>698</v>
       </c>
       <c r="D319" t="s">
-        <v>16</v>
+        <v>799</v>
+      </c>
+      <c r="E319" t="s">
+        <v>698</v>
       </c>
       <c r="F319" t="s">
         <v>3</v>
       </c>
       <c r="G319" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="J319" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>362</v>
+        <v>708</v>
       </c>
       <c r="B320" t="s">
-        <v>363</v>
+        <v>698</v>
       </c>
       <c r="D320" t="s">
         <v>16</v>
       </c>
       <c r="F320" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G320" t="s">
-        <v>364</v>
-      </c>
-      <c r="H320" t="s">
-        <v>365</v>
+        <v>709</v>
       </c>
       <c r="J320" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B321" t="s">
-        <v>55</v>
+        <v>363</v>
       </c>
       <c r="D321" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F321" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G321" t="s">
-        <v>367</v>
+        <v>364</v>
+      </c>
+      <c r="H321" t="s">
+        <v>365</v>
       </c>
       <c r="J321" t="s">
-        <v>920</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B322" t="s">
         <v>55</v>
       </c>
       <c r="D322" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F322" t="s">
         <v>3</v>
       </c>
       <c r="G322" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J322" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B323" t="s">
         <v>55</v>
       </c>
       <c r="D323" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F323" t="s">
         <v>3</v>
       </c>
       <c r="G323" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J323" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B324" t="s">
         <v>55</v>
       </c>
       <c r="D324" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F324" t="s">
         <v>3</v>
       </c>
       <c r="G324" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J324" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B325" t="s">
         <v>55</v>
       </c>
       <c r="D325" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F325" t="s">
         <v>3</v>
       </c>
       <c r="G325" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J325" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B326" t="s">
         <v>55</v>
       </c>
       <c r="D326" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F326" t="s">
         <v>3</v>
       </c>
-      <c r="I326" t="s">
-        <v>42</v>
+      <c r="G326" t="s">
+        <v>375</v>
       </c>
       <c r="J326" t="s">
-        <v>1039</v>
+        <v>923</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>725</v>
+        <v>376</v>
       </c>
       <c r="B327" t="s">
         <v>55</v>
       </c>
       <c r="D327" t="s">
-        <v>800</v>
-      </c>
-      <c r="E327" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F327" t="s">
         <v>3</v>
       </c>
-      <c r="G327" t="s">
-        <v>726</v>
+      <c r="I327" t="s">
+        <v>42</v>
       </c>
       <c r="J327" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>377</v>
+        <v>725</v>
       </c>
       <c r="B328" t="s">
         <v>55</v>
       </c>
       <c r="D328" t="s">
-        <v>44</v>
+        <v>799</v>
+      </c>
+      <c r="E328" t="s">
+        <v>55</v>
       </c>
       <c r="F328" t="s">
         <v>3</v>
       </c>
       <c r="G328" t="s">
-        <v>378</v>
+        <v>726</v>
       </c>
       <c r="J328" t="s">
-        <v>925</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B329" t="s">
         <v>55</v>
       </c>
       <c r="D329" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F329" t="s">
         <v>3</v>
       </c>
       <c r="G329" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J329" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B330" t="s">
         <v>55</v>
       </c>
       <c r="D330" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F330" t="s">
         <v>3</v>
       </c>
       <c r="G330" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J330" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B331" t="s">
         <v>55</v>
       </c>
       <c r="D331" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F331" t="s">
         <v>3</v>
       </c>
       <c r="G331" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J331" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B332" t="s">
         <v>55</v>
       </c>
       <c r="D332" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F332" t="s">
         <v>3</v>
       </c>
       <c r="G332" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J332" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B333" t="s">
         <v>55</v>
       </c>
       <c r="D333" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F333" t="s">
         <v>3</v>
       </c>
       <c r="G333" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J333" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B334" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D334" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F334" t="s">
         <v>3</v>
       </c>
       <c r="G334" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J334" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B335" t="s">
         <v>58</v>
       </c>
       <c r="D335" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F335" t="s">
         <v>3</v>
       </c>
       <c r="G335" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J335" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B336" t="s">
         <v>58</v>
       </c>
       <c r="D336" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F336" t="s">
         <v>3</v>
       </c>
       <c r="G336" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J336" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B337" t="s">
         <v>58</v>
       </c>
       <c r="D337" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F337" t="s">
         <v>3</v>
       </c>
       <c r="G337" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J337" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B338" t="s">
         <v>58</v>
       </c>
       <c r="D338" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F338" t="s">
         <v>3</v>
       </c>
       <c r="G338" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J338" t="s">
-        <v>1039</v>
+        <v>933</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B339" t="s">
         <v>58</v>
       </c>
       <c r="D339" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F339" t="s">
         <v>3</v>
       </c>
-      <c r="I339" t="s">
-        <v>42</v>
+      <c r="G339" t="s">
+        <v>398</v>
       </c>
       <c r="J339" t="s">
-        <v>935</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B340" t="s">
         <v>58</v>
       </c>
       <c r="D340" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F340" t="s">
         <v>3</v>
       </c>
-      <c r="G340" t="s">
-        <v>401</v>
+      <c r="I340" t="s">
+        <v>42</v>
       </c>
       <c r="J340" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B341" t="s">
         <v>58</v>
       </c>
       <c r="D341" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F341" t="s">
         <v>3</v>
       </c>
       <c r="G341" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J341" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B342" t="s">
         <v>58</v>
       </c>
       <c r="D342" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F342" t="s">
         <v>3</v>
       </c>
       <c r="G342" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J342" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B343" t="s">
         <v>58</v>
       </c>
       <c r="D343" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F343" t="s">
         <v>3</v>
       </c>
       <c r="G343" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J343" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B344" t="s">
         <v>58</v>
       </c>
       <c r="D344" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F344" t="s">
         <v>3</v>
       </c>
       <c r="G344" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="J344" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B345" t="s">
         <v>58</v>
       </c>
       <c r="D345" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F345" t="s">
         <v>3</v>
       </c>
       <c r="G345" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J345" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B346" t="s">
-        <v>288</v>
-      </c>
-      <c r="C346" t="s">
-        <v>799</v>
+        <v>58</v>
       </c>
       <c r="D346" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="F346" t="s">
-        <v>6</v>
-      </c>
-      <c r="I346" t="s">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="G346" t="s">
+        <v>411</v>
       </c>
       <c r="J346" t="s">
-        <v>1039</v>
+        <v>940</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
       <c r="B347" t="s">
         <v>288</v>
       </c>
-      <c r="C347" s="2" t="s">
-        <v>808</v>
+      <c r="C347" t="s">
+        <v>798</v>
       </c>
       <c r="D347" t="s">
-        <v>800</v>
-      </c>
-      <c r="E347" s="2" t="s">
-        <v>808</v>
+        <v>16</v>
       </c>
       <c r="F347" t="s">
-        <v>3</v>
-      </c>
-      <c r="G347" t="s">
-        <v>449</v>
+        <v>6</v>
+      </c>
+      <c r="I347" t="s">
+        <v>42</v>
       </c>
       <c r="J347" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
       <c r="B348" t="s">
         <v>288</v>
       </c>
+      <c r="C348" s="2" t="s">
+        <v>807</v>
+      </c>
       <c r="D348" t="s">
-        <v>16</v>
+        <v>799</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>807</v>
       </c>
       <c r="F348" t="s">
         <v>3</v>
       </c>
       <c r="G348" t="s">
-        <v>417</v>
+        <v>449</v>
       </c>
       <c r="J348" t="s">
-        <v>942</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B349" t="s">
         <v>288</v>
       </c>
       <c r="D349" t="s">
-        <v>288</v>
-      </c>
-      <c r="E349" t="s">
-        <v>799</v>
+        <v>16</v>
       </c>
       <c r="F349" t="s">
-        <v>6</v>
-      </c>
-      <c r="I349" t="s">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="G349" t="s">
+        <v>417</v>
       </c>
       <c r="J349" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B350" t="s">
         <v>288</v>
@@ -11820,7 +11829,7 @@
         <v>288</v>
       </c>
       <c r="E350" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F350" t="s">
         <v>6</v>
@@ -11829,35 +11838,35 @@
         <v>42</v>
       </c>
       <c r="J350" t="s">
-        <v>1039</v>
+        <v>942</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>751</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>193</v>
+        <v>419</v>
+      </c>
+      <c r="B351" t="s">
+        <v>288</v>
       </c>
       <c r="D351" t="s">
-        <v>13</v>
+        <v>288</v>
       </c>
       <c r="E351" t="s">
-        <v>349</v>
+        <v>800</v>
       </c>
       <c r="F351" t="s">
-        <v>3</v>
-      </c>
-      <c r="G351" t="s">
-        <v>752</v>
+        <v>6</v>
+      </c>
+      <c r="I351" t="s">
+        <v>42</v>
       </c>
       <c r="J351" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>193</v>
@@ -11865,62 +11874,85 @@
       <c r="D352" t="s">
         <v>13</v>
       </c>
+      <c r="E352" t="s">
+        <v>349</v>
+      </c>
       <c r="F352" t="s">
         <v>3</v>
       </c>
       <c r="G352" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="J352" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>193</v>
       </c>
       <c r="D353" t="s">
-        <v>802</v>
+        <v>13</v>
       </c>
       <c r="F353" t="s">
         <v>3</v>
       </c>
       <c r="G353" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="J353" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
+        <v>749</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D354" t="s">
+        <v>801</v>
+      </c>
+      <c r="F354" t="s">
+        <v>3</v>
+      </c>
+      <c r="G354" t="s">
+        <v>750</v>
+      </c>
+      <c r="J354" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
         <v>66</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B355" t="s">
         <v>67</v>
       </c>
-      <c r="D354" t="s">
-        <v>16</v>
-      </c>
-      <c r="F354" t="s">
+      <c r="D355" t="s">
+        <v>16</v>
+      </c>
+      <c r="F355" t="s">
         <v>6</v>
       </c>
-      <c r="G354" t="s">
+      <c r="G355" t="s">
         <v>68</v>
       </c>
-      <c r="H354" t="s">
+      <c r="H355" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K354">
-    <sortCondition ref="B2:B354"/>
-    <sortCondition ref="C2:C354"/>
-    <sortCondition ref="D2:D354"/>
-    <sortCondition ref="E2:E354"/>
+  <sortState ref="A2:K355">
+    <sortCondition ref="B2:B355"/>
+    <sortCondition ref="C2:C355"/>
+    <sortCondition ref="D2:D355"/>
+    <sortCondition ref="E2:E355"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/main/resources/data/ICU-Transliterations.xlsx
+++ b/src/main/resources/data/ICU-Transliterations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmekonnen/git/Xliterator/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8FD245-B607-D742-B120-6566C59B0189}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DD3CEB-9A6C-E043-B449-0AF7FD06F81C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38360" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3103" uniqueCount="1202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3106" uniqueCount="1202">
   <si>
     <t>Amharic-Latin-BGN.xml</t>
   </si>
@@ -3247,9 +3247,6 @@
     <t>Ethi</t>
   </si>
   <si>
-    <t>Ethi_Latn</t>
-  </si>
-  <si>
     <t>ka</t>
   </si>
   <si>
@@ -3626,6 +3623,9 @@
   </si>
   <si>
     <t>Target</t>
+  </si>
+  <si>
+    <t>Aethiopica_Latn</t>
   </si>
 </sst>
 </file>
@@ -4509,9 +4509,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M355"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D352" sqref="A352:XFD354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4536,10 +4536,10 @@
         <v>1040</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1200</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1201</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>786</v>
@@ -4577,10 +4577,10 @@
         <v>542</v>
       </c>
       <c r="B2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -4609,10 +4609,10 @@
         <v>348</v>
       </c>
       <c r="B3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C3" t="s">
         <v>1110</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1111</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -4641,10 +4641,10 @@
         <v>744</v>
       </c>
       <c r="B4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C4" t="s">
         <v>1188</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1189</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -4725,10 +4725,10 @@
         <v>563</v>
       </c>
       <c r="B7" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C7" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -4757,7 +4757,7 @@
         <v>559</v>
       </c>
       <c r="B8" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C8" t="s">
         <v>1050</v>
@@ -4786,10 +4786,10 @@
         <v>561</v>
       </c>
       <c r="B9" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C9" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -4815,7 +4815,7 @@
         <v>557</v>
       </c>
       <c r="B10" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C10" t="s">
         <v>1045</v>
@@ -4847,10 +4847,10 @@
         <v>565</v>
       </c>
       <c r="B11" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C11" t="s">
         <v>1154</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1155</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -4882,7 +4882,7 @@
         <v>1054</v>
       </c>
       <c r="C12" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -4937,7 +4937,7 @@
         <v>1054</v>
       </c>
       <c r="C14" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -4992,7 +4992,7 @@
         <v>1054</v>
       </c>
       <c r="C16" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -5353,10 +5353,10 @@
         <v>626</v>
       </c>
       <c r="B30" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C30" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D30" t="s">
         <v>620</v>
@@ -5382,7 +5382,7 @@
         <v>622</v>
       </c>
       <c r="B31" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C31" t="s">
         <v>1050</v>
@@ -5411,7 +5411,7 @@
         <v>631</v>
       </c>
       <c r="C32" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D32" t="s">
         <v>620</v>
@@ -5440,10 +5440,10 @@
         <v>624</v>
       </c>
       <c r="B33" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C33" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D33" t="s">
         <v>620</v>
@@ -5466,7 +5466,7 @@
         <v>619</v>
       </c>
       <c r="B34" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C34" t="s">
         <v>1045</v>
@@ -5495,10 +5495,10 @@
         <v>628</v>
       </c>
       <c r="B35" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C35" t="s">
         <v>1164</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1165</v>
       </c>
       <c r="D35" t="s">
         <v>620</v>
@@ -5524,7 +5524,7 @@
         <v>630</v>
       </c>
       <c r="B36" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C36" t="s">
         <v>631</v>
@@ -5550,10 +5550,10 @@
         <v>461</v>
       </c>
       <c r="B37" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C37" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>801</v>
@@ -5762,10 +5762,10 @@
         <v>235</v>
       </c>
       <c r="B44" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C44" t="s">
         <v>1092</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1093</v>
       </c>
       <c r="D44" t="s">
         <v>71</v>
@@ -5791,10 +5791,10 @@
         <v>238</v>
       </c>
       <c r="B45" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C45" t="s">
         <v>1094</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1095</v>
       </c>
       <c r="D45" t="s">
         <v>71</v>
@@ -5820,10 +5820,10 @@
         <v>290</v>
       </c>
       <c r="B46" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C46" t="s">
         <v>1102</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1103</v>
       </c>
       <c r="D46" t="s">
         <v>71</v>
@@ -5852,10 +5852,10 @@
         <v>319</v>
       </c>
       <c r="B47" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C47" t="s">
         <v>1106</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1107</v>
       </c>
       <c r="D47" t="s">
         <v>71</v>
@@ -5884,10 +5884,10 @@
         <v>616</v>
       </c>
       <c r="B48" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C48" t="s">
         <v>1106</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1107</v>
       </c>
       <c r="D48" t="s">
         <v>71</v>
@@ -5916,10 +5916,10 @@
         <v>683</v>
       </c>
       <c r="B49" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C49" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D49" t="s">
         <v>71</v>
@@ -5951,10 +5951,10 @@
         <v>681</v>
       </c>
       <c r="B50" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C50" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D50" t="s">
         <v>71</v>
@@ -5980,10 +5980,10 @@
         <v>353</v>
       </c>
       <c r="B51" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C51" t="s">
         <v>1112</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1113</v>
       </c>
       <c r="D51" t="s">
         <v>71</v>
@@ -6012,10 +6012,10 @@
         <v>356</v>
       </c>
       <c r="B52" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C52" t="s">
         <v>1114</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1115</v>
       </c>
       <c r="D52" t="s">
         <v>71</v>
@@ -6044,10 +6044,10 @@
         <v>421</v>
       </c>
       <c r="B53" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C53" t="s">
         <v>1122</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1123</v>
       </c>
       <c r="D53" t="s">
         <v>71</v>
@@ -6076,10 +6076,10 @@
         <v>424</v>
       </c>
       <c r="B54" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C54" t="s">
         <v>1124</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1125</v>
       </c>
       <c r="D54" t="s">
         <v>71</v>
@@ -6108,10 +6108,10 @@
         <v>427</v>
       </c>
       <c r="B55" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C55" t="s">
         <v>1126</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1127</v>
       </c>
       <c r="D55" t="s">
         <v>71</v>
@@ -6140,10 +6140,10 @@
         <v>753</v>
       </c>
       <c r="B56" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C56" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D56" t="s">
         <v>71</v>
@@ -6510,10 +6510,10 @@
         <v>316</v>
       </c>
       <c r="B70" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C70" t="s">
         <v>1104</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1105</v>
       </c>
       <c r="D70" t="s">
         <v>317</v>
@@ -6542,7 +6542,7 @@
         <v>1045</v>
       </c>
       <c r="C71" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D71" t="s">
         <v>259</v>
@@ -6603,7 +6603,7 @@
         <v>1045</v>
       </c>
       <c r="C73" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D73" t="s">
         <v>259</v>
@@ -6632,7 +6632,7 @@
         <v>1045</v>
       </c>
       <c r="C74" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D74" t="s">
         <v>259</v>
@@ -6696,7 +6696,7 @@
         <v>1074</v>
       </c>
       <c r="C76" t="s">
-        <v>1075</v>
+        <v>1201</v>
       </c>
       <c r="D76" t="s">
         <v>259</v>
@@ -6722,10 +6722,10 @@
         <v>102</v>
       </c>
       <c r="B77" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C77" t="s">
         <v>1076</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1077</v>
       </c>
       <c r="D77" t="s">
         <v>103</v>
@@ -6748,10 +6748,10 @@
         <v>105</v>
       </c>
       <c r="B78" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C78" t="s">
         <v>1076</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1077</v>
       </c>
       <c r="D78" t="s">
         <v>103</v>
@@ -6774,7 +6774,7 @@
         <v>107</v>
       </c>
       <c r="B79" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C79" t="s">
         <v>1053</v>
@@ -6800,7 +6800,7 @@
         <v>490</v>
       </c>
       <c r="B80" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C80" t="s">
         <v>440</v>
@@ -6832,7 +6832,7 @@
         <v>492</v>
       </c>
       <c r="B81" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C81" t="s">
         <v>443</v>
@@ -6864,7 +6864,7 @@
         <v>494</v>
       </c>
       <c r="B82" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C82" t="s">
         <v>446</v>
@@ -6896,10 +6896,10 @@
         <v>110</v>
       </c>
       <c r="B83" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C83" t="s">
         <v>1079</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1080</v>
       </c>
       <c r="D83" t="s">
         <v>114</v>
@@ -6925,7 +6925,7 @@
         <v>117</v>
       </c>
       <c r="B84" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C84" t="s">
         <v>1053</v>
@@ -6954,7 +6954,7 @@
         <v>113</v>
       </c>
       <c r="B85" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C85" t="s">
         <v>1053</v>
@@ -7627,10 +7627,10 @@
         <v>359</v>
       </c>
       <c r="B111" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C111" t="s">
         <v>1116</v>
-      </c>
-      <c r="C111" t="s">
-        <v>1117</v>
       </c>
       <c r="D111" t="s">
         <v>168</v>
@@ -7662,7 +7662,7 @@
         <v>171</v>
       </c>
       <c r="B112" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C112" t="s">
         <v>1053</v>
@@ -7740,10 +7740,10 @@
         <v>241</v>
       </c>
       <c r="B115" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C115" t="s">
         <v>1096</v>
-      </c>
-      <c r="C115" t="s">
-        <v>1097</v>
       </c>
       <c r="D115" t="s">
         <v>176</v>
@@ -7766,7 +7766,7 @@
         <v>175</v>
       </c>
       <c r="B116" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C116" t="s">
         <v>1053</v>
@@ -7792,10 +7792,10 @@
         <v>178</v>
       </c>
       <c r="B117" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C117" t="s">
         <v>1084</v>
-      </c>
-      <c r="C117" t="s">
-        <v>1085</v>
       </c>
       <c r="D117" t="s">
         <v>179</v>
@@ -7818,7 +7818,7 @@
         <v>181</v>
       </c>
       <c r="B118" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C118" t="s">
         <v>1053</v>
@@ -7844,10 +7844,10 @@
         <v>184</v>
       </c>
       <c r="B119" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C119" t="s">
         <v>1087</v>
-      </c>
-      <c r="C119" t="s">
-        <v>1088</v>
       </c>
       <c r="D119" t="s">
         <v>185</v>
@@ -7870,7 +7870,7 @@
         <v>189</v>
       </c>
       <c r="B120" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C120" t="s">
         <v>1053</v>
@@ -8175,10 +8175,10 @@
         <v>480</v>
       </c>
       <c r="B133" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C133" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D133" t="s">
         <v>799</v>
@@ -8204,10 +8204,10 @@
         <v>478</v>
       </c>
       <c r="B134" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C134" t="s">
         <v>1136</v>
-      </c>
-      <c r="C134" t="s">
-        <v>1137</v>
       </c>
       <c r="D134" t="s">
         <v>799</v>
@@ -8233,10 +8233,10 @@
         <v>654</v>
       </c>
       <c r="B135" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C135" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D135" t="s">
         <v>799</v>
@@ -8262,10 +8262,10 @@
         <v>679</v>
       </c>
       <c r="B136" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C136" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D136" t="s">
         <v>799</v>
@@ -8291,10 +8291,10 @@
         <v>723</v>
       </c>
       <c r="B137" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C137" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D137" t="s">
         <v>799</v>
@@ -8320,7 +8320,7 @@
         <v>534</v>
       </c>
       <c r="B138" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C138" t="s">
         <v>1045</v>
@@ -8352,10 +8352,10 @@
         <v>540</v>
       </c>
       <c r="B139" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C139" t="s">
         <v>1146</v>
-      </c>
-      <c r="C139" t="s">
-        <v>1147</v>
       </c>
       <c r="D139" t="s">
         <v>799</v>
@@ -8384,10 +8384,10 @@
         <v>536</v>
       </c>
       <c r="B140" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C140" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D140" t="s">
         <v>799</v>
@@ -8416,10 +8416,10 @@
         <v>538</v>
       </c>
       <c r="B141" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C141" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D141" t="s">
         <v>799</v>
@@ -8448,7 +8448,7 @@
         <v>193</v>
       </c>
       <c r="C142" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D142" t="s">
         <v>799</v>
@@ -8815,10 +8815,10 @@
         <v>233</v>
       </c>
       <c r="B156" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C156" t="s">
         <v>1090</v>
-      </c>
-      <c r="C156" t="s">
-        <v>1091</v>
       </c>
       <c r="D156" t="s">
         <v>186</v>
@@ -8842,10 +8842,10 @@
         <v>593</v>
       </c>
       <c r="B157" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C157" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D157" t="s">
         <v>236</v>
@@ -8871,7 +8871,7 @@
         <v>589</v>
       </c>
       <c r="B158" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C158" t="s">
         <v>1050</v>
@@ -8897,10 +8897,10 @@
         <v>591</v>
       </c>
       <c r="B159" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C159" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D159" t="s">
         <v>236</v>
@@ -8923,7 +8923,7 @@
         <v>587</v>
       </c>
       <c r="B160" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C160" t="s">
         <v>1045</v>
@@ -8952,10 +8952,10 @@
         <v>595</v>
       </c>
       <c r="B161" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C161" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D161" t="s">
         <v>236</v>
@@ -8981,10 +8981,10 @@
         <v>603</v>
       </c>
       <c r="B162" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C162" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D162" t="s">
         <v>239</v>
@@ -9010,7 +9010,7 @@
         <v>599</v>
       </c>
       <c r="B163" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C163" t="s">
         <v>1050</v>
@@ -9036,10 +9036,10 @@
         <v>601</v>
       </c>
       <c r="B164" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C164" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D164" t="s">
         <v>239</v>
@@ -9062,7 +9062,7 @@
         <v>597</v>
       </c>
       <c r="B165" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C165" t="s">
         <v>1045</v>
@@ -9091,10 +9091,10 @@
         <v>605</v>
       </c>
       <c r="B166" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C166" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D166" t="s">
         <v>239</v>
@@ -9184,10 +9184,10 @@
         <v>459</v>
       </c>
       <c r="B169" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C169" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D169" t="s">
         <v>16</v>
@@ -9216,7 +9216,7 @@
         <v>453</v>
       </c>
       <c r="B170" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C170" t="s">
         <v>1050</v>
@@ -9245,10 +9245,10 @@
         <v>457</v>
       </c>
       <c r="B171" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C171" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D171" t="s">
         <v>16</v>
@@ -9274,7 +9274,7 @@
         <v>450</v>
       </c>
       <c r="B172" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C172" t="s">
         <v>1045</v>
@@ -9306,10 +9306,10 @@
         <v>455</v>
       </c>
       <c r="B173" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C173" t="s">
         <v>1132</v>
-      </c>
-      <c r="C173" t="s">
-        <v>1133</v>
       </c>
       <c r="D173" t="s">
         <v>16</v>
@@ -9338,10 +9338,10 @@
         <v>472</v>
       </c>
       <c r="B174" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C174" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>16</v>
@@ -9370,7 +9370,7 @@
         <v>466</v>
       </c>
       <c r="B175" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C175" t="s">
         <v>1050</v>
@@ -9399,10 +9399,10 @@
         <v>468</v>
       </c>
       <c r="B176" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C176" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>16</v>
@@ -9428,7 +9428,7 @@
         <v>463</v>
       </c>
       <c r="B177" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C177" t="s">
         <v>1045</v>
@@ -9460,10 +9460,10 @@
         <v>476</v>
       </c>
       <c r="B178" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C178" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>16</v>
@@ -9489,10 +9489,10 @@
         <v>470</v>
       </c>
       <c r="B179" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C179" t="s">
         <v>1135</v>
-      </c>
-      <c r="C179" t="s">
-        <v>1136</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>16</v>
@@ -9518,10 +9518,10 @@
         <v>474</v>
       </c>
       <c r="B180" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C180" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>16</v>
@@ -9547,7 +9547,7 @@
         <v>635</v>
       </c>
       <c r="B181" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C181" t="s">
         <v>443</v>
@@ -9579,10 +9579,10 @@
         <v>505</v>
       </c>
       <c r="B182" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C182" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D182" t="s">
         <v>16</v>
@@ -9611,7 +9611,7 @@
         <v>499</v>
       </c>
       <c r="B183" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C183" t="s">
         <v>1050</v>
@@ -9640,10 +9640,10 @@
         <v>501</v>
       </c>
       <c r="B184" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C184" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D184" t="s">
         <v>16</v>
@@ -9669,7 +9669,7 @@
         <v>496</v>
       </c>
       <c r="B185" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C185" t="s">
         <v>1045</v>
@@ -9701,10 +9701,10 @@
         <v>503</v>
       </c>
       <c r="B186" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C186" t="s">
         <v>1143</v>
-      </c>
-      <c r="C186" t="s">
-        <v>1144</v>
       </c>
       <c r="D186" t="s">
         <v>16</v>
@@ -9733,7 +9733,7 @@
         <v>485</v>
       </c>
       <c r="B187" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C187" t="s">
         <v>244</v>
@@ -9762,10 +9762,10 @@
         <v>544</v>
       </c>
       <c r="B188" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C188" t="s">
         <v>1151</v>
-      </c>
-      <c r="C188" t="s">
-        <v>1152</v>
       </c>
       <c r="D188" t="s">
         <v>16</v>
@@ -9794,10 +9794,10 @@
         <v>574</v>
       </c>
       <c r="B189" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C189" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D189" t="s">
         <v>16</v>
@@ -9826,7 +9826,7 @@
         <v>570</v>
       </c>
       <c r="B190" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C190" t="s">
         <v>1050</v>
@@ -9855,10 +9855,10 @@
         <v>572</v>
       </c>
       <c r="B191" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C191" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D191" t="s">
         <v>16</v>
@@ -9884,7 +9884,7 @@
         <v>567</v>
       </c>
       <c r="B192" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C192" t="s">
         <v>1045</v>
@@ -9916,10 +9916,10 @@
         <v>576</v>
       </c>
       <c r="B193" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C193" t="s">
         <v>1156</v>
-      </c>
-      <c r="C193" t="s">
-        <v>1157</v>
       </c>
       <c r="D193" t="s">
         <v>16</v>
@@ -9948,7 +9948,7 @@
         <v>578</v>
       </c>
       <c r="B194" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C194" t="s">
         <v>1045</v>
@@ -9980,10 +9980,10 @@
         <v>581</v>
       </c>
       <c r="B195" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C195" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D195" t="s">
         <v>16</v>
@@ -10009,10 +10009,10 @@
         <v>733</v>
       </c>
       <c r="B196" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C196" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D196" t="s">
         <v>16</v>
@@ -10041,7 +10041,7 @@
         <v>729</v>
       </c>
       <c r="B197" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C197" t="s">
         <v>1050</v>
@@ -10070,10 +10070,10 @@
         <v>731</v>
       </c>
       <c r="B198" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C198" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D198" t="s">
         <v>16</v>
@@ -10099,7 +10099,7 @@
         <v>727</v>
       </c>
       <c r="B199" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C199" t="s">
         <v>1045</v>
@@ -10131,10 +10131,10 @@
         <v>735</v>
       </c>
       <c r="B200" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C200" t="s">
         <v>1185</v>
-      </c>
-      <c r="C200" t="s">
-        <v>1186</v>
       </c>
       <c r="D200" t="s">
         <v>16</v>
@@ -10160,7 +10160,7 @@
         <v>609</v>
       </c>
       <c r="B201" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C201" t="s">
         <v>440</v>
@@ -10192,7 +10192,7 @@
         <v>612</v>
       </c>
       <c r="B202" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C202" t="s">
         <v>443</v>
@@ -10224,7 +10224,7 @@
         <v>614</v>
       </c>
       <c r="B203" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C203" t="s">
         <v>446</v>
@@ -10256,10 +10256,10 @@
         <v>488</v>
       </c>
       <c r="B204" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C204" t="s">
         <v>1141</v>
-      </c>
-      <c r="C204" t="s">
-        <v>1142</v>
       </c>
       <c r="D204" t="s">
         <v>16</v>
@@ -10285,10 +10285,10 @@
         <v>638</v>
       </c>
       <c r="B205" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C205" t="s">
         <v>1167</v>
-      </c>
-      <c r="C205" t="s">
-        <v>1168</v>
       </c>
       <c r="D205" t="s">
         <v>16</v>
@@ -10317,10 +10317,10 @@
         <v>772</v>
       </c>
       <c r="B206" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C206" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>16</v>
@@ -10355,7 +10355,7 @@
         <v>352</v>
       </c>
       <c r="C207" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D207" t="s">
         <v>16</v>
@@ -10381,10 +10381,10 @@
         <v>648</v>
       </c>
       <c r="B208" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C208" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D208" t="s">
         <v>16</v>
@@ -10413,7 +10413,7 @@
         <v>644</v>
       </c>
       <c r="B209" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C209" t="s">
         <v>1050</v>
@@ -10442,10 +10442,10 @@
         <v>646</v>
       </c>
       <c r="B210" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C210" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D210" t="s">
         <v>16</v>
@@ -10471,7 +10471,7 @@
         <v>641</v>
       </c>
       <c r="B211" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C211" t="s">
         <v>1045</v>
@@ -10503,10 +10503,10 @@
         <v>652</v>
       </c>
       <c r="B212" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C212" t="s">
         <v>1169</v>
-      </c>
-      <c r="C212" t="s">
-        <v>1170</v>
       </c>
       <c r="D212" t="s">
         <v>16</v>
@@ -10535,10 +10535,10 @@
         <v>650</v>
       </c>
       <c r="B213" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C213" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D213" t="s">
         <v>16</v>
@@ -10564,10 +10564,10 @@
         <v>673</v>
       </c>
       <c r="B214" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C214" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D214" t="s">
         <v>16</v>
@@ -10596,7 +10596,7 @@
         <v>669</v>
       </c>
       <c r="B215" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C215" t="s">
         <v>1050</v>
@@ -10625,10 +10625,10 @@
         <v>671</v>
       </c>
       <c r="B216" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C216" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D216" t="s">
         <v>16</v>
@@ -10654,7 +10654,7 @@
         <v>666</v>
       </c>
       <c r="B217" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C217" t="s">
         <v>1045</v>
@@ -10686,10 +10686,10 @@
         <v>677</v>
       </c>
       <c r="B218" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C218" t="s">
         <v>1173</v>
-      </c>
-      <c r="C218" t="s">
-        <v>1174</v>
       </c>
       <c r="D218" t="s">
         <v>16</v>
@@ -10718,10 +10718,10 @@
         <v>675</v>
       </c>
       <c r="B219" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C219" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D219" t="s">
         <v>16</v>
@@ -10747,10 +10747,10 @@
         <v>585</v>
       </c>
       <c r="B220" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C220" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>16</v>
@@ -10782,10 +10782,10 @@
         <v>583</v>
       </c>
       <c r="B221" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C221" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>16</v>
@@ -10814,10 +10814,10 @@
         <v>662</v>
       </c>
       <c r="B222" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C222" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D222" t="s">
         <v>16</v>
@@ -10846,7 +10846,7 @@
         <v>658</v>
       </c>
       <c r="B223" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C223" t="s">
         <v>1050</v>
@@ -10875,10 +10875,10 @@
         <v>660</v>
       </c>
       <c r="B224" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C224" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D224" t="s">
         <v>16</v>
@@ -10904,7 +10904,7 @@
         <v>656</v>
       </c>
       <c r="B225" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C225" t="s">
         <v>1045</v>
@@ -10936,10 +10936,10 @@
         <v>664</v>
       </c>
       <c r="B226" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C226" t="s">
         <v>1171</v>
-      </c>
-      <c r="C226" t="s">
-        <v>1172</v>
       </c>
       <c r="D226" t="s">
         <v>16</v>
@@ -10968,10 +10968,10 @@
         <v>685</v>
       </c>
       <c r="B227" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C227" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D227" t="s">
         <v>16</v>
@@ -11000,10 +11000,10 @@
         <v>717</v>
       </c>
       <c r="B228" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C228" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D228" t="s">
         <v>16</v>
@@ -11032,7 +11032,7 @@
         <v>713</v>
       </c>
       <c r="B229" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C229" t="s">
         <v>1050</v>
@@ -11061,10 +11061,10 @@
         <v>715</v>
       </c>
       <c r="B230" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C230" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D230" t="s">
         <v>16</v>
@@ -11090,7 +11090,7 @@
         <v>710</v>
       </c>
       <c r="B231" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C231" t="s">
         <v>1045</v>
@@ -11122,10 +11122,10 @@
         <v>721</v>
       </c>
       <c r="B232" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C232" t="s">
         <v>1181</v>
-      </c>
-      <c r="C232" t="s">
-        <v>1182</v>
       </c>
       <c r="D232" t="s">
         <v>16</v>
@@ -11154,10 +11154,10 @@
         <v>719</v>
       </c>
       <c r="B233" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C233" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D233" t="s">
         <v>16</v>
@@ -11183,10 +11183,10 @@
         <v>516</v>
       </c>
       <c r="B234" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C234" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D234" t="s">
         <v>16</v>
@@ -11215,7 +11215,7 @@
         <v>510</v>
       </c>
       <c r="B235" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C235" t="s">
         <v>1050</v>
@@ -11244,10 +11244,10 @@
         <v>512</v>
       </c>
       <c r="B236" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C236" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D236" t="s">
         <v>16</v>
@@ -11273,7 +11273,7 @@
         <v>507</v>
       </c>
       <c r="B237" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C237" t="s">
         <v>1045</v>
@@ -11305,10 +11305,10 @@
         <v>520</v>
       </c>
       <c r="B238" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C238" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D238" t="s">
         <v>16</v>
@@ -11337,10 +11337,10 @@
         <v>514</v>
       </c>
       <c r="B239" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C239" t="s">
         <v>1145</v>
-      </c>
-      <c r="C239" t="s">
-        <v>1146</v>
       </c>
       <c r="D239" t="s">
         <v>16</v>
@@ -11369,10 +11369,10 @@
         <v>518</v>
       </c>
       <c r="B240" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C240" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D240" t="s">
         <v>16</v>
@@ -11398,10 +11398,10 @@
         <v>528</v>
       </c>
       <c r="B241" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C241" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D241" t="s">
         <v>16</v>
@@ -11430,7 +11430,7 @@
         <v>524</v>
       </c>
       <c r="B242" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C242" t="s">
         <v>1050</v>
@@ -11459,10 +11459,10 @@
         <v>526</v>
       </c>
       <c r="B243" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C243" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D243" t="s">
         <v>16</v>
@@ -11488,7 +11488,7 @@
         <v>522</v>
       </c>
       <c r="B244" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C244" t="s">
         <v>1045</v>
@@ -11520,10 +11520,10 @@
         <v>532</v>
       </c>
       <c r="B245" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C245" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D245" t="s">
         <v>16</v>
@@ -11552,10 +11552,10 @@
         <v>530</v>
       </c>
       <c r="B246" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C246" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D246" t="s">
         <v>16</v>
@@ -11581,7 +11581,7 @@
         <v>737</v>
       </c>
       <c r="B247" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C247" t="s">
         <v>440</v>
@@ -11613,7 +11613,7 @@
         <v>740</v>
       </c>
       <c r="B248" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C248" t="s">
         <v>443</v>
@@ -11645,7 +11645,7 @@
         <v>742</v>
       </c>
       <c r="B249" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C249" t="s">
         <v>446</v>
@@ -11677,10 +11677,10 @@
         <v>756</v>
       </c>
       <c r="B250" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C250" t="s">
         <v>1191</v>
-      </c>
-      <c r="C250" t="s">
-        <v>1192</v>
       </c>
       <c r="D250" t="s">
         <v>16</v>
@@ -11709,10 +11709,10 @@
         <v>482</v>
       </c>
       <c r="B251" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C251" t="s">
         <v>1138</v>
-      </c>
-      <c r="C251" t="s">
-        <v>1139</v>
       </c>
       <c r="D251" t="s">
         <v>16</v>
@@ -11741,10 +11741,10 @@
         <v>765</v>
       </c>
       <c r="B252" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C252" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D252" t="s">
         <v>16</v>
@@ -11773,7 +11773,7 @@
         <v>761</v>
       </c>
       <c r="B253" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C253" t="s">
         <v>1050</v>
@@ -11802,10 +11802,10 @@
         <v>763</v>
       </c>
       <c r="B254" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C254" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D254" t="s">
         <v>16</v>
@@ -11831,7 +11831,7 @@
         <v>758</v>
       </c>
       <c r="B255" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C255" t="s">
         <v>1045</v>
@@ -11863,10 +11863,10 @@
         <v>767</v>
       </c>
       <c r="B256" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C256" t="s">
         <v>1193</v>
-      </c>
-      <c r="C256" t="s">
-        <v>1194</v>
       </c>
       <c r="D256" t="s">
         <v>16</v>
@@ -11895,10 +11895,10 @@
         <v>769</v>
       </c>
       <c r="B257" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C257" t="s">
         <v>1195</v>
-      </c>
-      <c r="C257" t="s">
-        <v>1196</v>
       </c>
       <c r="D257" t="s">
         <v>16</v>
@@ -11927,10 +11927,10 @@
         <v>781</v>
       </c>
       <c r="B258" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C258" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D258" t="s">
         <v>16</v>
@@ -11959,7 +11959,7 @@
         <v>777</v>
       </c>
       <c r="B259" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C259" t="s">
         <v>1050</v>
@@ -11988,10 +11988,10 @@
         <v>779</v>
       </c>
       <c r="B260" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C260" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D260" t="s">
         <v>16</v>
@@ -12017,7 +12017,7 @@
         <v>774</v>
       </c>
       <c r="B261" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C261" t="s">
         <v>1045</v>
@@ -12049,10 +12049,10 @@
         <v>783</v>
       </c>
       <c r="B262" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C262" t="s">
         <v>1198</v>
-      </c>
-      <c r="C262" t="s">
-        <v>1199</v>
       </c>
       <c r="D262" t="s">
         <v>16</v>
@@ -12081,7 +12081,7 @@
         <v>1053</v>
       </c>
       <c r="C263" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D263" t="s">
         <v>16</v>
@@ -12156,7 +12156,7 @@
         <v>1053</v>
       </c>
       <c r="C266" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D266" t="s">
         <v>16</v>
@@ -12286,7 +12286,7 @@
         <v>16</v>
       </c>
       <c r="C271" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D271" t="s">
         <v>16</v>
@@ -12341,7 +12341,7 @@
         <v>1053</v>
       </c>
       <c r="C273" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D273" t="s">
         <v>16</v>
@@ -12390,10 +12390,10 @@
         <v>607</v>
       </c>
       <c r="B275" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C275" t="s">
         <v>1161</v>
-      </c>
-      <c r="C275" t="s">
-        <v>1162</v>
       </c>
       <c r="D275" t="s">
         <v>16</v>
@@ -12448,7 +12448,7 @@
         <v>1053</v>
       </c>
       <c r="C277" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D277" t="s">
         <v>16</v>
@@ -12529,7 +12529,7 @@
         <v>16</v>
       </c>
       <c r="C280" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D280" t="s">
         <v>16</v>
@@ -12613,7 +12613,7 @@
         <v>1053</v>
       </c>
       <c r="C283" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D283" t="s">
         <v>16</v>
@@ -12977,10 +12977,10 @@
         <v>693</v>
       </c>
       <c r="B297" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C297" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>803</v>
@@ -13006,7 +13006,7 @@
         <v>689</v>
       </c>
       <c r="B298" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C298" t="s">
         <v>1050</v>
@@ -13032,10 +13032,10 @@
         <v>691</v>
       </c>
       <c r="B299" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C299" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>803</v>
@@ -13058,7 +13058,7 @@
         <v>687</v>
       </c>
       <c r="B300" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C300" t="s">
         <v>1045</v>
@@ -13087,10 +13087,10 @@
         <v>695</v>
       </c>
       <c r="B301" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C301" t="s">
         <v>1176</v>
-      </c>
-      <c r="C301" t="s">
-        <v>1177</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>803</v>
@@ -13428,10 +13428,10 @@
         <v>345</v>
       </c>
       <c r="B314" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C314" t="s">
         <v>1108</v>
-      </c>
-      <c r="C314" t="s">
-        <v>1109</v>
       </c>
       <c r="D314" t="s">
         <v>346</v>
@@ -13457,10 +13457,10 @@
         <v>704</v>
       </c>
       <c r="B315" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C315" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D315" t="s">
         <v>698</v>
@@ -13486,7 +13486,7 @@
         <v>700</v>
       </c>
       <c r="B316" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C316" t="s">
         <v>1050</v>
@@ -13512,10 +13512,10 @@
         <v>702</v>
       </c>
       <c r="B317" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C317" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D317" t="s">
         <v>698</v>
@@ -13538,7 +13538,7 @@
         <v>697</v>
       </c>
       <c r="B318" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C318" t="s">
         <v>1045</v>
@@ -13567,10 +13567,10 @@
         <v>706</v>
       </c>
       <c r="B319" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C319" t="s">
         <v>1178</v>
-      </c>
-      <c r="C319" t="s">
-        <v>1179</v>
       </c>
       <c r="D319" t="s">
         <v>698</v>
@@ -13596,10 +13596,10 @@
         <v>708</v>
       </c>
       <c r="B320" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C320" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D320" t="s">
         <v>698</v>
@@ -13622,7 +13622,7 @@
         <v>362</v>
       </c>
       <c r="B321" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C321" t="s">
         <v>1053</v>
@@ -13807,10 +13807,10 @@
         <v>725</v>
       </c>
       <c r="B328" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C328" t="s">
         <v>1183</v>
-      </c>
-      <c r="C328" t="s">
-        <v>1184</v>
       </c>
       <c r="D328" t="s">
         <v>55</v>
@@ -14304,7 +14304,7 @@
         <v>420</v>
       </c>
       <c r="B347" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C347" t="s">
         <v>16</v>
@@ -14333,10 +14333,10 @@
         <v>448</v>
       </c>
       <c r="B348" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C348" t="s">
         <v>1130</v>
-      </c>
-      <c r="C348" t="s">
-        <v>1131</v>
       </c>
       <c r="D348" t="s">
         <v>288</v>
@@ -14394,7 +14394,7 @@
         <v>288</v>
       </c>
       <c r="C350" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D350" t="s">
         <v>288</v>
@@ -14423,7 +14423,7 @@
         <v>288</v>
       </c>
       <c r="C351" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D351" t="s">
         <v>288</v>
@@ -14452,7 +14452,7 @@
         <v>193</v>
       </c>
       <c r="C352" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>193</v>
@@ -14468,6 +14468,9 @@
       </c>
       <c r="I352" t="s">
         <v>752</v>
+      </c>
+      <c r="K352" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L352" t="s">
         <v>1038</v>
@@ -14495,6 +14498,9 @@
       <c r="I353" t="s">
         <v>748</v>
       </c>
+      <c r="K353" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="L353" t="s">
         <v>1038</v>
       </c>
@@ -14507,7 +14513,7 @@
         <v>193</v>
       </c>
       <c r="C354" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>193</v>
@@ -14520,6 +14526,9 @@
       </c>
       <c r="I354" t="s">
         <v>750</v>
+      </c>
+      <c r="K354" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L354" t="s">
         <v>1038</v>

--- a/src/main/resources/data/ICU-Transliterations.xlsx
+++ b/src/main/resources/data/ICU-Transliterations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmekonnen/git/Xliterator/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DD3CEB-9A6C-E043-B449-0AF7FD06F81C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F483E735-B84E-4542-A3D6-AB32F4D72180}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38360" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3106" uniqueCount="1202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3108" uniqueCount="1202">
   <si>
     <t>Amharic-Latin-BGN.xml</t>
   </si>
@@ -4510,8 +4510,8 @@
   <dimension ref="A1:M355"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D352" sqref="A352:XFD354"/>
+      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9744,7 +9744,10 @@
       <c r="E187" t="s">
         <v>486</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F187" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G187" t="s">
         <v>244</v>
       </c>
       <c r="H187" t="s">
@@ -12113,6 +12116,9 @@
         <v>16</v>
       </c>
       <c r="F264" t="s">
+        <v>16</v>
+      </c>
+      <c r="G264" t="s">
         <v>244</v>
       </c>
       <c r="H264" t="s">

--- a/src/main/resources/data/ICU-Transliterations.xlsx
+++ b/src/main/resources/data/ICU-Transliterations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmekonnen/git/Xliterator/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F483E735-B84E-4542-A3D6-AB32F4D72180}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96C0C00-0339-4D41-B310-3834CE2DD764}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38360" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3108" uniqueCount="1202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3109" uniqueCount="1203">
   <si>
     <t>Amharic-Latin-BGN.xml</t>
   </si>
@@ -3626,6 +3626,9 @@
   </si>
   <si>
     <t>Aethiopica_Latn</t>
+  </si>
+  <si>
+    <t>Han-Spacedhan</t>
   </si>
 </sst>
 </file>
@@ -4509,9 +4512,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M355"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L112" sqref="L112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7679,6 +7682,9 @@
       <c r="I112" t="s">
         <v>172</v>
       </c>
+      <c r="L112" t="s">
+        <v>1202</v>
+      </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" t="s">

--- a/src/main/resources/data/ICU-Transliterations.xlsx
+++ b/src/main/resources/data/ICU-Transliterations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmekonnen/git/Xliterator/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FA10E6-4C0E-454F-AB8F-0C496E578D35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C83BD7-975C-8043-97FC-0F17CE871D99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8280" windowWidth="38360" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="38360" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICU Transliterations" sheetId="1" r:id="rId1"/>
@@ -3694,9 +3694,6 @@
     <t>Ethiopic-Latin/ES3842</t>
   </si>
   <si>
-    <t>Ethiopic-Latin/Braille</t>
-  </si>
-  <si>
     <t>Ethiopic-Latin/BetaMetsehaf</t>
   </si>
   <si>
@@ -3706,9 +3703,6 @@
     <t>ALA_Ethi_Latn</t>
   </si>
   <si>
-    <t>Braile_Ethi_Latn</t>
-  </si>
-  <si>
     <t>SERA_Latn</t>
   </si>
   <si>
@@ -3718,9 +3712,6 @@
     <t>Gurage_Ethi</t>
   </si>
   <si>
-    <t>Gutgarts_Latn</t>
-  </si>
-  <si>
     <t>ES3842_Latn</t>
   </si>
   <si>
@@ -3742,13 +3733,22 @@
     <t>Latin-Ethiopic/BetaMetsehaf</t>
   </si>
   <si>
-    <t>Latin-Ethiopic/Braille</t>
-  </si>
-  <si>
     <t>Latin-Ethiopic/ES3842</t>
   </si>
   <si>
     <t>Latin-Ethiopic/SERA</t>
+  </si>
+  <si>
+    <t>Gutgarts_Cyri</t>
+  </si>
+  <si>
+    <t>Amharic_Ethi_Brai</t>
+  </si>
+  <si>
+    <t>Ethiopic-Braille/Amharic</t>
+  </si>
+  <si>
+    <t>Braille-Ethiopic/Amharic</t>
   </si>
 </sst>
 </file>
@@ -4632,9 +4632,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M363"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J84" sqref="J84"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6837,7 +6837,7 @@
         <v>1042</v>
       </c>
       <c r="J76" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -6848,7 +6848,7 @@
         <v>1073</v>
       </c>
       <c r="C77" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D77" t="s">
         <v>259</v>
@@ -6866,7 +6866,7 @@
         <v>1214</v>
       </c>
       <c r="J77" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -6877,7 +6877,7 @@
         <v>1073</v>
       </c>
       <c r="C78" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D78" t="s">
         <v>259</v>
@@ -6892,10 +6892,10 @@
         <v>6</v>
       </c>
       <c r="I78" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="J78" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -6906,25 +6906,25 @@
         <v>1073</v>
       </c>
       <c r="C79" t="s">
-        <v>1228</v>
+        <v>1240</v>
       </c>
       <c r="D79" t="s">
         <v>259</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
+        <v>1217</v>
       </c>
       <c r="G79" t="s">
-        <v>1217</v>
+        <v>1</v>
       </c>
       <c r="H79" t="s">
         <v>6</v>
       </c>
       <c r="I79" t="s">
-        <v>1224</v>
+        <v>1241</v>
       </c>
       <c r="J79" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -6935,7 +6935,7 @@
         <v>1073</v>
       </c>
       <c r="C80" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="D80" t="s">
         <v>259</v>
@@ -6953,7 +6953,7 @@
         <v>1223</v>
       </c>
       <c r="J80" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -6964,7 +6964,7 @@
         <v>1073</v>
       </c>
       <c r="C81" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="D81" t="s">
         <v>259</v>
@@ -6982,7 +6982,7 @@
         <v>1222</v>
       </c>
       <c r="J81" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -6993,7 +6993,7 @@
         <v>1073</v>
       </c>
       <c r="C82" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="D82" t="s">
         <v>259</v>
@@ -7011,7 +7011,7 @@
         <v>1221</v>
       </c>
       <c r="J82" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -7022,7 +7022,7 @@
         <v>1073</v>
       </c>
       <c r="C83" t="s">
-        <v>1232</v>
+        <v>1239</v>
       </c>
       <c r="D83" t="s">
         <v>259</v>
@@ -7040,7 +7040,7 @@
         <v>1212</v>
       </c>
       <c r="J83" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -7051,7 +7051,7 @@
         <v>1073</v>
       </c>
       <c r="C84" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="D84" t="s">
         <v>259</v>
@@ -7069,7 +7069,7 @@
         <v>1211</v>
       </c>
       <c r="J84" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">

--- a/src/main/resources/data/ICU-Transliterations.xlsx
+++ b/src/main/resources/data/ICU-Transliterations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmekonnen/git/Xliterator/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40FF369-6A07-7142-A98A-12E30A259A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F0F345-3C86-1C4F-9B07-30AE415F815B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="11480" windowWidth="38360" windowHeight="19600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="700" yWindow="9860" windowWidth="38360" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICU Transliterations" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3198" uniqueCount="1253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3201" uniqueCount="1255">
   <si>
     <t>Amharic-Latin-BGN.xml</t>
   </si>
@@ -3730,9 +3730,6 @@
     <t>Latin-Ethiopic/ALA</t>
   </si>
   <si>
-    <t>Latin-Ethiopic/BetaMetsehaf</t>
-  </si>
-  <si>
     <t>Latin-Ethiopic/ES3842</t>
   </si>
   <si>
@@ -3760,9 +3757,6 @@
     <t>TekieAlibekit_Ethi</t>
   </si>
   <si>
-    <t>Latin-Ethiopic/TekieAlibekit</t>
-  </si>
-  <si>
     <t>Ethiopic-Latin-TekieAlibekit.xml</t>
   </si>
   <si>
@@ -3779,6 +3773,18 @@
   </si>
   <si>
     <t>Musnad</t>
+  </si>
+  <si>
+    <t>Blin</t>
+  </si>
+  <si>
+    <t>Tigrinya.ER</t>
+  </si>
+  <si>
+    <t>Latin-Ethiopic/Tekie_Alibekit</t>
+  </si>
+  <si>
+    <t>Latin-Ethiopic/Beta_Metsehaf</t>
   </si>
 </sst>
 </file>
@@ -4671,7 +4677,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
+      <selection pane="bottomLeft" activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6932,7 +6938,7 @@
         <v>1224</v>
       </c>
       <c r="J78" t="s">
-        <v>1236</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -6943,7 +6949,7 @@
         <v>1073</v>
       </c>
       <c r="C79" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D79" t="s">
         <v>259</v>
@@ -6958,10 +6964,10 @@
         <v>6</v>
       </c>
       <c r="I79" t="s">
+        <v>1240</v>
+      </c>
+      <c r="J79" t="s">
         <v>1241</v>
-      </c>
-      <c r="J79" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -6984,13 +6990,13 @@
         <v>1218</v>
       </c>
       <c r="H80" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I80" t="s">
         <v>1223</v>
       </c>
       <c r="J80" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -7019,7 +7025,7 @@
         <v>1222</v>
       </c>
       <c r="J81" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -7035,6 +7041,9 @@
       <c r="D82" t="s">
         <v>259</v>
       </c>
+      <c r="E82" t="s">
+        <v>1251</v>
+      </c>
       <c r="F82" t="s">
         <v>16</v>
       </c>
@@ -7053,31 +7062,34 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B83" t="s">
         <v>1073</v>
       </c>
       <c r="C83" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D83" t="s">
         <v>259</v>
       </c>
+      <c r="E83" t="s">
+        <v>1251</v>
+      </c>
       <c r="F83" t="s">
         <v>16</v>
       </c>
       <c r="G83" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="H83" t="s">
         <v>6</v>
       </c>
       <c r="I83" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>1246</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -7088,10 +7100,13 @@
         <v>1073</v>
       </c>
       <c r="C84" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D84" t="s">
         <v>259</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1252</v>
       </c>
       <c r="F84" t="s">
         <v>71</v>
@@ -7140,28 +7155,28 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B86" t="s">
         <v>1073</v>
       </c>
       <c r="C86" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="D86" t="s">
         <v>259</v>
       </c>
       <c r="F86" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="H86" t="s">
         <v>6</v>
       </c>
       <c r="I86" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="J86" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">

--- a/src/main/resources/data/ICU-Transliterations.xlsx
+++ b/src/main/resources/data/ICU-Transliterations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmekonnen/git/Xliterator/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F0F345-3C86-1C4F-9B07-30AE415F815B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17DF87B-5D70-6F4C-A82C-1FE2645C4F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="9860" windowWidth="38360" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38360" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICU Transliterations" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3201" uniqueCount="1255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="1255">
   <si>
     <t>Amharic-Latin-BGN.xml</t>
   </si>
@@ -3667,9 +3667,6 @@
     <t>Ethiopic-Latin/ALA</t>
   </si>
   <si>
-    <t>Ethiopic-Latin-Braille.xml</t>
-  </si>
-  <si>
     <t>BetaMetsehaf</t>
   </si>
   <si>
@@ -3785,6 +3782,9 @@
   </si>
   <si>
     <t>Latin-Ethiopic/Beta_Metsehaf</t>
+  </si>
+  <si>
+    <t>Ethiopic-Braille-Amharic.xml</t>
   </si>
 </sst>
 </file>
@@ -4675,9 +4675,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J78" sqref="J78"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6880,7 +6880,7 @@
         <v>1042</v>
       </c>
       <c r="J76" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -6891,7 +6891,7 @@
         <v>1073</v>
       </c>
       <c r="C77" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D77" t="s">
         <v>259</v>
@@ -6909,7 +6909,7 @@
         <v>1214</v>
       </c>
       <c r="J77" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -6920,7 +6920,7 @@
         <v>1073</v>
       </c>
       <c r="C78" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D78" t="s">
         <v>259</v>
@@ -6929,33 +6929,36 @@
         <v>16</v>
       </c>
       <c r="G78" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H78" t="s">
         <v>6</v>
       </c>
       <c r="I78" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="J78" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1215</v>
+        <v>1254</v>
       </c>
       <c r="B79" t="s">
         <v>1073</v>
       </c>
       <c r="C79" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D79" t="s">
         <v>259</v>
       </c>
+      <c r="E79" t="s">
+        <v>1</v>
+      </c>
       <c r="F79" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="G79" t="s">
         <v>1</v>
@@ -6964,10 +6967,10 @@
         <v>6</v>
       </c>
       <c r="I79" t="s">
+        <v>1239</v>
+      </c>
+      <c r="J79" t="s">
         <v>1240</v>
-      </c>
-      <c r="J79" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -6978,7 +6981,7 @@
         <v>1073</v>
       </c>
       <c r="C80" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D80" t="s">
         <v>259</v>
@@ -6987,16 +6990,16 @@
         <v>16</v>
       </c>
       <c r="G80" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="H80" t="s">
         <v>3</v>
       </c>
       <c r="I80" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="J80" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -7007,7 +7010,7 @@
         <v>1073</v>
       </c>
       <c r="C81" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D81" t="s">
         <v>259</v>
@@ -7016,16 +7019,16 @@
         <v>16</v>
       </c>
       <c r="G81" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H81" t="s">
         <v>6</v>
       </c>
       <c r="I81" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J81" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -7036,60 +7039,60 @@
         <v>1073</v>
       </c>
       <c r="C82" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D82" t="s">
         <v>259</v>
       </c>
       <c r="E82" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F82" t="s">
         <v>16</v>
       </c>
       <c r="G82" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H82" t="s">
         <v>6</v>
       </c>
       <c r="I82" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J82" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B83" t="s">
         <v>1073</v>
       </c>
       <c r="C83" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D83" t="s">
         <v>259</v>
       </c>
       <c r="E83" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F83" t="s">
         <v>16</v>
       </c>
       <c r="G83" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H83" t="s">
         <v>6</v>
       </c>
       <c r="I83" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -7100,13 +7103,13 @@
         <v>1073</v>
       </c>
       <c r="C84" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D84" t="s">
         <v>259</v>
       </c>
       <c r="E84" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="F84" t="s">
         <v>71</v>
@@ -7121,7 +7124,7 @@
         <v>1212</v>
       </c>
       <c r="J84" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -7132,7 +7135,7 @@
         <v>1073</v>
       </c>
       <c r="C85" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D85" t="s">
         <v>259</v>
@@ -7150,33 +7153,33 @@
         <v>1211</v>
       </c>
       <c r="J85" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B86" t="s">
         <v>1073</v>
       </c>
       <c r="C86" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D86" t="s">
         <v>259</v>
       </c>
       <c r="F86" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H86" t="s">
         <v>6</v>
       </c>
       <c r="I86" t="s">
+        <v>1247</v>
+      </c>
+      <c r="J86" t="s">
         <v>1248</v>
-      </c>
-      <c r="J86" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">

--- a/src/main/resources/data/ICU-Transliterations.xlsx
+++ b/src/main/resources/data/ICU-Transliterations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmekonnen/git/Xliterator/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17DF87B-5D70-6F4C-A82C-1FE2645C4F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D57E79-F687-2E4F-981D-0EA9560184CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38360" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="1255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3201" uniqueCount="1255">
   <si>
     <t>Amharic-Latin-BGN.xml</t>
   </si>
@@ -4677,7 +4677,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
+      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6960,9 +6960,6 @@
       <c r="F79" t="s">
         <v>1216</v>
       </c>
-      <c r="G79" t="s">
-        <v>1</v>
-      </c>
       <c r="H79" t="s">
         <v>6</v>
       </c>

--- a/src/main/resources/data/ICU-Transliterations.xlsx
+++ b/src/main/resources/data/ICU-Transliterations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmekonnen/git/Xliterator/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D57E79-F687-2E4F-981D-0EA9560184CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63C6B10-93B2-9F4A-967E-5671FF8C23E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38360" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="5920" windowWidth="38360" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICU Transliterations" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3201" uniqueCount="1255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3209" uniqueCount="1258">
   <si>
     <t>Amharic-Latin-BGN.xml</t>
   </si>
@@ -3785,13 +3785,22 @@
   </si>
   <si>
     <t>Ethiopic-Braille-Amharic.xml</t>
+  </si>
+  <si>
+    <t>Myanmar-Latin.xml</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Myanmar-Latin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3946,6 +3955,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="35">
@@ -4310,7 +4325,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -4318,6 +4333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4673,11 +4689,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M365"/>
+  <dimension ref="A1:M366"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
+      <pane ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D307" sqref="D307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13443,44 +13459,41 @@
         <v>907</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:12" ht="17" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>693</v>
+        <v>1255</v>
       </c>
       <c r="B307" t="s">
-        <v>1173</v>
+        <v>1162</v>
       </c>
       <c r="C307" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D307" s="2" t="s">
-        <v>803</v>
+        <v>1052</v>
+      </c>
+      <c r="D307" t="s">
+        <v>620</v>
+      </c>
+      <c r="E307" t="s">
+        <v>1256</v>
       </c>
       <c r="F307" t="s">
-        <v>13</v>
-      </c>
-      <c r="G307" t="s">
-        <v>349</v>
+        <v>16</v>
       </c>
       <c r="H307" t="s">
         <v>3</v>
       </c>
-      <c r="I307" t="s">
-        <v>694</v>
-      </c>
-      <c r="L307" t="s">
-        <v>1015</v>
+      <c r="I307" s="7" t="s">
+        <v>1257</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="B308" t="s">
         <v>1173</v>
       </c>
       <c r="C308" t="s">
-        <v>1049</v>
+        <v>1108</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>803</v>
@@ -13488,479 +13501,479 @@
       <c r="F308" t="s">
         <v>13</v>
       </c>
+      <c r="G308" t="s">
+        <v>349</v>
+      </c>
       <c r="H308" t="s">
         <v>3</v>
       </c>
       <c r="I308" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="L308" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B309" t="s">
         <v>1173</v>
       </c>
       <c r="C309" t="s">
-        <v>1127</v>
+        <v>1049</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>803</v>
       </c>
       <c r="F309" t="s">
-        <v>801</v>
+        <v>13</v>
       </c>
       <c r="H309" t="s">
         <v>3</v>
       </c>
       <c r="I309" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="L309" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="B310" t="s">
         <v>1173</v>
       </c>
       <c r="C310" t="s">
-        <v>1044</v>
+        <v>1127</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>803</v>
       </c>
       <c r="F310" t="s">
-        <v>259</v>
-      </c>
-      <c r="G310" t="s">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="H310" t="s">
         <v>3</v>
       </c>
       <c r="I310" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="L310" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="B311" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C311" t="s">
-        <v>1175</v>
+        <v>1044</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>803</v>
       </c>
       <c r="F311" t="s">
-        <v>799</v>
-      </c>
-      <c r="G311" s="2" t="s">
-        <v>803</v>
+        <v>259</v>
+      </c>
+      <c r="G311" t="s">
+        <v>1</v>
       </c>
       <c r="H311" t="s">
         <v>3</v>
       </c>
       <c r="I311" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="L311" t="s">
-        <v>1038</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>322</v>
+        <v>695</v>
       </c>
       <c r="B312" t="s">
-        <v>1065</v>
+        <v>1174</v>
       </c>
       <c r="C312" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D312" t="s">
-        <v>52</v>
+        <v>1175</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>803</v>
       </c>
       <c r="F312" t="s">
-        <v>13</v>
+        <v>799</v>
+      </c>
+      <c r="G312" s="2" t="s">
+        <v>803</v>
       </c>
       <c r="H312" t="s">
         <v>3</v>
       </c>
       <c r="I312" t="s">
-        <v>323</v>
+        <v>696</v>
       </c>
       <c r="L312" t="s">
-        <v>908</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B313" t="s">
         <v>1065</v>
       </c>
       <c r="C313" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="D313" t="s">
         <v>52</v>
       </c>
       <c r="F313" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H313" t="s">
         <v>3</v>
       </c>
       <c r="I313" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L313" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B314" t="s">
         <v>1065</v>
       </c>
       <c r="C314" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D314" t="s">
         <v>52</v>
       </c>
       <c r="F314" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H314" t="s">
         <v>3</v>
       </c>
       <c r="I314" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L314" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B315" t="s">
         <v>1065</v>
       </c>
       <c r="C315" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D315" t="s">
         <v>52</v>
       </c>
       <c r="F315" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H315" t="s">
         <v>3</v>
       </c>
       <c r="I315" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L315" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B316" t="s">
         <v>1065</v>
       </c>
       <c r="C316" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D316" t="s">
         <v>52</v>
       </c>
       <c r="F316" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H316" t="s">
         <v>3</v>
       </c>
       <c r="I316" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L316" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B317" t="s">
-        <v>52</v>
+        <v>1065</v>
       </c>
       <c r="C317" t="s">
-        <v>41</v>
+        <v>1062</v>
       </c>
       <c r="D317" t="s">
         <v>52</v>
       </c>
       <c r="F317" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H317" t="s">
         <v>3</v>
       </c>
-      <c r="K317" t="s">
-        <v>42</v>
+      <c r="I317" t="s">
+        <v>331</v>
       </c>
       <c r="L317" t="s">
-        <v>1038</v>
+        <v>912</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B318" t="s">
-        <v>1065</v>
+        <v>52</v>
       </c>
       <c r="C318" t="s">
-        <v>1063</v>
+        <v>41</v>
       </c>
       <c r="D318" t="s">
         <v>52</v>
       </c>
       <c r="F318" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H318" t="s">
         <v>3</v>
       </c>
-      <c r="I318" t="s">
-        <v>334</v>
+      <c r="K318" t="s">
+        <v>42</v>
       </c>
       <c r="L318" t="s">
-        <v>913</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B319" t="s">
         <v>1065</v>
       </c>
       <c r="C319" t="s">
-        <v>1052</v>
+        <v>1063</v>
       </c>
       <c r="D319" t="s">
         <v>52</v>
       </c>
       <c r="F319" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="H319" t="s">
         <v>3</v>
       </c>
       <c r="I319" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L319" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B320" t="s">
         <v>1065</v>
       </c>
       <c r="C320" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="D320" t="s">
         <v>52</v>
       </c>
       <c r="F320" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="H320" t="s">
         <v>3</v>
       </c>
       <c r="I320" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L320" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B321" t="s">
         <v>1065</v>
       </c>
       <c r="C321" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="D321" t="s">
         <v>52</v>
       </c>
       <c r="F321" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H321" t="s">
         <v>3</v>
       </c>
       <c r="I321" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L321" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B322" t="s">
         <v>1065</v>
       </c>
       <c r="C322" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D322" t="s">
         <v>52</v>
       </c>
       <c r="F322" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H322" t="s">
         <v>3</v>
       </c>
       <c r="I322" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="L322" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B323" t="s">
         <v>1065</v>
       </c>
       <c r="C323" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D323" t="s">
         <v>52</v>
       </c>
       <c r="F323" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H323" t="s">
         <v>3</v>
       </c>
       <c r="I323" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L323" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B324" t="s">
-        <v>1106</v>
+        <v>1065</v>
       </c>
       <c r="C324" t="s">
-        <v>1107</v>
+        <v>1068</v>
       </c>
       <c r="D324" t="s">
-        <v>346</v>
+        <v>52</v>
       </c>
       <c r="F324" t="s">
-        <v>16</v>
-      </c>
-      <c r="G324" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="H324" t="s">
         <v>3</v>
       </c>
       <c r="I324" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L324" t="s">
-        <v>1038</v>
+        <v>918</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>704</v>
+        <v>345</v>
       </c>
       <c r="B325" t="s">
-        <v>1176</v>
+        <v>1106</v>
       </c>
       <c r="C325" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D325" t="s">
-        <v>698</v>
+        <v>346</v>
       </c>
       <c r="F325" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G325" t="s">
-        <v>349</v>
+        <v>2</v>
       </c>
       <c r="H325" t="s">
         <v>3</v>
       </c>
       <c r="I325" t="s">
-        <v>705</v>
+        <v>347</v>
       </c>
       <c r="L325" t="s">
-        <v>1019</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="B326" t="s">
         <v>1176</v>
       </c>
       <c r="C326" t="s">
-        <v>1049</v>
+        <v>1108</v>
       </c>
       <c r="D326" t="s">
         <v>698</v>
@@ -13968,121 +13981,124 @@
       <c r="F326" t="s">
         <v>13</v>
       </c>
+      <c r="G326" t="s">
+        <v>349</v>
+      </c>
       <c r="H326" t="s">
         <v>3</v>
       </c>
       <c r="I326" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="L326" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B327" t="s">
         <v>1176</v>
       </c>
       <c r="C327" t="s">
-        <v>1127</v>
+        <v>1049</v>
       </c>
       <c r="D327" t="s">
         <v>698</v>
       </c>
       <c r="F327" t="s">
-        <v>801</v>
+        <v>13</v>
       </c>
       <c r="H327" t="s">
         <v>3</v>
       </c>
       <c r="I327" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="L327" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="B328" t="s">
         <v>1176</v>
       </c>
       <c r="C328" t="s">
-        <v>1044</v>
+        <v>1127</v>
       </c>
       <c r="D328" t="s">
         <v>698</v>
       </c>
       <c r="F328" t="s">
-        <v>259</v>
-      </c>
-      <c r="G328" t="s">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="H328" t="s">
         <v>3</v>
       </c>
       <c r="I328" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="L328" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="B329" t="s">
         <v>1176</v>
       </c>
       <c r="C329" t="s">
-        <v>1177</v>
+        <v>1044</v>
       </c>
       <c r="D329" t="s">
         <v>698</v>
       </c>
       <c r="F329" t="s">
-        <v>799</v>
+        <v>259</v>
       </c>
       <c r="G329" t="s">
-        <v>698</v>
+        <v>1</v>
       </c>
       <c r="H329" t="s">
         <v>3</v>
       </c>
       <c r="I329" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="L329" t="s">
-        <v>1038</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B330" t="s">
         <v>1176</v>
       </c>
       <c r="C330" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D330" t="s">
         <v>698</v>
       </c>
       <c r="F330" t="s">
-        <v>16</v>
+        <v>799</v>
+      </c>
+      <c r="G330" t="s">
+        <v>698</v>
       </c>
       <c r="H330" t="s">
         <v>3</v>
       </c>
       <c r="I330" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L330" t="s">
         <v>1038</v>
@@ -14090,28 +14106,25 @@
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>362</v>
+        <v>708</v>
       </c>
       <c r="B331" t="s">
-        <v>1116</v>
+        <v>1176</v>
       </c>
       <c r="C331" t="s">
-        <v>1052</v>
+        <v>1178</v>
       </c>
       <c r="D331" t="s">
-        <v>363</v>
+        <v>698</v>
       </c>
       <c r="F331" t="s">
         <v>16</v>
       </c>
       <c r="H331" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I331" t="s">
-        <v>364</v>
-      </c>
-      <c r="J331" t="s">
-        <v>365</v>
+        <v>709</v>
       </c>
       <c r="L331" t="s">
         <v>1038</v>
@@ -14119,184 +14132,184 @@
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B332" t="s">
-        <v>1066</v>
+        <v>1116</v>
       </c>
       <c r="C332" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D332" t="s">
-        <v>55</v>
+        <v>363</v>
       </c>
       <c r="F332" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H332" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I332" t="s">
-        <v>367</v>
+        <v>364</v>
+      </c>
+      <c r="J332" t="s">
+        <v>365</v>
       </c>
       <c r="L332" t="s">
-        <v>919</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B333" t="s">
         <v>1066</v>
       </c>
       <c r="C333" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="D333" t="s">
         <v>55</v>
       </c>
       <c r="F333" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H333" t="s">
         <v>3</v>
       </c>
       <c r="I333" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L333" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B334" t="s">
         <v>1066</v>
       </c>
       <c r="C334" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D334" t="s">
         <v>55</v>
       </c>
       <c r="F334" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H334" t="s">
         <v>3</v>
       </c>
       <c r="I334" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L334" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B335" t="s">
         <v>1066</v>
       </c>
       <c r="C335" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D335" t="s">
         <v>55</v>
       </c>
       <c r="F335" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H335" t="s">
         <v>3</v>
       </c>
       <c r="I335" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L335" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B336" t="s">
         <v>1066</v>
       </c>
       <c r="C336" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D336" t="s">
         <v>55</v>
       </c>
       <c r="F336" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H336" t="s">
         <v>3</v>
       </c>
       <c r="I336" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L336" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B337" t="s">
-        <v>55</v>
+        <v>1066</v>
       </c>
       <c r="C337" t="s">
-        <v>41</v>
+        <v>1062</v>
       </c>
       <c r="D337" t="s">
         <v>55</v>
       </c>
       <c r="F337" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H337" t="s">
         <v>3</v>
       </c>
-      <c r="K337" t="s">
-        <v>42</v>
+      <c r="I337" t="s">
+        <v>375</v>
       </c>
       <c r="L337" t="s">
-        <v>1038</v>
+        <v>923</v>
       </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>725</v>
+        <v>376</v>
       </c>
       <c r="B338" t="s">
-        <v>1181</v>
+        <v>55</v>
       </c>
       <c r="C338" t="s">
-        <v>1182</v>
+        <v>41</v>
       </c>
       <c r="D338" t="s">
         <v>55</v>
       </c>
       <c r="F338" t="s">
-        <v>799</v>
-      </c>
-      <c r="G338" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H338" t="s">
         <v>3</v>
       </c>
-      <c r="I338" t="s">
-        <v>726</v>
+      <c r="K338" t="s">
+        <v>42</v>
       </c>
       <c r="L338" t="s">
         <v>1038</v>
@@ -14304,528 +14317,525 @@
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>377</v>
+        <v>725</v>
       </c>
       <c r="B339" t="s">
-        <v>1066</v>
+        <v>1181</v>
       </c>
       <c r="C339" t="s">
-        <v>1063</v>
+        <v>1182</v>
       </c>
       <c r="D339" t="s">
         <v>55</v>
       </c>
       <c r="F339" t="s">
-        <v>44</v>
+        <v>799</v>
+      </c>
+      <c r="G339" t="s">
+        <v>55</v>
       </c>
       <c r="H339" t="s">
         <v>3</v>
       </c>
       <c r="I339" t="s">
-        <v>378</v>
+        <v>726</v>
       </c>
       <c r="L339" t="s">
-        <v>924</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B340" t="s">
         <v>1066</v>
       </c>
       <c r="C340" t="s">
-        <v>1052</v>
+        <v>1063</v>
       </c>
       <c r="D340" t="s">
         <v>55</v>
       </c>
       <c r="F340" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="H340" t="s">
         <v>3</v>
       </c>
       <c r="I340" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L340" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B341" t="s">
         <v>1066</v>
       </c>
       <c r="C341" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="D341" t="s">
         <v>55</v>
       </c>
       <c r="F341" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="H341" t="s">
         <v>3</v>
       </c>
       <c r="I341" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L341" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B342" t="s">
         <v>1066</v>
       </c>
       <c r="C342" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D342" t="s">
         <v>55</v>
       </c>
       <c r="F342" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H342" t="s">
         <v>3</v>
       </c>
       <c r="I342" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L342" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B343" t="s">
         <v>1066</v>
       </c>
       <c r="C343" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="D343" t="s">
         <v>55</v>
       </c>
       <c r="F343" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H343" t="s">
         <v>3</v>
       </c>
       <c r="I343" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L343" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B344" t="s">
         <v>1066</v>
       </c>
       <c r="C344" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D344" t="s">
         <v>55</v>
       </c>
       <c r="F344" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H344" t="s">
         <v>3</v>
       </c>
       <c r="I344" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L344" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B345" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C345" t="s">
-        <v>1051</v>
+        <v>1068</v>
       </c>
       <c r="D345" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F345" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="H345" t="s">
         <v>3</v>
       </c>
       <c r="I345" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L345" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B346" t="s">
         <v>1067</v>
       </c>
       <c r="C346" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="D346" t="s">
         <v>58</v>
       </c>
       <c r="F346" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H346" t="s">
         <v>3</v>
       </c>
       <c r="I346" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="L346" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B347" t="s">
         <v>1067</v>
       </c>
       <c r="C347" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D347" t="s">
         <v>58</v>
       </c>
       <c r="F347" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H347" t="s">
         <v>3</v>
       </c>
       <c r="I347" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L347" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B348" t="s">
         <v>1067</v>
       </c>
       <c r="C348" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D348" t="s">
         <v>58</v>
       </c>
       <c r="F348" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H348" t="s">
         <v>3</v>
       </c>
       <c r="I348" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L348" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B349" t="s">
         <v>1067</v>
       </c>
       <c r="C349" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D349" t="s">
         <v>58</v>
       </c>
       <c r="F349" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H349" t="s">
         <v>3</v>
       </c>
       <c r="I349" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="L349" t="s">
-        <v>1038</v>
+        <v>933</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B350" t="s">
-        <v>58</v>
+        <v>1067</v>
       </c>
       <c r="C350" t="s">
-        <v>41</v>
+        <v>1062</v>
       </c>
       <c r="D350" t="s">
         <v>58</v>
       </c>
       <c r="F350" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H350" t="s">
         <v>3</v>
       </c>
-      <c r="K350" t="s">
-        <v>42</v>
+      <c r="I350" t="s">
+        <v>398</v>
       </c>
       <c r="L350" t="s">
-        <v>934</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B351" t="s">
-        <v>1067</v>
+        <v>58</v>
       </c>
       <c r="C351" t="s">
-        <v>1063</v>
+        <v>41</v>
       </c>
       <c r="D351" t="s">
         <v>58</v>
       </c>
       <c r="F351" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H351" t="s">
         <v>3</v>
       </c>
-      <c r="I351" t="s">
-        <v>401</v>
+      <c r="K351" t="s">
+        <v>42</v>
       </c>
       <c r="L351" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B352" t="s">
         <v>1067</v>
       </c>
       <c r="C352" t="s">
-        <v>1052</v>
+        <v>1063</v>
       </c>
       <c r="D352" t="s">
         <v>58</v>
       </c>
       <c r="F352" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="H352" t="s">
         <v>3</v>
       </c>
       <c r="I352" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="L352" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B353" t="s">
         <v>1067</v>
       </c>
       <c r="C353" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="D353" t="s">
         <v>58</v>
       </c>
       <c r="F353" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="H353" t="s">
         <v>3</v>
       </c>
       <c r="I353" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L353" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B354" t="s">
         <v>1067</v>
       </c>
       <c r="C354" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D354" t="s">
         <v>58</v>
       </c>
       <c r="F354" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H354" t="s">
         <v>3</v>
       </c>
       <c r="I354" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L354" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B355" t="s">
         <v>1067</v>
       </c>
       <c r="C355" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D355" t="s">
         <v>58</v>
       </c>
       <c r="F355" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H355" t="s">
         <v>3</v>
       </c>
       <c r="I355" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L355" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B356" t="s">
         <v>1067</v>
       </c>
       <c r="C356" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="D356" t="s">
         <v>58</v>
       </c>
       <c r="F356" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H356" t="s">
         <v>3</v>
       </c>
       <c r="I356" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="L356" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B357" t="s">
-        <v>1118</v>
+        <v>1067</v>
       </c>
       <c r="C357" t="s">
-        <v>16</v>
+        <v>1068</v>
       </c>
       <c r="D357" t="s">
-        <v>288</v>
-      </c>
-      <c r="E357" t="s">
-        <v>798</v>
+        <v>58</v>
       </c>
       <c r="F357" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="H357" t="s">
-        <v>6</v>
-      </c>
-      <c r="K357" t="s">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="I357" t="s">
+        <v>411</v>
       </c>
       <c r="L357" t="s">
-        <v>1038</v>
+        <v>940</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
       <c r="B358" t="s">
-        <v>1128</v>
+        <v>1118</v>
       </c>
       <c r="C358" t="s">
-        <v>1129</v>
+        <v>16</v>
       </c>
       <c r="D358" t="s">
         <v>288</v>
       </c>
-      <c r="E358" s="2" t="s">
-        <v>807</v>
+      <c r="E358" t="s">
+        <v>798</v>
       </c>
       <c r="F358" t="s">
-        <v>799</v>
-      </c>
-      <c r="G358" s="2" t="s">
-        <v>807</v>
+        <v>16</v>
       </c>
       <c r="H358" t="s">
-        <v>3</v>
-      </c>
-      <c r="I358" t="s">
-        <v>449</v>
+        <v>6</v>
+      </c>
+      <c r="K358" t="s">
+        <v>42</v>
       </c>
       <c r="L358" t="s">
         <v>1038</v>
@@ -14833,68 +14843,71 @@
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
       <c r="B359" t="s">
-        <v>288</v>
+        <v>1128</v>
       </c>
       <c r="C359" t="s">
-        <v>1052</v>
+        <v>1129</v>
       </c>
       <c r="D359" t="s">
         <v>288</v>
       </c>
+      <c r="E359" s="2" t="s">
+        <v>807</v>
+      </c>
       <c r="F359" t="s">
-        <v>16</v>
+        <v>799</v>
+      </c>
+      <c r="G359" s="2" t="s">
+        <v>807</v>
       </c>
       <c r="H359" t="s">
         <v>3</v>
       </c>
       <c r="I359" t="s">
-        <v>417</v>
+        <v>449</v>
       </c>
       <c r="L359" t="s">
-        <v>941</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B360" t="s">
         <v>288</v>
       </c>
       <c r="C360" t="s">
-        <v>1118</v>
+        <v>1052</v>
       </c>
       <c r="D360" t="s">
         <v>288</v>
       </c>
       <c r="F360" t="s">
-        <v>288</v>
-      </c>
-      <c r="G360" t="s">
-        <v>798</v>
+        <v>16</v>
       </c>
       <c r="H360" t="s">
-        <v>6</v>
-      </c>
-      <c r="K360" t="s">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="I360" t="s">
+        <v>417</v>
       </c>
       <c r="L360" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B361" t="s">
         <v>288</v>
       </c>
       <c r="C361" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D361" t="s">
         <v>288</v>
@@ -14903,7 +14916,7 @@
         <v>288</v>
       </c>
       <c r="G361" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H361" t="s">
         <v>6</v>
@@ -14912,35 +14925,32 @@
         <v>42</v>
       </c>
       <c r="L361" t="s">
-        <v>1038</v>
+        <v>942</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>751</v>
+        <v>419</v>
       </c>
       <c r="B362" t="s">
-        <v>193</v>
+        <v>288</v>
       </c>
       <c r="C362" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D362" s="1" t="s">
-        <v>193</v>
+        <v>1119</v>
+      </c>
+      <c r="D362" t="s">
+        <v>288</v>
       </c>
       <c r="F362" t="s">
-        <v>13</v>
+        <v>288</v>
       </c>
       <c r="G362" t="s">
-        <v>349</v>
+        <v>800</v>
       </c>
       <c r="H362" t="s">
-        <v>3</v>
-      </c>
-      <c r="I362" t="s">
-        <v>752</v>
-      </c>
-      <c r="K362" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K362" t="s">
         <v>42</v>
       </c>
       <c r="L362" t="s">
@@ -14949,13 +14959,13 @@
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="B363" t="s">
         <v>193</v>
       </c>
       <c r="C363" t="s">
-        <v>1049</v>
+        <v>1108</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>193</v>
@@ -14963,11 +14973,14 @@
       <c r="F363" t="s">
         <v>13</v>
       </c>
+      <c r="G363" t="s">
+        <v>349</v>
+      </c>
       <c r="H363" t="s">
         <v>3</v>
       </c>
       <c r="I363" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="K363" s="1" t="s">
         <v>42</v>
@@ -14978,25 +14991,25 @@
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B364" t="s">
         <v>193</v>
       </c>
       <c r="C364" t="s">
-        <v>1127</v>
+        <v>1049</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>193</v>
       </c>
       <c r="F364" t="s">
-        <v>801</v>
+        <v>13</v>
       </c>
       <c r="H364" t="s">
         <v>3</v>
       </c>
       <c r="I364" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="K364" s="1" t="s">
         <v>42</v>
@@ -15007,36 +15020,65 @@
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
+        <v>749</v>
+      </c>
+      <c r="B365" t="s">
+        <v>193</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F365" t="s">
+        <v>801</v>
+      </c>
+      <c r="H365" t="s">
+        <v>3</v>
+      </c>
+      <c r="I365" t="s">
+        <v>750</v>
+      </c>
+      <c r="K365" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L365" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
         <v>66</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B366" t="s">
         <v>1052</v>
       </c>
-      <c r="C365" t="s">
+      <c r="C366" t="s">
         <v>1071</v>
       </c>
-      <c r="D365" t="s">
+      <c r="D366" t="s">
         <v>67</v>
       </c>
-      <c r="F365" t="s">
-        <v>16</v>
-      </c>
-      <c r="H365" t="s">
+      <c r="F366" t="s">
+        <v>16</v>
+      </c>
+      <c r="H366" t="s">
         <v>6</v>
       </c>
-      <c r="I365" t="s">
+      <c r="I366" t="s">
         <v>68</v>
       </c>
-      <c r="J365" t="s">
+      <c r="J366" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M370">
-    <sortCondition ref="D2:D370"/>
-    <sortCondition ref="E2:E370"/>
-    <sortCondition ref="F2:F370"/>
-    <sortCondition ref="G2:G370"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M371">
+    <sortCondition ref="D2:D371"/>
+    <sortCondition ref="E2:E371"/>
+    <sortCondition ref="F2:F371"/>
+    <sortCondition ref="G2:G371"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/main/resources/data/ICU-Transliterations.xlsx
+++ b/src/main/resources/data/ICU-Transliterations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmekonnen/git/Xliterator/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77D4DF8-88C8-814F-9F1C-1032ABDDA14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF8D72A-4D26-6947-953C-DD748DB6DF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="5920" windowWidth="38360" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3218" uniqueCount="1263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="1268">
   <si>
     <t>Amharic-Latin-BGN.xml</t>
   </si>
@@ -3809,13 +3809,28 @@
   </si>
   <si>
     <t>Latin-Ethiopic/JES-IES-1964</t>
+  </si>
+  <si>
+    <t>Latin-Ethiopic/Lambdin</t>
+  </si>
+  <si>
+    <t>Ethiopic-Latin/Lambdin</t>
+  </si>
+  <si>
+    <t>Lambdin_Latn</t>
+  </si>
+  <si>
+    <t>Ethiopic-Latin-Lambdin.xml</t>
+  </si>
+  <si>
+    <t>Lambdin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3976,6 +3991,12 @@
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -4704,11 +4725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M367"/>
+  <dimension ref="A1:M368"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
+      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7061,13 +7082,13 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1205</v>
+        <v>1266</v>
       </c>
       <c r="B82" t="s">
         <v>1073</v>
       </c>
       <c r="C82" t="s">
-        <v>1225</v>
+        <v>1265</v>
       </c>
       <c r="D82" t="s">
         <v>259</v>
@@ -7076,59 +7097,56 @@
         <v>16</v>
       </c>
       <c r="G82" t="s">
-        <v>1217</v>
+        <v>1267</v>
       </c>
       <c r="H82" t="s">
         <v>6</v>
       </c>
       <c r="I82" t="s">
-        <v>1220</v>
+        <v>1264</v>
       </c>
       <c r="J82" t="s">
-        <v>1235</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B83" t="s">
         <v>1073</v>
       </c>
       <c r="C83" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D83" t="s">
         <v>259</v>
       </c>
-      <c r="E83" t="s">
-        <v>1248</v>
-      </c>
       <c r="F83" t="s">
         <v>16</v>
       </c>
       <c r="G83" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="H83" t="s">
         <v>6</v>
       </c>
       <c r="I83" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="J83" t="s">
-        <v>1231</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1242</v>
+        <v>1206</v>
       </c>
       <c r="B84" t="s">
         <v>1073</v>
       </c>
       <c r="C84" t="s">
-        <v>1241</v>
+        <v>1226</v>
       </c>
       <c r="D84" t="s">
         <v>259</v>
@@ -7140,134 +7158,140 @@
         <v>16</v>
       </c>
       <c r="G84" t="s">
-        <v>1260</v>
+        <v>1218</v>
       </c>
       <c r="H84" t="s">
         <v>6</v>
       </c>
       <c r="I84" t="s">
-        <v>1240</v>
-      </c>
-      <c r="J84" s="6" t="s">
-        <v>1250</v>
+        <v>1219</v>
+      </c>
+      <c r="J84" t="s">
+        <v>1231</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1207</v>
+        <v>1242</v>
       </c>
       <c r="B85" t="s">
         <v>1073</v>
       </c>
       <c r="C85" t="s">
-        <v>1236</v>
+        <v>1241</v>
       </c>
       <c r="D85" t="s">
         <v>259</v>
       </c>
       <c r="E85" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F85" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="G85" t="s">
-        <v>1209</v>
+        <v>1260</v>
       </c>
       <c r="H85" t="s">
         <v>6</v>
       </c>
       <c r="I85" t="s">
-        <v>1212</v>
-      </c>
-      <c r="J85" t="s">
-        <v>1230</v>
+        <v>1240</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>1250</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B86" t="s">
         <v>1073</v>
       </c>
       <c r="C86" t="s">
-        <v>1227</v>
+        <v>1236</v>
       </c>
       <c r="D86" t="s">
         <v>259</v>
       </c>
+      <c r="E86" t="s">
+        <v>1249</v>
+      </c>
       <c r="F86" t="s">
-        <v>259</v>
+        <v>71</v>
       </c>
       <c r="G86" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H86" t="s">
         <v>6</v>
       </c>
       <c r="I86" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="J86" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1243</v>
+        <v>1208</v>
       </c>
       <c r="B87" t="s">
         <v>1073</v>
       </c>
       <c r="C87" t="s">
-        <v>1244</v>
+        <v>1227</v>
       </c>
       <c r="D87" t="s">
         <v>259</v>
       </c>
       <c r="F87" t="s">
-        <v>1247</v>
+        <v>259</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1210</v>
       </c>
       <c r="H87" t="s">
         <v>6</v>
       </c>
       <c r="I87" t="s">
-        <v>1245</v>
+        <v>1211</v>
       </c>
       <c r="J87" t="s">
-        <v>1246</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>102</v>
+        <v>1243</v>
       </c>
       <c r="B88" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C88" t="s">
-        <v>1075</v>
+        <v>1244</v>
       </c>
       <c r="D88" t="s">
-        <v>103</v>
+        <v>259</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s">
-        <v>2</v>
+        <v>1247</v>
       </c>
       <c r="H88" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I88" t="s">
-        <v>104</v>
+        <v>1245</v>
+      </c>
+      <c r="J88" t="s">
+        <v>1246</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B89" t="s">
         <v>1074</v>
@@ -7282,24 +7306,24 @@
         <v>16</v>
       </c>
       <c r="G89" t="s">
-        <v>817</v>
+        <v>2</v>
       </c>
       <c r="H89" t="s">
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C90" t="s">
-        <v>1052</v>
+        <v>1075</v>
       </c>
       <c r="D90" t="s">
         <v>103</v>
@@ -7307,57 +7331,51 @@
       <c r="F90" t="s">
         <v>16</v>
       </c>
+      <c r="G90" t="s">
+        <v>817</v>
+      </c>
       <c r="H90" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I90" t="s">
-        <v>108</v>
-      </c>
-      <c r="J90" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>490</v>
+        <v>107</v>
       </c>
       <c r="B91" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C91" t="s">
-        <v>440</v>
+        <v>1052</v>
       </c>
       <c r="D91" t="s">
-        <v>114</v>
-      </c>
-      <c r="E91" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F91" t="s">
-        <v>114</v>
-      </c>
-      <c r="G91" t="s">
-        <v>440</v>
+        <v>16</v>
       </c>
       <c r="H91" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I91" t="s">
-        <v>491</v>
-      </c>
-      <c r="L91" t="s">
-        <v>1038</v>
+        <v>108</v>
+      </c>
+      <c r="J91" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B92" t="s">
         <v>1077</v>
       </c>
       <c r="C92" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D92" t="s">
         <v>114</v>
@@ -7369,13 +7387,13 @@
         <v>114</v>
       </c>
       <c r="G92" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H92" t="s">
         <v>3</v>
       </c>
       <c r="I92" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L92" t="s">
         <v>1038</v>
@@ -7383,13 +7401,13 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B93" t="s">
         <v>1077</v>
       </c>
       <c r="C93" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D93" t="s">
         <v>114</v>
@@ -7401,13 +7419,13 @@
         <v>114</v>
       </c>
       <c r="G93" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H93" t="s">
         <v>3</v>
       </c>
       <c r="I93" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L93" t="s">
         <v>1038</v>
@@ -7415,13 +7433,13 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>110</v>
+        <v>494</v>
       </c>
       <c r="B94" t="s">
         <v>1077</v>
       </c>
       <c r="C94" t="s">
-        <v>1078</v>
+        <v>446</v>
       </c>
       <c r="D94" t="s">
         <v>114</v>
@@ -7430,50 +7448,53 @@
         <v>111</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="G94" t="s">
-        <v>2</v>
+        <v>446</v>
       </c>
       <c r="H94" t="s">
         <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>112</v>
+        <v>495</v>
+      </c>
+      <c r="L94" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B95" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C95" t="s">
-        <v>1052</v>
+        <v>1078</v>
       </c>
       <c r="D95" t="s">
         <v>114</v>
       </c>
+      <c r="E95" t="s">
+        <v>111</v>
+      </c>
       <c r="F95" t="s">
         <v>16</v>
       </c>
       <c r="G95" t="s">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="H95" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I95" t="s">
-        <v>119</v>
-      </c>
-      <c r="J95" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B96" t="s">
         <v>1079</v>
@@ -7487,814 +7508,817 @@
       <c r="F96" t="s">
         <v>16</v>
       </c>
+      <c r="G96" t="s">
+        <v>118</v>
+      </c>
       <c r="H96" t="s">
         <v>6</v>
       </c>
       <c r="I96" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J96" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B97" t="s">
-        <v>1061</v>
+        <v>1079</v>
       </c>
       <c r="C97" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D97" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H97" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I97" t="s">
-        <v>122</v>
-      </c>
-      <c r="L97" t="s">
-        <v>849</v>
+        <v>115</v>
+      </c>
+      <c r="J97" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B98" t="s">
         <v>1061</v>
       </c>
       <c r="C98" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="D98" t="s">
         <v>35</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H98" t="s">
         <v>3</v>
       </c>
       <c r="I98" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L98" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B99" t="s">
         <v>1061</v>
       </c>
       <c r="C99" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D99" t="s">
         <v>35</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H99" t="s">
         <v>3</v>
       </c>
       <c r="I99" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L99" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B100" t="s">
         <v>1061</v>
       </c>
       <c r="C100" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="D100" t="s">
         <v>35</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H100" t="s">
         <v>3</v>
       </c>
       <c r="I100" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L100" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B101" t="s">
-        <v>35</v>
+        <v>1061</v>
       </c>
       <c r="C101" t="s">
-        <v>41</v>
+        <v>1062</v>
       </c>
       <c r="D101" t="s">
         <v>35</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H101" t="s">
         <v>3</v>
       </c>
-      <c r="K101" t="s">
-        <v>42</v>
+      <c r="I101" t="s">
+        <v>128</v>
+      </c>
+      <c r="L101" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B102" t="s">
-        <v>1061</v>
+        <v>35</v>
       </c>
       <c r="C102" t="s">
-        <v>1063</v>
+        <v>41</v>
       </c>
       <c r="D102" t="s">
         <v>35</v>
       </c>
       <c r="F102" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H102" t="s">
         <v>3</v>
       </c>
-      <c r="I102" t="s">
-        <v>131</v>
-      </c>
-      <c r="L102" t="s">
-        <v>853</v>
+      <c r="K102" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B103" t="s">
         <v>1061</v>
       </c>
       <c r="C103" t="s">
-        <v>1052</v>
+        <v>1063</v>
       </c>
       <c r="D103" t="s">
         <v>35</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="H103" t="s">
         <v>3</v>
       </c>
       <c r="I103" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L103" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B104" t="s">
         <v>1061</v>
       </c>
       <c r="C104" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="D104" t="s">
         <v>35</v>
       </c>
       <c r="F104" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="H104" t="s">
         <v>3</v>
       </c>
       <c r="I104" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L104" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B105" t="s">
         <v>1061</v>
       </c>
       <c r="C105" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D105" t="s">
         <v>35</v>
       </c>
       <c r="F105" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H105" t="s">
         <v>3</v>
       </c>
       <c r="I105" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L105" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B106" t="s">
         <v>1061</v>
       </c>
       <c r="C106" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D106" t="s">
         <v>35</v>
       </c>
       <c r="F106" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H106" t="s">
         <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L106" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B107" t="s">
         <v>1061</v>
       </c>
       <c r="C107" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D107" t="s">
         <v>35</v>
       </c>
       <c r="F107" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H107" t="s">
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L107" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B108" t="s">
         <v>1061</v>
       </c>
       <c r="C108" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D108" t="s">
         <v>35</v>
       </c>
       <c r="F108" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H108" t="s">
         <v>3</v>
       </c>
       <c r="I108" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L108" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B109" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C109" t="s">
-        <v>1051</v>
+        <v>1068</v>
       </c>
       <c r="D109" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="H109" t="s">
         <v>3</v>
       </c>
       <c r="I109" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L109" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B110" t="s">
         <v>1062</v>
       </c>
       <c r="C110" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="D110" t="s">
         <v>38</v>
       </c>
       <c r="F110" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H110" t="s">
         <v>3</v>
       </c>
       <c r="I110" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L110" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B111" t="s">
         <v>1062</v>
       </c>
       <c r="C111" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D111" t="s">
         <v>38</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H111" t="s">
         <v>3</v>
       </c>
       <c r="I111" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L111" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B112" t="s">
         <v>1062</v>
       </c>
       <c r="C112" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D112" t="s">
         <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H112" t="s">
         <v>3</v>
       </c>
       <c r="I112" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L112" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B113" t="s">
-        <v>38</v>
+        <v>1062</v>
       </c>
       <c r="C113" t="s">
-        <v>41</v>
+        <v>1061</v>
       </c>
       <c r="D113" t="s">
         <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H113" t="s">
         <v>3</v>
       </c>
-      <c r="K113" t="s">
-        <v>42</v>
+      <c r="I113" t="s">
+        <v>151</v>
+      </c>
+      <c r="L113" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B114" t="s">
-        <v>1062</v>
+        <v>38</v>
       </c>
       <c r="C114" t="s">
-        <v>1063</v>
+        <v>41</v>
       </c>
       <c r="D114" t="s">
         <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H114" t="s">
         <v>3</v>
       </c>
-      <c r="I114" t="s">
-        <v>154</v>
-      </c>
-      <c r="L114" t="s">
-        <v>864</v>
+      <c r="K114" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B115" t="s">
         <v>1062</v>
       </c>
       <c r="C115" t="s">
-        <v>1052</v>
+        <v>1063</v>
       </c>
       <c r="D115" t="s">
         <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="H115" t="s">
         <v>3</v>
       </c>
       <c r="I115" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L115" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B116" t="s">
         <v>1062</v>
       </c>
       <c r="C116" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="D116" t="s">
         <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="H116" t="s">
         <v>3</v>
       </c>
       <c r="I116" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L116" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B117" t="s">
         <v>1062</v>
       </c>
       <c r="C117" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D117" t="s">
         <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H117" t="s">
         <v>3</v>
       </c>
       <c r="I117" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L117" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B118" t="s">
         <v>1062</v>
       </c>
       <c r="C118" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D118" t="s">
         <v>38</v>
       </c>
       <c r="F118" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H118" t="s">
         <v>3</v>
       </c>
       <c r="I118" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L118" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B119" t="s">
         <v>1062</v>
       </c>
       <c r="C119" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D119" t="s">
         <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H119" t="s">
         <v>3</v>
       </c>
       <c r="I119" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L119" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B120" t="s">
         <v>1062</v>
       </c>
       <c r="C120" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D120" t="s">
         <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H120" t="s">
         <v>3</v>
       </c>
       <c r="I120" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L120" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B121" t="s">
-        <v>168</v>
+        <v>1062</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>1068</v>
       </c>
       <c r="D121" t="s">
-        <v>168</v>
-      </c>
-      <c r="E121" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="H121" t="s">
         <v>3</v>
       </c>
       <c r="I121" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L121" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>359</v>
+        <v>167</v>
       </c>
       <c r="B122" t="s">
-        <v>1114</v>
+        <v>168</v>
       </c>
       <c r="C122" t="s">
-        <v>1115</v>
+        <v>16</v>
       </c>
       <c r="D122" t="s">
         <v>168</v>
       </c>
       <c r="E122" t="s">
-        <v>794</v>
+        <v>169</v>
       </c>
       <c r="F122" t="s">
-        <v>168</v>
-      </c>
-      <c r="G122" t="s">
-        <v>797</v>
+        <v>16</v>
       </c>
       <c r="H122" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I122" t="s">
-        <v>360</v>
-      </c>
-      <c r="J122" t="s">
-        <v>361</v>
+        <v>170</v>
       </c>
       <c r="L122" t="s">
-        <v>1038</v>
+        <v>871</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>171</v>
+        <v>359</v>
       </c>
       <c r="B123" t="s">
-        <v>1080</v>
+        <v>1114</v>
       </c>
       <c r="C123" t="s">
-        <v>1052</v>
+        <v>1115</v>
       </c>
       <c r="D123" t="s">
         <v>168</v>
       </c>
+      <c r="E123" t="s">
+        <v>794</v>
+      </c>
       <c r="F123" t="s">
-        <v>16</v>
+        <v>168</v>
+      </c>
+      <c r="G123" t="s">
+        <v>797</v>
       </c>
       <c r="H123" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I123" t="s">
-        <v>172</v>
+        <v>360</v>
+      </c>
+      <c r="J123" t="s">
+        <v>361</v>
       </c>
       <c r="L123" t="s">
-        <v>1201</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B124" t="s">
-        <v>168</v>
+        <v>1080</v>
       </c>
       <c r="C124" t="s">
-        <v>174</v>
+        <v>1052</v>
       </c>
       <c r="D124" t="s">
         <v>168</v>
       </c>
       <c r="F124" t="s">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="H124" t="s">
-        <v>6</v>
-      </c>
-      <c r="K124" t="s">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="I124" t="s">
+        <v>172</v>
       </c>
       <c r="L124" t="s">
-        <v>872</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="B125" t="s">
-        <v>793</v>
+        <v>168</v>
       </c>
       <c r="C125" t="s">
-        <v>1052</v>
+        <v>174</v>
       </c>
       <c r="D125" t="s">
-        <v>176</v>
-      </c>
-      <c r="E125" t="s">
-        <v>793</v>
+        <v>168</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="H125" t="s">
-        <v>3</v>
-      </c>
-      <c r="I125" t="s">
-        <v>209</v>
+        <v>6</v>
+      </c>
+      <c r="K125" t="s">
+        <v>42</v>
       </c>
       <c r="L125" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="B126" t="s">
-        <v>1094</v>
+        <v>793</v>
       </c>
       <c r="C126" t="s">
-        <v>1095</v>
+        <v>1052</v>
       </c>
       <c r="D126" t="s">
         <v>176</v>
       </c>
+      <c r="E126" t="s">
+        <v>793</v>
+      </c>
       <c r="F126" t="s">
         <v>16</v>
       </c>
-      <c r="G126" t="s">
-        <v>2</v>
-      </c>
       <c r="H126" t="s">
         <v>3</v>
       </c>
       <c r="I126" t="s">
-        <v>242</v>
+        <v>209</v>
+      </c>
+      <c r="L126" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>175</v>
+        <v>241</v>
       </c>
       <c r="B127" t="s">
-        <v>1081</v>
+        <v>1094</v>
       </c>
       <c r="C127" t="s">
-        <v>1052</v>
+        <v>1095</v>
       </c>
       <c r="D127" t="s">
         <v>176</v>
@@ -8302,51 +8326,51 @@
       <c r="F127" t="s">
         <v>16</v>
       </c>
+      <c r="G127" t="s">
+        <v>2</v>
+      </c>
       <c r="H127" t="s">
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>177</v>
-      </c>
-      <c r="L127" t="s">
-        <v>873</v>
+        <v>242</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B128" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C128" t="s">
-        <v>1083</v>
+        <v>1052</v>
       </c>
       <c r="D128" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F128" t="s">
         <v>16</v>
       </c>
-      <c r="G128" t="s">
-        <v>2</v>
-      </c>
       <c r="H128" t="s">
         <v>3</v>
       </c>
       <c r="I128" t="s">
-        <v>180</v>
+        <v>177</v>
+      </c>
+      <c r="L128" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B129" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C129" t="s">
-        <v>1052</v>
+        <v>1083</v>
       </c>
       <c r="D129" t="s">
         <v>179</v>
@@ -8354,109 +8378,112 @@
       <c r="F129" t="s">
         <v>16</v>
       </c>
+      <c r="G129" t="s">
+        <v>2</v>
+      </c>
       <c r="H129" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I129" t="s">
-        <v>182</v>
-      </c>
-      <c r="J129" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B130" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C130" t="s">
-        <v>1086</v>
+        <v>1052</v>
       </c>
       <c r="D130" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F130" t="s">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="H130" t="s">
         <v>6</v>
       </c>
       <c r="I130" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="J130" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B131" t="s">
         <v>1085</v>
       </c>
       <c r="C131" t="s">
-        <v>1052</v>
+        <v>1086</v>
       </c>
       <c r="D131" t="s">
         <v>185</v>
       </c>
       <c r="F131" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="H131" t="s">
         <v>6</v>
       </c>
       <c r="I131" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J131" t="s">
-        <v>191</v>
-      </c>
-      <c r="L131" t="s">
-        <v>874</v>
+        <v>188</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B132" t="s">
-        <v>41</v>
+        <v>1085</v>
       </c>
       <c r="C132" t="s">
-        <v>13</v>
+        <v>1052</v>
       </c>
       <c r="D132" t="s">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="F132" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H132" t="s">
-        <v>3</v>
-      </c>
-      <c r="K132" t="s">
-        <v>42</v>
+        <v>6</v>
+      </c>
+      <c r="I132" t="s">
+        <v>190</v>
+      </c>
+      <c r="J132" t="s">
+        <v>191</v>
+      </c>
+      <c r="L132" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B133" t="s">
         <v>41</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D133" t="s">
         <v>41</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H133" t="s">
         <v>3</v>
@@ -8467,19 +8494,19 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B134" t="s">
         <v>41</v>
       </c>
       <c r="C134" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D134" t="s">
         <v>41</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H134" t="s">
         <v>3</v>
@@ -8490,19 +8517,19 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B135" t="s">
         <v>41</v>
       </c>
       <c r="C135" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D135" t="s">
         <v>41</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H135" t="s">
         <v>3</v>
@@ -8513,19 +8540,19 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B136" t="s">
         <v>41</v>
       </c>
       <c r="C136" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D136" t="s">
         <v>41</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H136" t="s">
         <v>3</v>
@@ -8536,19 +8563,19 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B137" t="s">
         <v>41</v>
       </c>
       <c r="C137" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D137" t="s">
         <v>41</v>
       </c>
       <c r="F137" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H137" t="s">
         <v>3</v>
@@ -8559,19 +8586,19 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B138" t="s">
         <v>41</v>
       </c>
       <c r="C138" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D138" t="s">
         <v>41</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="H138" t="s">
         <v>3</v>
@@ -8582,19 +8609,19 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B139" t="s">
         <v>41</v>
       </c>
       <c r="C139" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D139" t="s">
         <v>41</v>
       </c>
       <c r="F139" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="H139" t="s">
         <v>3</v>
@@ -8605,19 +8632,19 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B140" t="s">
         <v>41</v>
       </c>
       <c r="C140" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D140" t="s">
         <v>41</v>
       </c>
       <c r="F140" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H140" t="s">
         <v>3</v>
@@ -8628,19 +8655,19 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B141" t="s">
         <v>41</v>
       </c>
       <c r="C141" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D141" t="s">
         <v>41</v>
       </c>
       <c r="F141" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H141" t="s">
         <v>3</v>
@@ -8651,19 +8678,19 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B142" t="s">
         <v>41</v>
       </c>
       <c r="C142" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D142" t="s">
         <v>41</v>
       </c>
       <c r="F142" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H142" t="s">
         <v>3</v>
@@ -8674,19 +8701,19 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B143" t="s">
         <v>41</v>
       </c>
       <c r="C143" t="s">
-        <v>1068</v>
+        <v>58</v>
       </c>
       <c r="D143" t="s">
         <v>41</v>
       </c>
       <c r="F143" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H143" t="s">
         <v>3</v>
@@ -8697,42 +8724,36 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>480</v>
+        <v>207</v>
       </c>
       <c r="B144" t="s">
-        <v>1134</v>
+        <v>41</v>
       </c>
       <c r="C144" t="s">
-        <v>1094</v>
+        <v>1068</v>
       </c>
       <c r="D144" t="s">
-        <v>799</v>
-      </c>
-      <c r="E144" t="s">
-        <v>464</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>176</v>
+        <v>41</v>
+      </c>
+      <c r="F144" t="s">
+        <v>61</v>
       </c>
       <c r="H144" t="s">
         <v>3</v>
       </c>
-      <c r="I144" t="s">
-        <v>481</v>
-      </c>
-      <c r="L144" t="s">
-        <v>1038</v>
+      <c r="K144" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B145" t="s">
         <v>1134</v>
       </c>
       <c r="C145" t="s">
-        <v>1135</v>
+        <v>1094</v>
       </c>
       <c r="D145" t="s">
         <v>799</v>
@@ -8740,14 +8761,14 @@
       <c r="E145" t="s">
         <v>464</v>
       </c>
-      <c r="F145" t="s">
-        <v>186</v>
+      <c r="F145" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="H145" t="s">
         <v>3</v>
       </c>
       <c r="I145" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L145" t="s">
         <v>1038</v>
@@ -8755,10 +8776,10 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>654</v>
+        <v>478</v>
       </c>
       <c r="B146" t="s">
-        <v>1168</v>
+        <v>1134</v>
       </c>
       <c r="C146" t="s">
         <v>1135</v>
@@ -8767,7 +8788,7 @@
         <v>799</v>
       </c>
       <c r="E146" t="s">
-        <v>642</v>
+        <v>464</v>
       </c>
       <c r="F146" t="s">
         <v>186</v>
@@ -8776,7 +8797,7 @@
         <v>3</v>
       </c>
       <c r="I146" t="s">
-        <v>655</v>
+        <v>479</v>
       </c>
       <c r="L146" t="s">
         <v>1038</v>
@@ -8784,10 +8805,10 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>679</v>
+        <v>654</v>
       </c>
       <c r="B147" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="C147" t="s">
         <v>1135</v>
@@ -8796,7 +8817,7 @@
         <v>799</v>
       </c>
       <c r="E147" t="s">
-        <v>667</v>
+        <v>642</v>
       </c>
       <c r="F147" t="s">
         <v>186</v>
@@ -8805,7 +8826,7 @@
         <v>3</v>
       </c>
       <c r="I147" t="s">
-        <v>680</v>
+        <v>655</v>
       </c>
       <c r="L147" t="s">
         <v>1038</v>
@@ -8813,10 +8834,10 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>723</v>
+        <v>679</v>
       </c>
       <c r="B148" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="C148" t="s">
         <v>1135</v>
@@ -8825,7 +8846,7 @@
         <v>799</v>
       </c>
       <c r="E148" t="s">
-        <v>711</v>
+        <v>667</v>
       </c>
       <c r="F148" t="s">
         <v>186</v>
@@ -8834,7 +8855,7 @@
         <v>3</v>
       </c>
       <c r="I148" t="s">
-        <v>724</v>
+        <v>680</v>
       </c>
       <c r="L148" t="s">
         <v>1038</v>
@@ -8842,45 +8863,42 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>534</v>
+        <v>723</v>
       </c>
       <c r="B149" t="s">
-        <v>1144</v>
+        <v>1180</v>
       </c>
       <c r="C149" t="s">
-        <v>1044</v>
+        <v>1135</v>
       </c>
       <c r="D149" t="s">
         <v>799</v>
       </c>
       <c r="E149" t="s">
-        <v>808</v>
+        <v>711</v>
       </c>
       <c r="F149" t="s">
-        <v>259</v>
-      </c>
-      <c r="G149" t="s">
-        <v>1</v>
+        <v>186</v>
       </c>
       <c r="H149" t="s">
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>535</v>
+        <v>724</v>
       </c>
       <c r="L149" t="s">
-        <v>972</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B150" t="s">
         <v>1144</v>
       </c>
       <c r="C150" t="s">
-        <v>1145</v>
+        <v>1044</v>
       </c>
       <c r="D150" t="s">
         <v>799</v>
@@ -8888,31 +8906,31 @@
       <c r="E150" t="s">
         <v>808</v>
       </c>
-      <c r="F150" s="2" t="s">
-        <v>168</v>
+      <c r="F150" t="s">
+        <v>259</v>
       </c>
       <c r="G150" t="s">
-        <v>820</v>
+        <v>1</v>
       </c>
       <c r="H150" t="s">
         <v>3</v>
       </c>
       <c r="I150" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L150" t="s">
-        <v>1038</v>
+        <v>972</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B151" t="s">
         <v>1144</v>
       </c>
       <c r="C151" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D151" t="s">
         <v>799</v>
@@ -8920,31 +8938,31 @@
       <c r="E151" t="s">
         <v>808</v>
       </c>
-      <c r="F151" t="s">
-        <v>799</v>
+      <c r="F151" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="G151" t="s">
-        <v>808</v>
+        <v>820</v>
       </c>
       <c r="H151" t="s">
         <v>3</v>
       </c>
       <c r="I151" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="L151" t="s">
-        <v>973</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B152" t="s">
         <v>1144</v>
       </c>
       <c r="C152" t="s">
-        <v>1135</v>
+        <v>1147</v>
       </c>
       <c r="D152" t="s">
         <v>799</v>
@@ -8953,453 +8971,456 @@
         <v>808</v>
       </c>
       <c r="F152" t="s">
-        <v>186</v>
+        <v>799</v>
+      </c>
+      <c r="G152" t="s">
+        <v>808</v>
       </c>
       <c r="H152" t="s">
         <v>3</v>
       </c>
       <c r="I152" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L152" t="s">
-        <v>1038</v>
+        <v>973</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>192</v>
+        <v>538</v>
       </c>
       <c r="B153" t="s">
-        <v>193</v>
+        <v>1144</v>
       </c>
       <c r="C153" t="s">
-        <v>1087</v>
+        <v>1135</v>
       </c>
       <c r="D153" t="s">
         <v>799</v>
       </c>
+      <c r="E153" t="s">
+        <v>808</v>
+      </c>
       <c r="F153" t="s">
-        <v>16</v>
-      </c>
-      <c r="G153" t="s">
-        <v>802</v>
+        <v>186</v>
       </c>
       <c r="H153" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I153" t="s">
-        <v>194</v>
-      </c>
-      <c r="J153" t="s">
-        <v>195</v>
+        <v>539</v>
+      </c>
+      <c r="L153" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="B154" t="s">
-        <v>1063</v>
+        <v>193</v>
       </c>
       <c r="C154" t="s">
-        <v>1051</v>
+        <v>1087</v>
       </c>
       <c r="D154" t="s">
-        <v>44</v>
+        <v>799</v>
       </c>
       <c r="F154" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G154" t="s">
+        <v>802</v>
       </c>
       <c r="H154" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I154" t="s">
-        <v>211</v>
-      </c>
-      <c r="L154" t="s">
-        <v>875</v>
+        <v>194</v>
+      </c>
+      <c r="J154" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B155" t="s">
         <v>1063</v>
       </c>
       <c r="C155" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="D155" t="s">
         <v>44</v>
       </c>
       <c r="F155" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H155" t="s">
         <v>3</v>
       </c>
       <c r="I155" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L155" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B156" t="s">
         <v>1063</v>
       </c>
       <c r="C156" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D156" t="s">
         <v>44</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H156" t="s">
         <v>3</v>
       </c>
       <c r="I156" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L156" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B157" t="s">
         <v>1063</v>
       </c>
       <c r="C157" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D157" t="s">
         <v>44</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H157" t="s">
         <v>3</v>
       </c>
       <c r="I157" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L157" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B158" t="s">
         <v>1063</v>
       </c>
       <c r="C158" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D158" t="s">
         <v>44</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H158" t="s">
         <v>3</v>
       </c>
       <c r="I158" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L158" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B159" t="s">
-        <v>44</v>
+        <v>1063</v>
       </c>
       <c r="C159" t="s">
-        <v>41</v>
+        <v>1062</v>
       </c>
       <c r="D159" t="s">
         <v>44</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H159" t="s">
         <v>3</v>
       </c>
-      <c r="K159" t="s">
-        <v>42</v>
+      <c r="I159" t="s">
+        <v>219</v>
+      </c>
+      <c r="L159" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B160" t="s">
-        <v>1063</v>
+        <v>44</v>
       </c>
       <c r="C160" t="s">
-        <v>1052</v>
+        <v>41</v>
       </c>
       <c r="D160" t="s">
         <v>44</v>
       </c>
       <c r="F160" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H160" t="s">
         <v>3</v>
       </c>
-      <c r="I160" t="s">
-        <v>222</v>
-      </c>
-      <c r="L160" t="s">
-        <v>880</v>
+      <c r="K160" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B161" t="s">
         <v>1063</v>
       </c>
       <c r="C161" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="D161" t="s">
         <v>44</v>
       </c>
       <c r="F161" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="H161" t="s">
         <v>3</v>
       </c>
       <c r="I161" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L161" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B162" t="s">
         <v>1063</v>
       </c>
       <c r="C162" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D162" t="s">
         <v>44</v>
       </c>
       <c r="F162" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H162" t="s">
         <v>3</v>
       </c>
       <c r="I162" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L162" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B163" t="s">
         <v>1063</v>
       </c>
       <c r="C163" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D163" t="s">
         <v>44</v>
       </c>
       <c r="F163" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H163" t="s">
         <v>3</v>
       </c>
       <c r="I163" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L163" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B164" t="s">
         <v>1063</v>
       </c>
       <c r="C164" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D164" t="s">
         <v>44</v>
       </c>
       <c r="F164" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H164" t="s">
         <v>3</v>
       </c>
       <c r="I164" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L164" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B165" t="s">
         <v>1063</v>
       </c>
       <c r="C165" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D165" t="s">
         <v>44</v>
       </c>
       <c r="F165" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H165" t="s">
         <v>3</v>
       </c>
       <c r="I165" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L165" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>97</v>
+        <v>231</v>
       </c>
       <c r="B166" t="s">
-        <v>98</v>
+        <v>1063</v>
       </c>
       <c r="C166" t="s">
-        <v>99</v>
+        <v>1068</v>
       </c>
       <c r="D166" t="s">
-        <v>186</v>
-      </c>
-      <c r="E166" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="F166" t="s">
-        <v>186</v>
-      </c>
-      <c r="G166" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="H166" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I166" t="s">
-        <v>100</v>
-      </c>
-      <c r="J166" t="s">
-        <v>101</v>
+        <v>232</v>
+      </c>
+      <c r="L166" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>233</v>
+        <v>97</v>
       </c>
       <c r="B167" t="s">
-        <v>1088</v>
+        <v>98</v>
       </c>
       <c r="C167" t="s">
-        <v>1089</v>
+        <v>99</v>
       </c>
       <c r="D167" t="s">
         <v>186</v>
       </c>
-      <c r="E167" s="4"/>
+      <c r="E167" t="s">
+        <v>98</v>
+      </c>
       <c r="F167" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="G167" t="s">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="H167" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I167" t="s">
-        <v>234</v>
+        <v>100</v>
+      </c>
+      <c r="J167" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>593</v>
+        <v>233</v>
       </c>
       <c r="B168" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C168" t="s">
-        <v>1108</v>
+        <v>1089</v>
       </c>
       <c r="D168" t="s">
-        <v>236</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="E168" s="4"/>
       <c r="F168" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G168" t="s">
-        <v>349</v>
+        <v>2</v>
       </c>
       <c r="H168" t="s">
         <v>3</v>
       </c>
       <c r="I168" t="s">
-        <v>594</v>
-      </c>
-      <c r="L168" t="s">
-        <v>989</v>
+        <v>234</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="B169" t="s">
         <v>1090</v>
       </c>
       <c r="C169" t="s">
-        <v>1049</v>
+        <v>1108</v>
       </c>
       <c r="D169" t="s">
         <v>236</v>
@@ -9407,138 +9428,138 @@
       <c r="F169" t="s">
         <v>13</v>
       </c>
+      <c r="G169" t="s">
+        <v>349</v>
+      </c>
       <c r="H169" t="s">
         <v>3</v>
       </c>
       <c r="I169" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="L169" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B170" t="s">
         <v>1090</v>
       </c>
       <c r="C170" t="s">
-        <v>1127</v>
+        <v>1049</v>
       </c>
       <c r="D170" t="s">
         <v>236</v>
       </c>
       <c r="F170" t="s">
-        <v>801</v>
+        <v>13</v>
       </c>
       <c r="H170" t="s">
         <v>3</v>
       </c>
       <c r="I170" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="L170" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B171" t="s">
         <v>1090</v>
       </c>
       <c r="C171" t="s">
-        <v>1044</v>
+        <v>1127</v>
       </c>
       <c r="D171" t="s">
         <v>236</v>
       </c>
       <c r="F171" t="s">
-        <v>259</v>
-      </c>
-      <c r="G171" t="s">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="H171" t="s">
         <v>3</v>
       </c>
       <c r="I171" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="L171" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B172" t="s">
         <v>1090</v>
       </c>
       <c r="C172" t="s">
-        <v>1157</v>
+        <v>1044</v>
       </c>
       <c r="D172" t="s">
         <v>236</v>
       </c>
       <c r="F172" t="s">
-        <v>799</v>
+        <v>259</v>
       </c>
       <c r="G172" t="s">
-        <v>236</v>
+        <v>1</v>
       </c>
       <c r="H172" t="s">
         <v>3</v>
       </c>
       <c r="I172" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="L172" t="s">
-        <v>1038</v>
+        <v>986</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B173" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C173" t="s">
-        <v>1108</v>
+        <v>1157</v>
       </c>
       <c r="D173" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F173" t="s">
-        <v>13</v>
+        <v>799</v>
       </c>
       <c r="G173" t="s">
-        <v>349</v>
+        <v>236</v>
       </c>
       <c r="H173" t="s">
         <v>3</v>
       </c>
       <c r="I173" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="L173" t="s">
-        <v>993</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B174" t="s">
         <v>1092</v>
       </c>
       <c r="C174" t="s">
-        <v>1049</v>
+        <v>1108</v>
       </c>
       <c r="D174" t="s">
         <v>239</v>
@@ -9546,205 +9567,202 @@
       <c r="F174" t="s">
         <v>13</v>
       </c>
+      <c r="G174" t="s">
+        <v>349</v>
+      </c>
       <c r="H174" t="s">
         <v>3</v>
       </c>
       <c r="I174" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="L174" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B175" t="s">
         <v>1092</v>
       </c>
       <c r="C175" t="s">
-        <v>1127</v>
+        <v>1049</v>
       </c>
       <c r="D175" t="s">
         <v>239</v>
       </c>
       <c r="F175" t="s">
-        <v>801</v>
+        <v>13</v>
       </c>
       <c r="H175" t="s">
         <v>3</v>
       </c>
       <c r="I175" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="L175" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="B176" t="s">
         <v>1092</v>
       </c>
       <c r="C176" t="s">
-        <v>1044</v>
+        <v>1127</v>
       </c>
       <c r="D176" t="s">
         <v>239</v>
       </c>
       <c r="F176" t="s">
-        <v>259</v>
-      </c>
-      <c r="G176" t="s">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="H176" t="s">
         <v>3</v>
       </c>
       <c r="I176" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="L176" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="B177" t="s">
         <v>1092</v>
       </c>
       <c r="C177" t="s">
-        <v>1158</v>
+        <v>1044</v>
       </c>
       <c r="D177" t="s">
         <v>239</v>
       </c>
       <c r="F177" t="s">
-        <v>799</v>
+        <v>259</v>
       </c>
       <c r="G177" t="s">
-        <v>239</v>
+        <v>1</v>
       </c>
       <c r="H177" t="s">
         <v>3</v>
       </c>
       <c r="I177" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="L177" t="s">
-        <v>1038</v>
+        <v>990</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>5</v>
+        <v>605</v>
       </c>
       <c r="B178" t="s">
-        <v>1046</v>
+        <v>1092</v>
       </c>
       <c r="C178" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>826</v>
+        <v>1158</v>
+      </c>
+      <c r="D178" t="s">
+        <v>239</v>
+      </c>
+      <c r="F178" t="s">
+        <v>799</v>
+      </c>
+      <c r="G178" t="s">
+        <v>239</v>
       </c>
       <c r="H178" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I178" t="s">
-        <v>7</v>
-      </c>
-      <c r="J178" t="s">
-        <v>8</v>
+        <v>606</v>
+      </c>
+      <c r="L178" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B179" t="s">
         <v>1046</v>
       </c>
       <c r="C179" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H179" t="s">
         <v>6</v>
       </c>
       <c r="I179" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J179" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>459</v>
+        <v>9</v>
       </c>
       <c r="B180" t="s">
-        <v>1130</v>
+        <v>1046</v>
       </c>
       <c r="C180" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D180" t="s">
-        <v>16</v>
-      </c>
-      <c r="E180" t="s">
-        <v>451</v>
-      </c>
-      <c r="F180" t="s">
-        <v>13</v>
-      </c>
-      <c r="G180" t="s">
-        <v>349</v>
+        <v>1048</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>825</v>
       </c>
       <c r="H180" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I180" t="s">
-        <v>460</v>
-      </c>
-      <c r="L180" t="s">
-        <v>949</v>
+        <v>10</v>
+      </c>
+      <c r="J180" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B181" t="s">
         <v>1130</v>
       </c>
       <c r="C181" t="s">
-        <v>1049</v>
+        <v>1108</v>
       </c>
       <c r="D181" t="s">
         <v>16</v>
@@ -9755,25 +9773,28 @@
       <c r="F181" t="s">
         <v>13</v>
       </c>
+      <c r="G181" t="s">
+        <v>349</v>
+      </c>
       <c r="H181" t="s">
         <v>3</v>
       </c>
       <c r="I181" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="L181" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B182" t="s">
         <v>1130</v>
       </c>
       <c r="C182" t="s">
-        <v>1127</v>
+        <v>1049</v>
       </c>
       <c r="D182" t="s">
         <v>16</v>
@@ -9782,27 +9803,27 @@
         <v>451</v>
       </c>
       <c r="F182" t="s">
-        <v>801</v>
+        <v>13</v>
       </c>
       <c r="H182" t="s">
         <v>3</v>
       </c>
       <c r="I182" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="L182" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B183" t="s">
         <v>1130</v>
       </c>
       <c r="C183" t="s">
-        <v>1044</v>
+        <v>1127</v>
       </c>
       <c r="D183" t="s">
         <v>16</v>
@@ -9811,30 +9832,27 @@
         <v>451</v>
       </c>
       <c r="F183" t="s">
-        <v>259</v>
-      </c>
-      <c r="G183" t="s">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="H183" t="s">
         <v>3</v>
       </c>
       <c r="I183" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="L183" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B184" t="s">
         <v>1130</v>
       </c>
       <c r="C184" t="s">
-        <v>1131</v>
+        <v>1044</v>
       </c>
       <c r="D184" t="s">
         <v>16</v>
@@ -9843,62 +9861,62 @@
         <v>451</v>
       </c>
       <c r="F184" t="s">
-        <v>799</v>
+        <v>259</v>
       </c>
       <c r="G184" t="s">
-        <v>451</v>
+        <v>1</v>
       </c>
       <c r="H184" t="s">
         <v>3</v>
       </c>
       <c r="I184" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L184" t="s">
-        <v>1038</v>
+        <v>946</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="B185" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="C185" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D185" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D185" t="s">
         <v>16</v>
       </c>
       <c r="E185" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="F185" t="s">
-        <v>13</v>
+        <v>799</v>
       </c>
       <c r="G185" t="s">
-        <v>349</v>
+        <v>451</v>
       </c>
       <c r="H185" t="s">
         <v>3</v>
       </c>
       <c r="I185" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="L185" t="s">
-        <v>954</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B186" t="s">
         <v>1133</v>
       </c>
       <c r="C186" t="s">
-        <v>1049</v>
+        <v>1108</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>16</v>
@@ -9909,25 +9927,28 @@
       <c r="F186" t="s">
         <v>13</v>
       </c>
+      <c r="G186" t="s">
+        <v>349</v>
+      </c>
       <c r="H186" t="s">
         <v>3</v>
       </c>
       <c r="I186" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="L186" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B187" t="s">
         <v>1133</v>
       </c>
       <c r="C187" t="s">
-        <v>1127</v>
+        <v>1049</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>16</v>
@@ -9935,28 +9956,28 @@
       <c r="E187" t="s">
         <v>464</v>
       </c>
-      <c r="F187" s="2" t="s">
-        <v>801</v>
+      <c r="F187" t="s">
+        <v>13</v>
       </c>
       <c r="H187" t="s">
         <v>3</v>
       </c>
       <c r="I187" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L187" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B188" t="s">
         <v>1133</v>
       </c>
       <c r="C188" t="s">
-        <v>1044</v>
+        <v>1127</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>16</v>
@@ -9964,31 +9985,28 @@
       <c r="E188" t="s">
         <v>464</v>
       </c>
-      <c r="F188" t="s">
-        <v>259</v>
-      </c>
-      <c r="G188" t="s">
-        <v>1</v>
+      <c r="F188" s="2" t="s">
+        <v>801</v>
       </c>
       <c r="H188" t="s">
         <v>3</v>
       </c>
       <c r="I188" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="L188" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="B189" t="s">
         <v>1133</v>
       </c>
       <c r="C189" t="s">
-        <v>1094</v>
+        <v>1044</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>16</v>
@@ -9996,28 +10014,31 @@
       <c r="E189" t="s">
         <v>464</v>
       </c>
-      <c r="F189" s="2" t="s">
-        <v>176</v>
+      <c r="F189" t="s">
+        <v>259</v>
+      </c>
+      <c r="G189" t="s">
+        <v>1</v>
       </c>
       <c r="H189" t="s">
         <v>3</v>
       </c>
       <c r="I189" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="L189" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B190" t="s">
         <v>1133</v>
       </c>
       <c r="C190" t="s">
-        <v>1134</v>
+        <v>1094</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>16</v>
@@ -10025,28 +10046,28 @@
       <c r="E190" t="s">
         <v>464</v>
       </c>
-      <c r="F190" t="s">
-        <v>799</v>
+      <c r="F190" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="H190" t="s">
         <v>3</v>
       </c>
       <c r="I190" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="L190" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B191" t="s">
         <v>1133</v>
       </c>
       <c r="C191" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>16</v>
@@ -10055,77 +10076,74 @@
         <v>464</v>
       </c>
       <c r="F191" t="s">
-        <v>186</v>
+        <v>799</v>
       </c>
       <c r="H191" t="s">
         <v>3</v>
       </c>
       <c r="I191" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L191" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>635</v>
+        <v>474</v>
       </c>
       <c r="B192" t="s">
-        <v>1164</v>
+        <v>1133</v>
       </c>
       <c r="C192" t="s">
-        <v>443</v>
-      </c>
-      <c r="D192" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E192" t="s">
-        <v>636</v>
+        <v>464</v>
       </c>
       <c r="F192" t="s">
-        <v>16</v>
-      </c>
-      <c r="G192" t="s">
-        <v>443</v>
+        <v>186</v>
       </c>
       <c r="H192" t="s">
         <v>3</v>
       </c>
       <c r="I192" t="s">
-        <v>637</v>
+        <v>475</v>
       </c>
       <c r="L192" t="s">
-        <v>1038</v>
+        <v>955</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>505</v>
+        <v>635</v>
       </c>
       <c r="B193" t="s">
-        <v>1141</v>
+        <v>1164</v>
       </c>
       <c r="C193" t="s">
-        <v>1108</v>
+        <v>443</v>
       </c>
       <c r="D193" t="s">
         <v>16</v>
       </c>
       <c r="E193" t="s">
-        <v>497</v>
+        <v>636</v>
       </c>
       <c r="F193" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G193" t="s">
-        <v>349</v>
+        <v>443</v>
       </c>
       <c r="H193" t="s">
         <v>3</v>
       </c>
       <c r="I193" t="s">
-        <v>506</v>
+        <v>637</v>
       </c>
       <c r="L193" t="s">
         <v>1038</v>
@@ -10133,13 +10151,13 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B194" t="s">
         <v>1141</v>
       </c>
       <c r="C194" t="s">
-        <v>1049</v>
+        <v>1108</v>
       </c>
       <c r="D194" t="s">
         <v>16</v>
@@ -10150,25 +10168,28 @@
       <c r="F194" t="s">
         <v>13</v>
       </c>
+      <c r="G194" t="s">
+        <v>349</v>
+      </c>
       <c r="H194" t="s">
         <v>3</v>
       </c>
       <c r="I194" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="L194" t="s">
-        <v>958</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B195" t="s">
         <v>1141</v>
       </c>
       <c r="C195" t="s">
-        <v>1127</v>
+        <v>1049</v>
       </c>
       <c r="D195" t="s">
         <v>16</v>
@@ -10176,28 +10197,28 @@
       <c r="E195" t="s">
         <v>497</v>
       </c>
-      <c r="F195" s="2" t="s">
-        <v>801</v>
+      <c r="F195" t="s">
+        <v>13</v>
       </c>
       <c r="H195" t="s">
         <v>3</v>
       </c>
       <c r="I195" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="L195" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B196" t="s">
         <v>1141</v>
       </c>
       <c r="C196" t="s">
-        <v>1044</v>
+        <v>1127</v>
       </c>
       <c r="D196" t="s">
         <v>16</v>
@@ -10205,31 +10226,28 @@
       <c r="E196" t="s">
         <v>497</v>
       </c>
-      <c r="F196" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="G196" s="3" t="s">
-        <v>1</v>
+      <c r="F196" s="2" t="s">
+        <v>801</v>
       </c>
       <c r="H196" t="s">
         <v>3</v>
       </c>
       <c r="I196" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="L196" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B197" t="s">
         <v>1141</v>
       </c>
       <c r="C197" t="s">
-        <v>1142</v>
+        <v>1044</v>
       </c>
       <c r="D197" t="s">
         <v>16</v>
@@ -10237,81 +10255,81 @@
       <c r="E197" t="s">
         <v>497</v>
       </c>
-      <c r="F197" t="s">
-        <v>799</v>
-      </c>
-      <c r="G197" t="s">
-        <v>497</v>
+      <c r="F197" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="H197" t="s">
         <v>3</v>
       </c>
       <c r="I197" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="L197" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="B198" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="C198" t="s">
-        <v>244</v>
+        <v>1142</v>
       </c>
       <c r="D198" t="s">
         <v>16</v>
       </c>
       <c r="E198" t="s">
-        <v>486</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>16</v>
+        <v>497</v>
+      </c>
+      <c r="F198" t="s">
+        <v>799</v>
       </c>
       <c r="G198" t="s">
-        <v>244</v>
+        <v>497</v>
       </c>
       <c r="H198" t="s">
         <v>3</v>
       </c>
       <c r="I198" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="L198" t="s">
-        <v>1038</v>
+        <v>960</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>544</v>
+        <v>485</v>
       </c>
       <c r="B199" t="s">
-        <v>1149</v>
+        <v>1138</v>
       </c>
       <c r="C199" t="s">
-        <v>1150</v>
+        <v>244</v>
       </c>
       <c r="D199" t="s">
         <v>16</v>
       </c>
       <c r="E199" t="s">
-        <v>545</v>
+        <v>486</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G199" t="s">
-        <v>818</v>
+        <v>244</v>
       </c>
       <c r="H199" t="s">
         <v>3</v>
       </c>
       <c r="I199" t="s">
-        <v>546</v>
+        <v>487</v>
       </c>
       <c r="L199" t="s">
         <v>1038</v>
@@ -10319,45 +10337,45 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>574</v>
+        <v>544</v>
       </c>
       <c r="B200" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C200" t="s">
-        <v>1108</v>
+        <v>1150</v>
       </c>
       <c r="D200" t="s">
         <v>16</v>
       </c>
       <c r="E200" t="s">
-        <v>568</v>
-      </c>
-      <c r="F200" t="s">
-        <v>13</v>
+        <v>545</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="G200" t="s">
-        <v>349</v>
+        <v>818</v>
       </c>
       <c r="H200" t="s">
         <v>3</v>
       </c>
       <c r="I200" t="s">
-        <v>575</v>
+        <v>546</v>
       </c>
       <c r="L200" t="s">
-        <v>985</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B201" t="s">
         <v>1154</v>
       </c>
       <c r="C201" t="s">
-        <v>1049</v>
+        <v>1108</v>
       </c>
       <c r="D201" t="s">
         <v>16</v>
@@ -10368,25 +10386,28 @@
       <c r="F201" t="s">
         <v>13</v>
       </c>
+      <c r="G201" t="s">
+        <v>349</v>
+      </c>
       <c r="H201" t="s">
         <v>3</v>
       </c>
       <c r="I201" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="L201" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B202" t="s">
         <v>1154</v>
       </c>
       <c r="C202" t="s">
-        <v>1127</v>
+        <v>1049</v>
       </c>
       <c r="D202" t="s">
         <v>16</v>
@@ -10395,27 +10416,27 @@
         <v>568</v>
       </c>
       <c r="F202" t="s">
-        <v>801</v>
+        <v>13</v>
       </c>
       <c r="H202" t="s">
         <v>3</v>
       </c>
       <c r="I202" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L202" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="B203" t="s">
         <v>1154</v>
       </c>
       <c r="C203" t="s">
-        <v>1044</v>
+        <v>1127</v>
       </c>
       <c r="D203" t="s">
         <v>16</v>
@@ -10424,30 +10445,27 @@
         <v>568</v>
       </c>
       <c r="F203" t="s">
-        <v>259</v>
-      </c>
-      <c r="G203" t="s">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="H203" t="s">
         <v>3</v>
       </c>
       <c r="I203" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="L203" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="B204" t="s">
         <v>1154</v>
       </c>
       <c r="C204" t="s">
-        <v>1155</v>
+        <v>1044</v>
       </c>
       <c r="D204" t="s">
         <v>16</v>
@@ -10456,62 +10474,62 @@
         <v>568</v>
       </c>
       <c r="F204" t="s">
+        <v>259</v>
+      </c>
+      <c r="G204" t="s">
+        <v>1</v>
+      </c>
+      <c r="H204" t="s">
+        <v>3</v>
+      </c>
+      <c r="I204" t="s">
+        <v>569</v>
+      </c>
+      <c r="L204" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>576</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D205" t="s">
+        <v>16</v>
+      </c>
+      <c r="E205" t="s">
+        <v>568</v>
+      </c>
+      <c r="F205" t="s">
         <v>799</v>
       </c>
-      <c r="G204" t="s">
+      <c r="G205" t="s">
         <v>568</v>
       </c>
-      <c r="H204" t="s">
-        <v>3</v>
-      </c>
-      <c r="I204" t="s">
+      <c r="H205" t="s">
+        <v>3</v>
+      </c>
+      <c r="I205" t="s">
         <v>577</v>
-      </c>
-      <c r="L204" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>578</v>
-      </c>
-      <c r="B205" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C205" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D205" t="s">
-        <v>16</v>
-      </c>
-      <c r="E205" t="s">
-        <v>579</v>
-      </c>
-      <c r="F205" t="s">
-        <v>259</v>
-      </c>
-      <c r="G205" t="s">
-        <v>1</v>
-      </c>
-      <c r="H205" t="s">
-        <v>3</v>
-      </c>
-      <c r="I205" t="s">
-        <v>580</v>
       </c>
       <c r="L205" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B206" t="s">
         <v>1156</v>
       </c>
       <c r="C206" t="s">
-        <v>1135</v>
+        <v>1044</v>
       </c>
       <c r="D206" t="s">
         <v>16</v>
@@ -10520,13 +10538,16 @@
         <v>579</v>
       </c>
       <c r="F206" t="s">
-        <v>186</v>
+        <v>259</v>
+      </c>
+      <c r="G206" t="s">
+        <v>1</v>
       </c>
       <c r="H206" t="s">
         <v>3</v>
       </c>
       <c r="I206" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="L206" t="s">
         <v>1038</v>
@@ -10534,45 +10555,42 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>733</v>
+        <v>581</v>
       </c>
       <c r="B207" t="s">
-        <v>1183</v>
+        <v>1156</v>
       </c>
       <c r="C207" t="s">
-        <v>1108</v>
+        <v>1135</v>
       </c>
       <c r="D207" t="s">
         <v>16</v>
       </c>
       <c r="E207" t="s">
-        <v>810</v>
+        <v>579</v>
       </c>
       <c r="F207" t="s">
-        <v>13</v>
-      </c>
-      <c r="G207" t="s">
-        <v>349</v>
+        <v>186</v>
       </c>
       <c r="H207" t="s">
         <v>3</v>
       </c>
       <c r="I207" t="s">
-        <v>734</v>
+        <v>582</v>
       </c>
       <c r="L207" t="s">
-        <v>1028</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="B208" t="s">
         <v>1183</v>
       </c>
       <c r="C208" t="s">
-        <v>1049</v>
+        <v>1108</v>
       </c>
       <c r="D208" t="s">
         <v>16</v>
@@ -10583,25 +10601,28 @@
       <c r="F208" t="s">
         <v>13</v>
       </c>
+      <c r="G208" t="s">
+        <v>349</v>
+      </c>
       <c r="H208" t="s">
         <v>3</v>
       </c>
       <c r="I208" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="L208" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B209" t="s">
         <v>1183</v>
       </c>
       <c r="C209" t="s">
-        <v>1127</v>
+        <v>1049</v>
       </c>
       <c r="D209" t="s">
         <v>16</v>
@@ -10610,27 +10631,27 @@
         <v>810</v>
       </c>
       <c r="F209" t="s">
-        <v>801</v>
+        <v>13</v>
       </c>
       <c r="H209" t="s">
         <v>3</v>
       </c>
       <c r="I209" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="L209" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="B210" t="s">
         <v>1183</v>
       </c>
       <c r="C210" t="s">
-        <v>1044</v>
+        <v>1127</v>
       </c>
       <c r="D210" t="s">
         <v>16</v>
@@ -10639,30 +10660,27 @@
         <v>810</v>
       </c>
       <c r="F210" t="s">
-        <v>259</v>
-      </c>
-      <c r="G210" t="s">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="H210" t="s">
         <v>3</v>
       </c>
       <c r="I210" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="L210" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="B211" t="s">
         <v>1183</v>
       </c>
       <c r="C211" t="s">
-        <v>1184</v>
+        <v>1044</v>
       </c>
       <c r="D211" t="s">
         <v>16</v>
@@ -10671,45 +10689,45 @@
         <v>810</v>
       </c>
       <c r="F211" t="s">
-        <v>799</v>
+        <v>259</v>
+      </c>
+      <c r="G211" t="s">
+        <v>1</v>
       </c>
       <c r="H211" t="s">
         <v>3</v>
       </c>
       <c r="I211" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="L211" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>609</v>
+        <v>735</v>
       </c>
       <c r="B212" t="s">
-        <v>1161</v>
+        <v>1183</v>
       </c>
       <c r="C212" t="s">
-        <v>440</v>
+        <v>1184</v>
       </c>
       <c r="D212" t="s">
         <v>16</v>
       </c>
       <c r="E212" t="s">
-        <v>610</v>
+        <v>810</v>
       </c>
       <c r="F212" t="s">
-        <v>16</v>
-      </c>
-      <c r="G212" t="s">
-        <v>440</v>
+        <v>799</v>
       </c>
       <c r="H212" t="s">
         <v>3</v>
       </c>
       <c r="I212" t="s">
-        <v>611</v>
+        <v>736</v>
       </c>
       <c r="L212" t="s">
         <v>1038</v>
@@ -10717,13 +10735,13 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B213" t="s">
         <v>1161</v>
       </c>
       <c r="C213" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D213" t="s">
         <v>16</v>
@@ -10735,13 +10753,13 @@
         <v>16</v>
       </c>
       <c r="G213" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H213" t="s">
         <v>3</v>
       </c>
       <c r="I213" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L213" t="s">
         <v>1038</v>
@@ -10749,13 +10767,13 @@
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B214" t="s">
         <v>1161</v>
       </c>
       <c r="C214" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D214" t="s">
         <v>16</v>
@@ -10767,13 +10785,13 @@
         <v>16</v>
       </c>
       <c r="G214" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H214" t="s">
         <v>3</v>
       </c>
       <c r="I214" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="L214" t="s">
         <v>1038</v>
@@ -10781,28 +10799,31 @@
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>488</v>
+        <v>614</v>
       </c>
       <c r="B215" t="s">
-        <v>1139</v>
+        <v>1161</v>
       </c>
       <c r="C215" t="s">
-        <v>1140</v>
+        <v>446</v>
       </c>
       <c r="D215" t="s">
         <v>16</v>
       </c>
       <c r="E215" t="s">
-        <v>809</v>
+        <v>610</v>
       </c>
       <c r="F215" t="s">
-        <v>799</v>
+        <v>16</v>
+      </c>
+      <c r="G215" t="s">
+        <v>446</v>
       </c>
       <c r="H215" t="s">
         <v>3</v>
       </c>
       <c r="I215" t="s">
-        <v>489</v>
+        <v>615</v>
       </c>
       <c r="L215" t="s">
         <v>1038</v>
@@ -10810,31 +10831,28 @@
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>638</v>
+        <v>488</v>
       </c>
       <c r="B216" t="s">
-        <v>1165</v>
+        <v>1139</v>
       </c>
       <c r="C216" t="s">
-        <v>1166</v>
+        <v>1140</v>
       </c>
       <c r="D216" t="s">
         <v>16</v>
       </c>
       <c r="E216" t="s">
-        <v>639</v>
+        <v>809</v>
       </c>
       <c r="F216" t="s">
         <v>799</v>
       </c>
-      <c r="G216" t="s">
-        <v>639</v>
-      </c>
       <c r="H216" t="s">
         <v>3</v>
       </c>
       <c r="I216" t="s">
-        <v>640</v>
+        <v>489</v>
       </c>
       <c r="L216" t="s">
         <v>1038</v>
@@ -10842,109 +10860,109 @@
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>772</v>
+        <v>638</v>
       </c>
       <c r="B217" t="s">
-        <v>1195</v>
+        <v>1165</v>
       </c>
       <c r="C217" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D217" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D217" t="s">
         <v>16</v>
       </c>
       <c r="E217" t="s">
-        <v>352</v>
+        <v>639</v>
       </c>
       <c r="F217" t="s">
-        <v>71</v>
+        <v>799</v>
       </c>
       <c r="G217" t="s">
-        <v>354</v>
+        <v>639</v>
       </c>
       <c r="H217" t="s">
         <v>3</v>
       </c>
       <c r="I217" t="s">
-        <v>773</v>
+        <v>640</v>
       </c>
       <c r="L217" t="s">
         <v>1038</v>
       </c>
-      <c r="M217" t="s">
-        <v>812</v>
-      </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>351</v>
+        <v>772</v>
       </c>
       <c r="B218" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E218" t="s">
         <v>352</v>
       </c>
-      <c r="C218" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D218" t="s">
-        <v>16</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G218" s="2" t="s">
-        <v>821</v>
+      <c r="F218" t="s">
+        <v>71</v>
+      </c>
+      <c r="G218" t="s">
+        <v>354</v>
       </c>
       <c r="H218" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="I218" t="s">
+        <v>773</v>
       </c>
       <c r="L218" t="s">
         <v>1038</v>
       </c>
+      <c r="M218" t="s">
+        <v>812</v>
+      </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>648</v>
+        <v>351</v>
       </c>
       <c r="B219" t="s">
-        <v>1167</v>
+        <v>352</v>
       </c>
       <c r="C219" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="D219" t="s">
         <v>16</v>
       </c>
-      <c r="E219" t="s">
-        <v>642</v>
-      </c>
-      <c r="F219" t="s">
-        <v>13</v>
-      </c>
-      <c r="G219" t="s">
-        <v>349</v>
+      <c r="E219" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>821</v>
       </c>
       <c r="H219" t="s">
-        <v>3</v>
-      </c>
-      <c r="I219" t="s">
-        <v>649</v>
+        <v>6</v>
       </c>
       <c r="L219" t="s">
-        <v>1001</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B220" t="s">
         <v>1167</v>
       </c>
       <c r="C220" t="s">
-        <v>1049</v>
+        <v>1108</v>
       </c>
       <c r="D220" t="s">
         <v>16</v>
@@ -10955,25 +10973,28 @@
       <c r="F220" t="s">
         <v>13</v>
       </c>
+      <c r="G220" t="s">
+        <v>349</v>
+      </c>
       <c r="H220" t="s">
         <v>3</v>
       </c>
       <c r="I220" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="L220" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B221" t="s">
         <v>1167</v>
       </c>
       <c r="C221" t="s">
-        <v>1127</v>
+        <v>1049</v>
       </c>
       <c r="D221" t="s">
         <v>16</v>
@@ -10982,27 +11003,27 @@
         <v>642</v>
       </c>
       <c r="F221" t="s">
-        <v>801</v>
+        <v>13</v>
       </c>
       <c r="H221" t="s">
         <v>3</v>
       </c>
       <c r="I221" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="L221" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="B222" t="s">
         <v>1167</v>
       </c>
       <c r="C222" t="s">
-        <v>1044</v>
+        <v>1127</v>
       </c>
       <c r="D222" t="s">
         <v>16</v>
@@ -11011,30 +11032,27 @@
         <v>642</v>
       </c>
       <c r="F222" t="s">
-        <v>259</v>
-      </c>
-      <c r="G222" t="s">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="H222" t="s">
         <v>3</v>
       </c>
       <c r="I222" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="L222" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="B223" t="s">
         <v>1167</v>
       </c>
       <c r="C223" t="s">
-        <v>1168</v>
+        <v>1044</v>
       </c>
       <c r="D223" t="s">
         <v>16</v>
@@ -11043,30 +11061,30 @@
         <v>642</v>
       </c>
       <c r="F223" t="s">
-        <v>799</v>
+        <v>259</v>
       </c>
       <c r="G223" t="s">
-        <v>642</v>
+        <v>1</v>
       </c>
       <c r="H223" t="s">
         <v>3</v>
       </c>
       <c r="I223" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="L223" t="s">
-        <v>1038</v>
+        <v>998</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B224" t="s">
         <v>1167</v>
       </c>
       <c r="C224" t="s">
-        <v>1135</v>
+        <v>1168</v>
       </c>
       <c r="D224" t="s">
         <v>16</v>
@@ -11075,59 +11093,59 @@
         <v>642</v>
       </c>
       <c r="F224" t="s">
-        <v>186</v>
+        <v>799</v>
+      </c>
+      <c r="G224" t="s">
+        <v>642</v>
       </c>
       <c r="H224" t="s">
         <v>3</v>
       </c>
       <c r="I224" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="L224" t="s">
-        <v>1002</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>673</v>
+        <v>650</v>
       </c>
       <c r="B225" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="C225" t="s">
-        <v>1108</v>
+        <v>1135</v>
       </c>
       <c r="D225" t="s">
         <v>16</v>
       </c>
       <c r="E225" t="s">
-        <v>667</v>
+        <v>642</v>
       </c>
       <c r="F225" t="s">
-        <v>13</v>
-      </c>
-      <c r="G225" t="s">
-        <v>349</v>
+        <v>186</v>
       </c>
       <c r="H225" t="s">
         <v>3</v>
       </c>
       <c r="I225" t="s">
-        <v>674</v>
+        <v>651</v>
       </c>
       <c r="L225" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="B226" t="s">
         <v>1171</v>
       </c>
       <c r="C226" t="s">
-        <v>1049</v>
+        <v>1108</v>
       </c>
       <c r="D226" t="s">
         <v>16</v>
@@ -11138,25 +11156,28 @@
       <c r="F226" t="s">
         <v>13</v>
       </c>
+      <c r="G226" t="s">
+        <v>349</v>
+      </c>
       <c r="H226" t="s">
         <v>3</v>
       </c>
       <c r="I226" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="L226" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B227" t="s">
         <v>1171</v>
       </c>
       <c r="C227" t="s">
-        <v>1127</v>
+        <v>1049</v>
       </c>
       <c r="D227" t="s">
         <v>16</v>
@@ -11165,27 +11186,27 @@
         <v>667</v>
       </c>
       <c r="F227" t="s">
-        <v>801</v>
+        <v>13</v>
       </c>
       <c r="H227" t="s">
         <v>3</v>
       </c>
       <c r="I227" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="L227" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="B228" t="s">
         <v>1171</v>
       </c>
       <c r="C228" t="s">
-        <v>1044</v>
+        <v>1127</v>
       </c>
       <c r="D228" t="s">
         <v>16</v>
@@ -11194,30 +11215,27 @@
         <v>667</v>
       </c>
       <c r="F228" t="s">
-        <v>259</v>
-      </c>
-      <c r="G228" t="s">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="H228" t="s">
         <v>3</v>
       </c>
       <c r="I228" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="L228" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="B229" t="s">
         <v>1171</v>
       </c>
       <c r="C229" t="s">
-        <v>1172</v>
+        <v>1044</v>
       </c>
       <c r="D229" t="s">
         <v>16</v>
@@ -11226,30 +11244,30 @@
         <v>667</v>
       </c>
       <c r="F229" t="s">
-        <v>799</v>
+        <v>259</v>
       </c>
       <c r="G229" t="s">
-        <v>667</v>
+        <v>1</v>
       </c>
       <c r="H229" t="s">
         <v>3</v>
       </c>
       <c r="I229" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="L229" t="s">
-        <v>1038</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B230" t="s">
         <v>1171</v>
       </c>
       <c r="C230" t="s">
-        <v>1135</v>
+        <v>1172</v>
       </c>
       <c r="D230" t="s">
         <v>16</v>
@@ -11258,62 +11276,59 @@
         <v>667</v>
       </c>
       <c r="F230" t="s">
-        <v>186</v>
+        <v>799</v>
+      </c>
+      <c r="G230" t="s">
+        <v>667</v>
       </c>
       <c r="H230" t="s">
         <v>3</v>
       </c>
       <c r="I230" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="L230" t="s">
-        <v>1011</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>585</v>
+        <v>675</v>
       </c>
       <c r="B231" t="s">
-        <v>1089</v>
+        <v>1171</v>
       </c>
       <c r="C231" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D231" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D231" t="s">
         <v>16</v>
       </c>
       <c r="E231" t="s">
-        <v>814</v>
+        <v>667</v>
       </c>
       <c r="F231" t="s">
-        <v>71</v>
-      </c>
-      <c r="G231" t="s">
-        <v>354</v>
+        <v>186</v>
       </c>
       <c r="H231" t="s">
         <v>3</v>
       </c>
       <c r="I231" t="s">
-        <v>586</v>
+        <v>676</v>
       </c>
       <c r="L231" t="s">
-        <v>1038</v>
-      </c>
-      <c r="M231" t="s">
-        <v>815</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B232" t="s">
         <v>1089</v>
       </c>
       <c r="C232" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>16</v>
@@ -11322,62 +11337,65 @@
         <v>814</v>
       </c>
       <c r="F232" t="s">
-        <v>176</v>
+        <v>71</v>
+      </c>
+      <c r="G232" t="s">
+        <v>354</v>
       </c>
       <c r="H232" t="s">
         <v>3</v>
       </c>
       <c r="I232" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="L232" t="s">
         <v>1038</v>
       </c>
       <c r="M232" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>662</v>
+        <v>583</v>
       </c>
       <c r="B233" t="s">
-        <v>1169</v>
+        <v>1089</v>
       </c>
       <c r="C233" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D233" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D233" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E233" t="s">
-        <v>804</v>
+        <v>814</v>
       </c>
       <c r="F233" t="s">
-        <v>13</v>
-      </c>
-      <c r="G233" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="H233" t="s">
         <v>3</v>
       </c>
       <c r="I233" t="s">
-        <v>663</v>
+        <v>584</v>
       </c>
       <c r="L233" t="s">
-        <v>1006</v>
+        <v>1038</v>
+      </c>
+      <c r="M233" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="B234" t="s">
         <v>1169</v>
       </c>
       <c r="C234" t="s">
-        <v>1049</v>
+        <v>1108</v>
       </c>
       <c r="D234" t="s">
         <v>16</v>
@@ -11388,25 +11406,28 @@
       <c r="F234" t="s">
         <v>13</v>
       </c>
+      <c r="G234" t="s">
+        <v>349</v>
+      </c>
       <c r="H234" t="s">
         <v>3</v>
       </c>
       <c r="I234" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="L234" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B235" t="s">
         <v>1169</v>
       </c>
       <c r="C235" t="s">
-        <v>1127</v>
+        <v>1049</v>
       </c>
       <c r="D235" t="s">
         <v>16</v>
@@ -11415,27 +11436,27 @@
         <v>804</v>
       </c>
       <c r="F235" t="s">
-        <v>801</v>
+        <v>13</v>
       </c>
       <c r="H235" t="s">
         <v>3</v>
       </c>
       <c r="I235" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="L235" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="B236" t="s">
         <v>1169</v>
       </c>
       <c r="C236" t="s">
-        <v>1044</v>
+        <v>1127</v>
       </c>
       <c r="D236" t="s">
         <v>16</v>
@@ -11444,30 +11465,27 @@
         <v>804</v>
       </c>
       <c r="F236" t="s">
-        <v>259</v>
-      </c>
-      <c r="G236" t="s">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="H236" t="s">
         <v>3</v>
       </c>
       <c r="I236" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="L236" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="B237" t="s">
         <v>1169</v>
       </c>
       <c r="C237" t="s">
-        <v>1170</v>
+        <v>1044</v>
       </c>
       <c r="D237" t="s">
         <v>16</v>
@@ -11476,48 +11494,48 @@
         <v>804</v>
       </c>
       <c r="F237" t="s">
-        <v>799</v>
+        <v>259</v>
       </c>
       <c r="G237" t="s">
-        <v>804</v>
+        <v>1</v>
       </c>
       <c r="H237" t="s">
         <v>3</v>
       </c>
       <c r="I237" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="L237" t="s">
-        <v>1038</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>685</v>
+        <v>664</v>
       </c>
       <c r="B238" t="s">
-        <v>1111</v>
+        <v>1169</v>
       </c>
       <c r="C238" t="s">
-        <v>1110</v>
+        <v>1170</v>
       </c>
       <c r="D238" t="s">
         <v>16</v>
       </c>
       <c r="E238" t="s">
-        <v>354</v>
+        <v>804</v>
       </c>
       <c r="F238" t="s">
-        <v>16</v>
+        <v>799</v>
       </c>
       <c r="G238" t="s">
-        <v>2</v>
+        <v>804</v>
       </c>
       <c r="H238" t="s">
         <v>3</v>
       </c>
       <c r="I238" t="s">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="L238" t="s">
         <v>1038</v>
@@ -11525,45 +11543,45 @@
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>717</v>
+        <v>685</v>
       </c>
       <c r="B239" t="s">
-        <v>1179</v>
+        <v>1111</v>
       </c>
       <c r="C239" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="D239" t="s">
         <v>16</v>
       </c>
       <c r="E239" t="s">
-        <v>711</v>
+        <v>354</v>
       </c>
       <c r="F239" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G239" t="s">
-        <v>349</v>
+        <v>2</v>
       </c>
       <c r="H239" t="s">
         <v>3</v>
       </c>
       <c r="I239" t="s">
-        <v>718</v>
+        <v>686</v>
       </c>
       <c r="L239" t="s">
-        <v>1023</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="B240" t="s">
         <v>1179</v>
       </c>
       <c r="C240" t="s">
-        <v>1049</v>
+        <v>1108</v>
       </c>
       <c r="D240" t="s">
         <v>16</v>
@@ -11574,25 +11592,28 @@
       <c r="F240" t="s">
         <v>13</v>
       </c>
+      <c r="G240" t="s">
+        <v>349</v>
+      </c>
       <c r="H240" t="s">
         <v>3</v>
       </c>
       <c r="I240" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="L240" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B241" t="s">
         <v>1179</v>
       </c>
       <c r="C241" t="s">
-        <v>1127</v>
+        <v>1049</v>
       </c>
       <c r="D241" t="s">
         <v>16</v>
@@ -11601,27 +11622,27 @@
         <v>711</v>
       </c>
       <c r="F241" t="s">
-        <v>801</v>
+        <v>13</v>
       </c>
       <c r="H241" t="s">
         <v>3</v>
       </c>
       <c r="I241" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="L241" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="B242" t="s">
         <v>1179</v>
       </c>
       <c r="C242" t="s">
-        <v>1044</v>
+        <v>1127</v>
       </c>
       <c r="D242" t="s">
         <v>16</v>
@@ -11630,30 +11651,27 @@
         <v>711</v>
       </c>
       <c r="F242" t="s">
-        <v>259</v>
-      </c>
-      <c r="G242" t="s">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="H242" t="s">
         <v>3</v>
       </c>
       <c r="I242" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="L242" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="B243" t="s">
         <v>1179</v>
       </c>
       <c r="C243" t="s">
-        <v>1180</v>
+        <v>1044</v>
       </c>
       <c r="D243" t="s">
         <v>16</v>
@@ -11662,30 +11680,30 @@
         <v>711</v>
       </c>
       <c r="F243" t="s">
-        <v>799</v>
+        <v>259</v>
       </c>
       <c r="G243" t="s">
-        <v>711</v>
+        <v>1</v>
       </c>
       <c r="H243" t="s">
         <v>3</v>
       </c>
       <c r="I243" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="L243" t="s">
-        <v>1038</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B244" t="s">
         <v>1179</v>
       </c>
       <c r="C244" t="s">
-        <v>1135</v>
+        <v>1180</v>
       </c>
       <c r="D244" t="s">
         <v>16</v>
@@ -11694,59 +11712,59 @@
         <v>711</v>
       </c>
       <c r="F244" t="s">
-        <v>186</v>
+        <v>799</v>
+      </c>
+      <c r="G244" t="s">
+        <v>711</v>
       </c>
       <c r="H244" t="s">
         <v>3</v>
       </c>
       <c r="I244" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="L244" t="s">
-        <v>1024</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>516</v>
+        <v>719</v>
       </c>
       <c r="B245" t="s">
-        <v>1143</v>
+        <v>1179</v>
       </c>
       <c r="C245" t="s">
-        <v>1108</v>
+        <v>1135</v>
       </c>
       <c r="D245" t="s">
         <v>16</v>
       </c>
       <c r="E245" t="s">
-        <v>508</v>
+        <v>711</v>
       </c>
       <c r="F245" t="s">
-        <v>13</v>
-      </c>
-      <c r="G245" t="s">
-        <v>349</v>
+        <v>186</v>
       </c>
       <c r="H245" t="s">
         <v>3</v>
       </c>
       <c r="I245" t="s">
-        <v>517</v>
+        <v>720</v>
       </c>
       <c r="L245" t="s">
-        <v>965</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="B246" t="s">
         <v>1143</v>
       </c>
       <c r="C246" t="s">
-        <v>1049</v>
+        <v>1108</v>
       </c>
       <c r="D246" t="s">
         <v>16</v>
@@ -11757,25 +11775,28 @@
       <c r="F246" t="s">
         <v>13</v>
       </c>
+      <c r="G246" t="s">
+        <v>349</v>
+      </c>
       <c r="H246" t="s">
         <v>3</v>
       </c>
       <c r="I246" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="L246" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B247" t="s">
         <v>1143</v>
       </c>
       <c r="C247" t="s">
-        <v>1127</v>
+        <v>1049</v>
       </c>
       <c r="D247" t="s">
         <v>16</v>
@@ -11783,28 +11804,28 @@
       <c r="E247" t="s">
         <v>508</v>
       </c>
-      <c r="F247" s="2" t="s">
-        <v>801</v>
+      <c r="F247" t="s">
+        <v>13</v>
       </c>
       <c r="H247" t="s">
         <v>3</v>
       </c>
       <c r="I247" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="L247" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="B248" t="s">
         <v>1143</v>
       </c>
       <c r="C248" t="s">
-        <v>1044</v>
+        <v>1127</v>
       </c>
       <c r="D248" t="s">
         <v>16</v>
@@ -11812,31 +11833,28 @@
       <c r="E248" t="s">
         <v>508</v>
       </c>
-      <c r="F248" t="s">
-        <v>259</v>
-      </c>
-      <c r="G248" t="s">
-        <v>1</v>
+      <c r="F248" s="2" t="s">
+        <v>801</v>
       </c>
       <c r="H248" t="s">
         <v>3</v>
       </c>
       <c r="I248" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="L248" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="B249" t="s">
         <v>1143</v>
       </c>
       <c r="C249" t="s">
-        <v>1145</v>
+        <v>1044</v>
       </c>
       <c r="D249" t="s">
         <v>16</v>
@@ -11844,31 +11862,31 @@
       <c r="E249" t="s">
         <v>508</v>
       </c>
-      <c r="F249" s="2" t="s">
-        <v>168</v>
+      <c r="F249" t="s">
+        <v>259</v>
       </c>
       <c r="G249" t="s">
-        <v>820</v>
+        <v>1</v>
       </c>
       <c r="H249" t="s">
         <v>3</v>
       </c>
       <c r="I249" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="L249" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B250" t="s">
         <v>1143</v>
       </c>
       <c r="C250" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D250" t="s">
         <v>16</v>
@@ -11876,31 +11894,31 @@
       <c r="E250" t="s">
         <v>508</v>
       </c>
-      <c r="F250" t="s">
-        <v>799</v>
+      <c r="F250" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="G250" t="s">
-        <v>508</v>
+        <v>820</v>
       </c>
       <c r="H250" t="s">
         <v>3</v>
       </c>
       <c r="I250" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="L250" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B251" t="s">
         <v>1143</v>
       </c>
       <c r="C251" t="s">
-        <v>1135</v>
+        <v>1144</v>
       </c>
       <c r="D251" t="s">
         <v>16</v>
@@ -11909,59 +11927,59 @@
         <v>508</v>
       </c>
       <c r="F251" t="s">
-        <v>186</v>
+        <v>799</v>
+      </c>
+      <c r="G251" t="s">
+        <v>508</v>
       </c>
       <c r="H251" t="s">
         <v>3</v>
       </c>
       <c r="I251" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="L251" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="B252" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C252" t="s">
-        <v>1108</v>
+        <v>1135</v>
       </c>
       <c r="D252" t="s">
         <v>16</v>
       </c>
       <c r="E252" t="s">
-        <v>808</v>
+        <v>508</v>
       </c>
       <c r="F252" t="s">
-        <v>13</v>
-      </c>
-      <c r="G252" t="s">
-        <v>349</v>
+        <v>186</v>
       </c>
       <c r="H252" t="s">
         <v>3</v>
       </c>
       <c r="I252" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="L252" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B253" t="s">
         <v>1146</v>
       </c>
       <c r="C253" t="s">
-        <v>1049</v>
+        <v>1108</v>
       </c>
       <c r="D253" t="s">
         <v>16</v>
@@ -11972,25 +11990,28 @@
       <c r="F253" t="s">
         <v>13</v>
       </c>
+      <c r="G253" t="s">
+        <v>349</v>
+      </c>
       <c r="H253" t="s">
         <v>3</v>
       </c>
       <c r="I253" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="L253" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B254" t="s">
         <v>1146</v>
       </c>
       <c r="C254" t="s">
-        <v>1127</v>
+        <v>1049</v>
       </c>
       <c r="D254" t="s">
         <v>16</v>
@@ -11999,27 +12020,27 @@
         <v>808</v>
       </c>
       <c r="F254" t="s">
-        <v>801</v>
+        <v>13</v>
       </c>
       <c r="H254" t="s">
         <v>3</v>
       </c>
       <c r="I254" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L254" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B255" t="s">
         <v>1146</v>
       </c>
       <c r="C255" t="s">
-        <v>1044</v>
+        <v>1127</v>
       </c>
       <c r="D255" t="s">
         <v>16</v>
@@ -12028,30 +12049,27 @@
         <v>808</v>
       </c>
       <c r="F255" t="s">
-        <v>259</v>
-      </c>
-      <c r="G255" t="s">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="H255" t="s">
         <v>3</v>
       </c>
       <c r="I255" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="L255" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="B256" t="s">
         <v>1146</v>
       </c>
       <c r="C256" t="s">
-        <v>1145</v>
+        <v>1044</v>
       </c>
       <c r="D256" t="s">
         <v>16</v>
@@ -12059,31 +12077,31 @@
       <c r="E256" t="s">
         <v>808</v>
       </c>
-      <c r="F256" s="2" t="s">
-        <v>168</v>
+      <c r="F256" t="s">
+        <v>259</v>
       </c>
       <c r="G256" t="s">
-        <v>820</v>
+        <v>1</v>
       </c>
       <c r="H256" t="s">
         <v>3</v>
       </c>
       <c r="I256" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="L256" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B257" t="s">
         <v>1146</v>
       </c>
       <c r="C257" t="s">
-        <v>1135</v>
+        <v>1145</v>
       </c>
       <c r="D257" t="s">
         <v>16</v>
@@ -12091,60 +12109,60 @@
       <c r="E257" t="s">
         <v>808</v>
       </c>
-      <c r="F257" t="s">
-        <v>186</v>
+      <c r="F257" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G257" t="s">
+        <v>820</v>
       </c>
       <c r="H257" t="s">
         <v>3</v>
       </c>
       <c r="I257" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="L257" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>737</v>
+        <v>530</v>
       </c>
       <c r="B258" t="s">
-        <v>1185</v>
+        <v>1146</v>
       </c>
       <c r="C258" t="s">
-        <v>440</v>
+        <v>1135</v>
       </c>
       <c r="D258" t="s">
         <v>16</v>
       </c>
       <c r="E258" t="s">
-        <v>738</v>
+        <v>808</v>
       </c>
       <c r="F258" t="s">
-        <v>16</v>
-      </c>
-      <c r="G258" t="s">
-        <v>440</v>
+        <v>186</v>
       </c>
       <c r="H258" t="s">
         <v>3</v>
       </c>
       <c r="I258" t="s">
-        <v>739</v>
+        <v>531</v>
       </c>
       <c r="L258" t="s">
-        <v>1038</v>
+        <v>971</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B259" t="s">
         <v>1185</v>
       </c>
       <c r="C259" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D259" t="s">
         <v>16</v>
@@ -12156,13 +12174,13 @@
         <v>16</v>
       </c>
       <c r="G259" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H259" t="s">
         <v>3</v>
       </c>
       <c r="I259" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="L259" t="s">
         <v>1038</v>
@@ -12170,13 +12188,13 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B260" t="s">
         <v>1185</v>
       </c>
       <c r="C260" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D260" t="s">
         <v>16</v>
@@ -12188,13 +12206,13 @@
         <v>16</v>
       </c>
       <c r="G260" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H260" t="s">
         <v>3</v>
       </c>
       <c r="I260" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="L260" t="s">
         <v>1038</v>
@@ -12202,31 +12220,31 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="B261" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="C261" t="s">
-        <v>1190</v>
+        <v>446</v>
       </c>
       <c r="D261" t="s">
         <v>16</v>
       </c>
       <c r="E261" t="s">
-        <v>805</v>
+        <v>738</v>
       </c>
       <c r="F261" t="s">
-        <v>799</v>
+        <v>16</v>
       </c>
       <c r="G261" t="s">
-        <v>805</v>
+        <v>446</v>
       </c>
       <c r="H261" t="s">
         <v>3</v>
       </c>
       <c r="I261" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="L261" t="s">
         <v>1038</v>
@@ -12234,31 +12252,31 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>482</v>
+        <v>756</v>
       </c>
       <c r="B262" t="s">
-        <v>1136</v>
+        <v>1189</v>
       </c>
       <c r="C262" t="s">
-        <v>1137</v>
+        <v>1190</v>
       </c>
       <c r="D262" t="s">
         <v>16</v>
       </c>
       <c r="E262" t="s">
-        <v>483</v>
+        <v>805</v>
       </c>
       <c r="F262" t="s">
         <v>799</v>
       </c>
       <c r="G262" t="s">
-        <v>483</v>
+        <v>805</v>
       </c>
       <c r="H262" t="s">
         <v>3</v>
       </c>
       <c r="I262" t="s">
-        <v>484</v>
+        <v>757</v>
       </c>
       <c r="L262" t="s">
         <v>1038</v>
@@ -12266,45 +12284,45 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>765</v>
+        <v>482</v>
       </c>
       <c r="B263" t="s">
-        <v>1191</v>
+        <v>1136</v>
       </c>
       <c r="C263" t="s">
-        <v>1108</v>
+        <v>1137</v>
       </c>
       <c r="D263" t="s">
         <v>16</v>
       </c>
       <c r="E263" t="s">
-        <v>759</v>
+        <v>483</v>
       </c>
       <c r="F263" t="s">
-        <v>13</v>
+        <v>799</v>
       </c>
       <c r="G263" t="s">
-        <v>349</v>
+        <v>483</v>
       </c>
       <c r="H263" t="s">
         <v>3</v>
       </c>
       <c r="I263" t="s">
-        <v>766</v>
+        <v>484</v>
       </c>
       <c r="L263" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="B264" t="s">
         <v>1191</v>
       </c>
       <c r="C264" t="s">
-        <v>1049</v>
+        <v>1108</v>
       </c>
       <c r="D264" t="s">
         <v>16</v>
@@ -12315,25 +12333,28 @@
       <c r="F264" t="s">
         <v>13</v>
       </c>
+      <c r="G264" t="s">
+        <v>349</v>
+      </c>
       <c r="H264" t="s">
         <v>3</v>
       </c>
       <c r="I264" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="L264" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B265" t="s">
         <v>1191</v>
       </c>
       <c r="C265" t="s">
-        <v>1127</v>
+        <v>1049</v>
       </c>
       <c r="D265" t="s">
         <v>16</v>
@@ -12342,27 +12363,27 @@
         <v>759</v>
       </c>
       <c r="F265" t="s">
-        <v>801</v>
+        <v>13</v>
       </c>
       <c r="H265" t="s">
         <v>3</v>
       </c>
       <c r="I265" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="L265" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="B266" t="s">
         <v>1191</v>
       </c>
       <c r="C266" t="s">
-        <v>1044</v>
+        <v>1127</v>
       </c>
       <c r="D266" t="s">
         <v>16</v>
@@ -12371,30 +12392,27 @@
         <v>759</v>
       </c>
       <c r="F266" t="s">
-        <v>259</v>
-      </c>
-      <c r="G266" t="s">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="H266" t="s">
         <v>3</v>
       </c>
       <c r="I266" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="L266" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="B267" t="s">
         <v>1191</v>
       </c>
       <c r="C267" t="s">
-        <v>1192</v>
+        <v>1044</v>
       </c>
       <c r="D267" t="s">
         <v>16</v>
@@ -12403,48 +12421,48 @@
         <v>759</v>
       </c>
       <c r="F267" t="s">
-        <v>799</v>
+        <v>259</v>
       </c>
       <c r="G267" t="s">
-        <v>759</v>
+        <v>1</v>
       </c>
       <c r="H267" t="s">
         <v>3</v>
       </c>
       <c r="I267" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="L267" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B268" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C268" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="D268" t="s">
         <v>16</v>
       </c>
       <c r="E268" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="F268" t="s">
-        <v>16</v>
+        <v>799</v>
       </c>
       <c r="G268" t="s">
-        <v>811</v>
+        <v>759</v>
       </c>
       <c r="H268" t="s">
         <v>3</v>
       </c>
       <c r="I268" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="L268" t="s">
         <v>1038</v>
@@ -12452,45 +12470,45 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="B269" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="C269" t="s">
-        <v>1108</v>
+        <v>1194</v>
       </c>
       <c r="D269" t="s">
         <v>16</v>
       </c>
       <c r="E269" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="F269" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G269" t="s">
-        <v>349</v>
+        <v>811</v>
       </c>
       <c r="H269" t="s">
         <v>3</v>
       </c>
       <c r="I269" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="L269" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="B270" t="s">
         <v>1196</v>
       </c>
       <c r="C270" t="s">
-        <v>1049</v>
+        <v>1108</v>
       </c>
       <c r="D270" t="s">
         <v>16</v>
@@ -12501,25 +12519,28 @@
       <c r="F270" t="s">
         <v>13</v>
       </c>
+      <c r="G270" t="s">
+        <v>349</v>
+      </c>
       <c r="H270" t="s">
         <v>3</v>
       </c>
       <c r="I270" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="L270" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B271" t="s">
         <v>1196</v>
       </c>
       <c r="C271" t="s">
-        <v>1127</v>
+        <v>1049</v>
       </c>
       <c r="D271" t="s">
         <v>16</v>
@@ -12528,27 +12549,27 @@
         <v>775</v>
       </c>
       <c r="F271" t="s">
-        <v>801</v>
+        <v>13</v>
       </c>
       <c r="H271" t="s">
         <v>3</v>
       </c>
       <c r="I271" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="L271" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="B272" t="s">
         <v>1196</v>
       </c>
       <c r="C272" t="s">
-        <v>1044</v>
+        <v>1127</v>
       </c>
       <c r="D272" t="s">
         <v>16</v>
@@ -12557,30 +12578,27 @@
         <v>775</v>
       </c>
       <c r="F272" t="s">
-        <v>259</v>
-      </c>
-      <c r="G272" t="s">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="H272" t="s">
         <v>3</v>
       </c>
       <c r="I272" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="L272" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="B273" t="s">
         <v>1196</v>
       </c>
       <c r="C273" t="s">
-        <v>1197</v>
+        <v>1044</v>
       </c>
       <c r="D273" t="s">
         <v>16</v>
@@ -12589,261 +12607,267 @@
         <v>775</v>
       </c>
       <c r="F273" t="s">
-        <v>799</v>
+        <v>259</v>
       </c>
       <c r="G273" t="s">
-        <v>775</v>
+        <v>1</v>
       </c>
       <c r="H273" t="s">
         <v>3</v>
       </c>
       <c r="I273" t="s">
-        <v>784</v>
+        <v>776</v>
+      </c>
+      <c r="L273" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>246</v>
+        <v>783</v>
       </c>
       <c r="B274" t="s">
-        <v>1052</v>
+        <v>1196</v>
       </c>
       <c r="C274" t="s">
-        <v>1096</v>
+        <v>1197</v>
       </c>
       <c r="D274" t="s">
         <v>16</v>
       </c>
+      <c r="E274" t="s">
+        <v>775</v>
+      </c>
       <c r="F274" t="s">
-        <v>20</v>
+        <v>799</v>
+      </c>
+      <c r="G274" t="s">
+        <v>775</v>
       </c>
       <c r="H274" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I274" t="s">
-        <v>247</v>
-      </c>
-      <c r="J274" t="s">
-        <v>248</v>
+        <v>784</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B275" t="s">
-        <v>16</v>
+        <v>1052</v>
       </c>
       <c r="C275" t="s">
-        <v>244</v>
+        <v>1096</v>
       </c>
       <c r="D275" t="s">
         <v>16</v>
       </c>
       <c r="F275" t="s">
-        <v>16</v>
-      </c>
-      <c r="G275" t="s">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="H275" t="s">
         <v>6</v>
       </c>
       <c r="I275" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="J275" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B276" t="s">
-        <v>1052</v>
+        <v>16</v>
       </c>
       <c r="C276" t="s">
-        <v>1059</v>
+        <v>244</v>
       </c>
       <c r="D276" t="s">
         <v>16</v>
       </c>
       <c r="F276" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="G276" t="s">
+        <v>244</v>
       </c>
       <c r="H276" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I276" t="s">
-        <v>250</v>
-      </c>
-      <c r="L276" t="s">
-        <v>886</v>
+        <v>245</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B277" t="s">
         <v>1052</v>
       </c>
       <c r="C277" t="s">
-        <v>1097</v>
+        <v>1059</v>
       </c>
       <c r="D277" t="s">
         <v>16</v>
       </c>
       <c r="F277" t="s">
-        <v>252</v>
+        <v>29</v>
       </c>
       <c r="H277" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I277" t="s">
-        <v>253</v>
-      </c>
-      <c r="J277" t="s">
-        <v>254</v>
+        <v>250</v>
+      </c>
+      <c r="L277" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B278" t="s">
         <v>1052</v>
       </c>
       <c r="C278" t="s">
-        <v>1060</v>
+        <v>1097</v>
       </c>
       <c r="D278" t="s">
         <v>16</v>
       </c>
       <c r="F278" t="s">
-        <v>32</v>
+        <v>252</v>
       </c>
       <c r="H278" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I278" t="s">
-        <v>257</v>
-      </c>
-      <c r="L278" t="s">
-        <v>887</v>
+        <v>253</v>
+      </c>
+      <c r="J278" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B279" t="s">
         <v>1052</v>
       </c>
       <c r="C279" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="D279" t="s">
         <v>16</v>
       </c>
       <c r="F279" t="s">
-        <v>259</v>
+        <v>32</v>
       </c>
       <c r="H279" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I279" t="s">
-        <v>260</v>
-      </c>
-      <c r="J279" t="s">
-        <v>261</v>
+        <v>257</v>
+      </c>
+      <c r="L279" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B280" t="s">
         <v>1052</v>
       </c>
       <c r="C280" t="s">
-        <v>1061</v>
+        <v>1073</v>
       </c>
       <c r="D280" t="s">
         <v>16</v>
       </c>
       <c r="F280" t="s">
-        <v>35</v>
+        <v>259</v>
       </c>
       <c r="H280" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I280" t="s">
-        <v>263</v>
-      </c>
-      <c r="L280" t="s">
-        <v>888</v>
+        <v>260</v>
+      </c>
+      <c r="J280" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B281" t="s">
         <v>1052</v>
       </c>
       <c r="C281" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D281" t="s">
         <v>16</v>
       </c>
       <c r="F281" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H281" t="s">
         <v>3</v>
       </c>
       <c r="I281" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L281" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="B282" t="s">
-        <v>16</v>
+        <v>1052</v>
       </c>
       <c r="C282" t="s">
-        <v>1098</v>
+        <v>1062</v>
       </c>
       <c r="D282" t="s">
         <v>16</v>
       </c>
       <c r="F282" t="s">
-        <v>176</v>
-      </c>
-      <c r="G282" t="s">
-        <v>796</v>
+        <v>38</v>
       </c>
       <c r="H282" t="s">
-        <v>6</v>
-      </c>
-      <c r="K282" t="s">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="I282" t="s">
+        <v>265</v>
+      </c>
+      <c r="L282" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="B283" t="s">
-        <v>1052</v>
+        <v>16</v>
       </c>
       <c r="C283" t="s">
-        <v>793</v>
+        <v>1098</v>
       </c>
       <c r="D283" t="s">
         <v>16</v>
@@ -12852,27 +12876,24 @@
         <v>176</v>
       </c>
       <c r="G283" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="H283" t="s">
-        <v>3</v>
-      </c>
-      <c r="I283" t="s">
-        <v>270</v>
-      </c>
-      <c r="L283" t="s">
-        <v>1038</v>
+        <v>6</v>
+      </c>
+      <c r="K283" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B284" t="s">
         <v>1052</v>
       </c>
       <c r="C284" t="s">
-        <v>1081</v>
+        <v>793</v>
       </c>
       <c r="D284" t="s">
         <v>16</v>
@@ -12880,66 +12901,66 @@
       <c r="F284" t="s">
         <v>176</v>
       </c>
+      <c r="G284" t="s">
+        <v>793</v>
+      </c>
       <c r="H284" t="s">
         <v>3</v>
       </c>
       <c r="I284" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L284" t="s">
-        <v>890</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B285" t="s">
-        <v>16</v>
+        <v>1052</v>
       </c>
       <c r="C285" t="s">
-        <v>41</v>
+        <v>1081</v>
       </c>
       <c r="D285" t="s">
         <v>16</v>
       </c>
       <c r="F285" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="H285" t="s">
         <v>3</v>
       </c>
-      <c r="K285" t="s">
-        <v>42</v>
+      <c r="I285" t="s">
+        <v>267</v>
       </c>
       <c r="L285" t="s">
-        <v>1038</v>
+        <v>890</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>607</v>
+        <v>268</v>
       </c>
       <c r="B286" t="s">
-        <v>1159</v>
+        <v>16</v>
       </c>
       <c r="C286" t="s">
-        <v>1160</v>
+        <v>41</v>
       </c>
       <c r="D286" t="s">
         <v>16</v>
       </c>
       <c r="F286" t="s">
-        <v>799</v>
-      </c>
-      <c r="G286" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H286" t="s">
         <v>3</v>
       </c>
-      <c r="I286" t="s">
-        <v>608</v>
+      <c r="K286" t="s">
+        <v>42</v>
       </c>
       <c r="L286" t="s">
         <v>1038</v>
@@ -12947,626 +12968,626 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>271</v>
+        <v>607</v>
       </c>
       <c r="B287" t="s">
-        <v>1052</v>
+        <v>1159</v>
       </c>
       <c r="C287" t="s">
-        <v>1063</v>
+        <v>1160</v>
       </c>
       <c r="D287" t="s">
         <v>16</v>
       </c>
       <c r="F287" t="s">
-        <v>44</v>
+        <v>799</v>
+      </c>
+      <c r="G287" t="s">
+        <v>16</v>
       </c>
       <c r="H287" t="s">
         <v>3</v>
       </c>
       <c r="I287" t="s">
-        <v>272</v>
+        <v>608</v>
       </c>
       <c r="L287" t="s">
-        <v>891</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B288" t="s">
         <v>1052</v>
       </c>
       <c r="C288" t="s">
-        <v>1086</v>
+        <v>1063</v>
       </c>
       <c r="D288" t="s">
         <v>16</v>
       </c>
       <c r="F288" t="s">
-        <v>186</v>
+        <v>44</v>
       </c>
       <c r="H288" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I288" t="s">
-        <v>274</v>
-      </c>
-      <c r="J288" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L288" t="s">
-        <v>1038</v>
+        <v>891</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B289" t="s">
         <v>1052</v>
       </c>
       <c r="C289" t="s">
-        <v>1064</v>
+        <v>1086</v>
       </c>
       <c r="D289" t="s">
         <v>16</v>
       </c>
       <c r="F289" t="s">
-        <v>49</v>
+        <v>186</v>
       </c>
       <c r="H289" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I289" t="s">
-        <v>277</v>
+        <v>274</v>
+      </c>
+      <c r="J289" t="s">
+        <v>275</v>
       </c>
       <c r="L289" t="s">
-        <v>892</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B290" t="s">
         <v>1052</v>
       </c>
       <c r="C290" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D290" t="s">
         <v>16</v>
       </c>
       <c r="F290" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H290" t="s">
         <v>3</v>
       </c>
       <c r="I290" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L290" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B291" t="s">
-        <v>16</v>
+        <v>1052</v>
       </c>
       <c r="C291" t="s">
-        <v>1099</v>
+        <v>1065</v>
       </c>
       <c r="D291" t="s">
         <v>16</v>
       </c>
       <c r="F291" t="s">
-        <v>352</v>
-      </c>
-      <c r="G291" t="s">
-        <v>795</v>
+        <v>52</v>
       </c>
       <c r="H291" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I291" t="s">
-        <v>279</v>
-      </c>
-      <c r="J291" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L291" t="s">
-        <v>1038</v>
+        <v>893</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B292" t="s">
-        <v>1052</v>
+        <v>16</v>
       </c>
       <c r="C292" t="s">
-        <v>1066</v>
+        <v>1099</v>
       </c>
       <c r="D292" t="s">
         <v>16</v>
       </c>
       <c r="F292" t="s">
-        <v>55</v>
+        <v>352</v>
+      </c>
+      <c r="G292" t="s">
+        <v>795</v>
       </c>
       <c r="H292" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I292" t="s">
-        <v>284</v>
+        <v>279</v>
+      </c>
+      <c r="J292" t="s">
+        <v>280</v>
       </c>
       <c r="L292" t="s">
-        <v>894</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B293" t="s">
         <v>1052</v>
       </c>
       <c r="C293" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D293" t="s">
         <v>16</v>
       </c>
       <c r="F293" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H293" t="s">
         <v>3</v>
       </c>
       <c r="I293" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L293" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>412</v>
+        <v>285</v>
       </c>
       <c r="B294" t="s">
         <v>1052</v>
       </c>
       <c r="C294" t="s">
-        <v>1117</v>
+        <v>1067</v>
       </c>
       <c r="D294" t="s">
         <v>16</v>
       </c>
       <c r="F294" t="s">
-        <v>413</v>
+        <v>58</v>
       </c>
       <c r="H294" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I294" t="s">
-        <v>414</v>
-      </c>
-      <c r="J294" t="s">
-        <v>415</v>
+        <v>286</v>
       </c>
       <c r="L294" t="s">
-        <v>1038</v>
+        <v>895</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>287</v>
+        <v>412</v>
       </c>
       <c r="B295" t="s">
         <v>1052</v>
       </c>
       <c r="C295" t="s">
-        <v>288</v>
+        <v>1117</v>
       </c>
       <c r="D295" t="s">
         <v>16</v>
       </c>
       <c r="F295" t="s">
-        <v>288</v>
+        <v>413</v>
       </c>
       <c r="H295" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I295" t="s">
-        <v>289</v>
+        <v>414</v>
+      </c>
+      <c r="J295" t="s">
+        <v>415</v>
       </c>
       <c r="L295" t="s">
-        <v>896</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B296" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="C296" t="s">
-        <v>1051</v>
+        <v>288</v>
       </c>
       <c r="D296" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F296" t="s">
-        <v>13</v>
+        <v>288</v>
       </c>
       <c r="H296" t="s">
         <v>3</v>
       </c>
       <c r="I296" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="L296" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B297" t="s">
         <v>1064</v>
       </c>
       <c r="C297" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="D297" t="s">
         <v>49</v>
       </c>
       <c r="F297" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H297" t="s">
         <v>3</v>
       </c>
       <c r="I297" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L297" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B298" t="s">
         <v>1064</v>
       </c>
       <c r="C298" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D298" t="s">
         <v>49</v>
       </c>
       <c r="F298" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H298" t="s">
         <v>3</v>
       </c>
       <c r="I298" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L298" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B299" t="s">
         <v>1064</v>
       </c>
       <c r="C299" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D299" t="s">
         <v>49</v>
       </c>
       <c r="F299" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H299" t="s">
         <v>3</v>
       </c>
       <c r="I299" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L299" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B300" t="s">
         <v>1064</v>
       </c>
       <c r="C300" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D300" t="s">
         <v>49</v>
       </c>
       <c r="F300" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H300" t="s">
         <v>3</v>
       </c>
       <c r="I300" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L300" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B301" t="s">
-        <v>49</v>
+        <v>1064</v>
       </c>
       <c r="C301" t="s">
-        <v>41</v>
+        <v>1062</v>
       </c>
       <c r="D301" t="s">
         <v>49</v>
       </c>
       <c r="F301" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H301" t="s">
         <v>3</v>
       </c>
-      <c r="K301" t="s">
-        <v>42</v>
+      <c r="I301" t="s">
+        <v>302</v>
       </c>
       <c r="L301" t="s">
-        <v>1038</v>
+        <v>901</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B302" t="s">
-        <v>1064</v>
+        <v>49</v>
       </c>
       <c r="C302" t="s">
-        <v>1063</v>
+        <v>41</v>
       </c>
       <c r="D302" t="s">
         <v>49</v>
       </c>
       <c r="F302" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H302" t="s">
         <v>3</v>
       </c>
-      <c r="I302" t="s">
-        <v>305</v>
+      <c r="K302" t="s">
+        <v>42</v>
       </c>
       <c r="L302" t="s">
-        <v>902</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B303" t="s">
         <v>1064</v>
       </c>
       <c r="C303" t="s">
-        <v>1052</v>
+        <v>1063</v>
       </c>
       <c r="D303" t="s">
         <v>49</v>
       </c>
       <c r="F303" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="H303" t="s">
         <v>3</v>
       </c>
       <c r="I303" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L303" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B304" t="s">
         <v>1064</v>
       </c>
       <c r="C304" t="s">
-        <v>1065</v>
+        <v>1052</v>
       </c>
       <c r="D304" t="s">
         <v>49</v>
       </c>
       <c r="F304" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="H304" t="s">
         <v>3</v>
       </c>
       <c r="I304" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L304" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B305" t="s">
         <v>1064</v>
       </c>
       <c r="C305" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D305" t="s">
         <v>49</v>
       </c>
       <c r="F305" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H305" t="s">
         <v>3</v>
       </c>
       <c r="I305" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L305" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B306" t="s">
         <v>1064</v>
       </c>
       <c r="C306" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D306" t="s">
         <v>49</v>
       </c>
       <c r="F306" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H306" t="s">
         <v>3</v>
       </c>
       <c r="I306" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L306" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B307" t="s">
         <v>1064</v>
       </c>
       <c r="C307" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D307" t="s">
         <v>49</v>
       </c>
       <c r="F307" t="s">
+        <v>58</v>
+      </c>
+      <c r="H307" t="s">
+        <v>3</v>
+      </c>
+      <c r="I307" t="s">
+        <v>313</v>
+      </c>
+      <c r="L307" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>314</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D308" t="s">
+        <v>49</v>
+      </c>
+      <c r="F308" t="s">
         <v>61</v>
       </c>
-      <c r="H307" t="s">
-        <v>3</v>
-      </c>
-      <c r="I307" t="s">
+      <c r="H308" t="s">
+        <v>3</v>
+      </c>
+      <c r="I308" t="s">
         <v>315</v>
       </c>
-      <c r="L307" t="s">
+      <c r="L308" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="308" spans="1:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
+    <row r="309" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
         <v>1253</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B309" t="s">
         <v>1162</v>
       </c>
-      <c r="C308" t="s">
+      <c r="C309" t="s">
         <v>1052</v>
       </c>
-      <c r="D308" t="s">
+      <c r="D309" t="s">
         <v>620</v>
       </c>
-      <c r="E308" t="s">
+      <c r="E309" t="s">
         <v>1254</v>
       </c>
-      <c r="F308" t="s">
-        <v>16</v>
-      </c>
-      <c r="H308" t="s">
-        <v>3</v>
-      </c>
-      <c r="I308" s="7" t="s">
+      <c r="F309" t="s">
+        <v>16</v>
+      </c>
+      <c r="H309" t="s">
+        <v>3</v>
+      </c>
+      <c r="I309" s="7" t="s">
         <v>1255</v>
-      </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A309" t="s">
-        <v>693</v>
-      </c>
-      <c r="B309" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C309" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="F309" t="s">
-        <v>13</v>
-      </c>
-      <c r="G309" t="s">
-        <v>349</v>
-      </c>
-      <c r="H309" t="s">
-        <v>3</v>
-      </c>
-      <c r="I309" t="s">
-        <v>694</v>
-      </c>
-      <c r="L309" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="B310" t="s">
         <v>1173</v>
       </c>
       <c r="C310" t="s">
-        <v>1049</v>
+        <v>1108</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>803</v>
@@ -13574,479 +13595,479 @@
       <c r="F310" t="s">
         <v>13</v>
       </c>
+      <c r="G310" t="s">
+        <v>349</v>
+      </c>
       <c r="H310" t="s">
         <v>3</v>
       </c>
       <c r="I310" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="L310" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B311" t="s">
         <v>1173</v>
       </c>
       <c r="C311" t="s">
-        <v>1127</v>
+        <v>1049</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>803</v>
       </c>
       <c r="F311" t="s">
-        <v>801</v>
+        <v>13</v>
       </c>
       <c r="H311" t="s">
         <v>3</v>
       </c>
       <c r="I311" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="L311" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="B312" t="s">
         <v>1173</v>
       </c>
       <c r="C312" t="s">
-        <v>1044</v>
+        <v>1127</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>803</v>
       </c>
       <c r="F312" t="s">
-        <v>259</v>
-      </c>
-      <c r="G312" t="s">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="H312" t="s">
         <v>3</v>
       </c>
       <c r="I312" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="L312" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="B313" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C313" t="s">
-        <v>1175</v>
+        <v>1044</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>803</v>
       </c>
       <c r="F313" t="s">
-        <v>799</v>
-      </c>
-      <c r="G313" s="2" t="s">
-        <v>803</v>
+        <v>259</v>
+      </c>
+      <c r="G313" t="s">
+        <v>1</v>
       </c>
       <c r="H313" t="s">
         <v>3</v>
       </c>
       <c r="I313" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="L313" t="s">
-        <v>1038</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>322</v>
+        <v>695</v>
       </c>
       <c r="B314" t="s">
-        <v>1065</v>
+        <v>1174</v>
       </c>
       <c r="C314" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D314" t="s">
-        <v>52</v>
+        <v>1175</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>803</v>
       </c>
       <c r="F314" t="s">
-        <v>13</v>
+        <v>799</v>
+      </c>
+      <c r="G314" s="2" t="s">
+        <v>803</v>
       </c>
       <c r="H314" t="s">
         <v>3</v>
       </c>
       <c r="I314" t="s">
-        <v>323</v>
+        <v>696</v>
       </c>
       <c r="L314" t="s">
-        <v>908</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B315" t="s">
         <v>1065</v>
       </c>
       <c r="C315" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="D315" t="s">
         <v>52</v>
       </c>
       <c r="F315" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H315" t="s">
         <v>3</v>
       </c>
       <c r="I315" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L315" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B316" t="s">
         <v>1065</v>
       </c>
       <c r="C316" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D316" t="s">
         <v>52</v>
       </c>
       <c r="F316" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H316" t="s">
         <v>3</v>
       </c>
       <c r="I316" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L316" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B317" t="s">
         <v>1065</v>
       </c>
       <c r="C317" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D317" t="s">
         <v>52</v>
       </c>
       <c r="F317" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H317" t="s">
         <v>3</v>
       </c>
       <c r="I317" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L317" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B318" t="s">
         <v>1065</v>
       </c>
       <c r="C318" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D318" t="s">
         <v>52</v>
       </c>
       <c r="F318" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H318" t="s">
         <v>3</v>
       </c>
       <c r="I318" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L318" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B319" t="s">
-        <v>52</v>
+        <v>1065</v>
       </c>
       <c r="C319" t="s">
-        <v>41</v>
+        <v>1062</v>
       </c>
       <c r="D319" t="s">
         <v>52</v>
       </c>
       <c r="F319" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H319" t="s">
         <v>3</v>
       </c>
-      <c r="K319" t="s">
-        <v>42</v>
+      <c r="I319" t="s">
+        <v>331</v>
       </c>
       <c r="L319" t="s">
-        <v>1038</v>
+        <v>912</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B320" t="s">
-        <v>1065</v>
+        <v>52</v>
       </c>
       <c r="C320" t="s">
-        <v>1063</v>
+        <v>41</v>
       </c>
       <c r="D320" t="s">
         <v>52</v>
       </c>
       <c r="F320" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H320" t="s">
         <v>3</v>
       </c>
-      <c r="I320" t="s">
-        <v>334</v>
+      <c r="K320" t="s">
+        <v>42</v>
       </c>
       <c r="L320" t="s">
-        <v>913</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B321" t="s">
         <v>1065</v>
       </c>
       <c r="C321" t="s">
-        <v>1052</v>
+        <v>1063</v>
       </c>
       <c r="D321" t="s">
         <v>52</v>
       </c>
       <c r="F321" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="H321" t="s">
         <v>3</v>
       </c>
       <c r="I321" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L321" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B322" t="s">
         <v>1065</v>
       </c>
       <c r="C322" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="D322" t="s">
         <v>52</v>
       </c>
       <c r="F322" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="H322" t="s">
         <v>3</v>
       </c>
       <c r="I322" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L322" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B323" t="s">
         <v>1065</v>
       </c>
       <c r="C323" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="D323" t="s">
         <v>52</v>
       </c>
       <c r="F323" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H323" t="s">
         <v>3</v>
       </c>
       <c r="I323" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L323" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B324" t="s">
         <v>1065</v>
       </c>
       <c r="C324" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D324" t="s">
         <v>52</v>
       </c>
       <c r="F324" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H324" t="s">
         <v>3</v>
       </c>
       <c r="I324" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="L324" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B325" t="s">
         <v>1065</v>
       </c>
       <c r="C325" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D325" t="s">
         <v>52</v>
       </c>
       <c r="F325" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H325" t="s">
         <v>3</v>
       </c>
       <c r="I325" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L325" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B326" t="s">
-        <v>1106</v>
+        <v>1065</v>
       </c>
       <c r="C326" t="s">
-        <v>1107</v>
+        <v>1068</v>
       </c>
       <c r="D326" t="s">
-        <v>346</v>
+        <v>52</v>
       </c>
       <c r="F326" t="s">
-        <v>16</v>
-      </c>
-      <c r="G326" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="H326" t="s">
         <v>3</v>
       </c>
       <c r="I326" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L326" t="s">
-        <v>1038</v>
+        <v>918</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>704</v>
+        <v>345</v>
       </c>
       <c r="B327" t="s">
-        <v>1176</v>
+        <v>1106</v>
       </c>
       <c r="C327" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D327" t="s">
-        <v>698</v>
+        <v>346</v>
       </c>
       <c r="F327" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G327" t="s">
-        <v>349</v>
+        <v>2</v>
       </c>
       <c r="H327" t="s">
         <v>3</v>
       </c>
       <c r="I327" t="s">
-        <v>705</v>
+        <v>347</v>
       </c>
       <c r="L327" t="s">
-        <v>1019</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="B328" t="s">
         <v>1176</v>
       </c>
       <c r="C328" t="s">
-        <v>1049</v>
+        <v>1108</v>
       </c>
       <c r="D328" t="s">
         <v>698</v>
@@ -14054,121 +14075,124 @@
       <c r="F328" t="s">
         <v>13</v>
       </c>
+      <c r="G328" t="s">
+        <v>349</v>
+      </c>
       <c r="H328" t="s">
         <v>3</v>
       </c>
       <c r="I328" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="L328" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B329" t="s">
         <v>1176</v>
       </c>
       <c r="C329" t="s">
-        <v>1127</v>
+        <v>1049</v>
       </c>
       <c r="D329" t="s">
         <v>698</v>
       </c>
       <c r="F329" t="s">
-        <v>801</v>
+        <v>13</v>
       </c>
       <c r="H329" t="s">
         <v>3</v>
       </c>
       <c r="I329" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="L329" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="B330" t="s">
         <v>1176</v>
       </c>
       <c r="C330" t="s">
-        <v>1044</v>
+        <v>1127</v>
       </c>
       <c r="D330" t="s">
         <v>698</v>
       </c>
       <c r="F330" t="s">
-        <v>259</v>
-      </c>
-      <c r="G330" t="s">
-        <v>1</v>
+        <v>801</v>
       </c>
       <c r="H330" t="s">
         <v>3</v>
       </c>
       <c r="I330" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="L330" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="B331" t="s">
         <v>1176</v>
       </c>
       <c r="C331" t="s">
-        <v>1177</v>
+        <v>1044</v>
       </c>
       <c r="D331" t="s">
         <v>698</v>
       </c>
       <c r="F331" t="s">
-        <v>799</v>
+        <v>259</v>
       </c>
       <c r="G331" t="s">
-        <v>698</v>
+        <v>1</v>
       </c>
       <c r="H331" t="s">
         <v>3</v>
       </c>
       <c r="I331" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="L331" t="s">
-        <v>1038</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B332" t="s">
         <v>1176</v>
       </c>
       <c r="C332" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D332" t="s">
         <v>698</v>
       </c>
       <c r="F332" t="s">
-        <v>16</v>
+        <v>799</v>
+      </c>
+      <c r="G332" t="s">
+        <v>698</v>
       </c>
       <c r="H332" t="s">
         <v>3</v>
       </c>
       <c r="I332" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L332" t="s">
         <v>1038</v>
@@ -14176,28 +14200,25 @@
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>362</v>
+        <v>708</v>
       </c>
       <c r="B333" t="s">
-        <v>1116</v>
+        <v>1176</v>
       </c>
       <c r="C333" t="s">
-        <v>1052</v>
+        <v>1178</v>
       </c>
       <c r="D333" t="s">
-        <v>363</v>
+        <v>698</v>
       </c>
       <c r="F333" t="s">
         <v>16</v>
       </c>
       <c r="H333" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I333" t="s">
-        <v>364</v>
-      </c>
-      <c r="J333" t="s">
-        <v>365</v>
+        <v>709</v>
       </c>
       <c r="L333" t="s">
         <v>1038</v>
@@ -14205,184 +14226,184 @@
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B334" t="s">
-        <v>1066</v>
+        <v>1116</v>
       </c>
       <c r="C334" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D334" t="s">
-        <v>55</v>
+        <v>363</v>
       </c>
       <c r="F334" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H334" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I334" t="s">
-        <v>367</v>
+        <v>364</v>
+      </c>
+      <c r="J334" t="s">
+        <v>365</v>
       </c>
       <c r="L334" t="s">
-        <v>919</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B335" t="s">
         <v>1066</v>
       </c>
       <c r="C335" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="D335" t="s">
         <v>55</v>
       </c>
       <c r="F335" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H335" t="s">
         <v>3</v>
       </c>
       <c r="I335" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L335" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B336" t="s">
         <v>1066</v>
       </c>
       <c r="C336" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D336" t="s">
         <v>55</v>
       </c>
       <c r="F336" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H336" t="s">
         <v>3</v>
       </c>
       <c r="I336" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L336" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B337" t="s">
         <v>1066</v>
       </c>
       <c r="C337" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D337" t="s">
         <v>55</v>
       </c>
       <c r="F337" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H337" t="s">
         <v>3</v>
       </c>
       <c r="I337" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L337" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B338" t="s">
         <v>1066</v>
       </c>
       <c r="C338" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D338" t="s">
         <v>55</v>
       </c>
       <c r="F338" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H338" t="s">
         <v>3</v>
       </c>
       <c r="I338" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L338" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B339" t="s">
-        <v>55</v>
+        <v>1066</v>
       </c>
       <c r="C339" t="s">
-        <v>41</v>
+        <v>1062</v>
       </c>
       <c r="D339" t="s">
         <v>55</v>
       </c>
       <c r="F339" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H339" t="s">
         <v>3</v>
       </c>
-      <c r="K339" t="s">
-        <v>42</v>
+      <c r="I339" t="s">
+        <v>375</v>
       </c>
       <c r="L339" t="s">
-        <v>1038</v>
+        <v>923</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>725</v>
+        <v>376</v>
       </c>
       <c r="B340" t="s">
-        <v>1181</v>
+        <v>55</v>
       </c>
       <c r="C340" t="s">
-        <v>1182</v>
+        <v>41</v>
       </c>
       <c r="D340" t="s">
         <v>55</v>
       </c>
       <c r="F340" t="s">
-        <v>799</v>
-      </c>
-      <c r="G340" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H340" t="s">
         <v>3</v>
       </c>
-      <c r="I340" t="s">
-        <v>726</v>
+      <c r="K340" t="s">
+        <v>42</v>
       </c>
       <c r="L340" t="s">
         <v>1038</v>
@@ -14390,528 +14411,525 @@
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>377</v>
+        <v>725</v>
       </c>
       <c r="B341" t="s">
-        <v>1066</v>
+        <v>1181</v>
       </c>
       <c r="C341" t="s">
-        <v>1063</v>
+        <v>1182</v>
       </c>
       <c r="D341" t="s">
         <v>55</v>
       </c>
       <c r="F341" t="s">
-        <v>44</v>
+        <v>799</v>
+      </c>
+      <c r="G341" t="s">
+        <v>55</v>
       </c>
       <c r="H341" t="s">
         <v>3</v>
       </c>
       <c r="I341" t="s">
-        <v>378</v>
+        <v>726</v>
       </c>
       <c r="L341" t="s">
-        <v>924</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B342" t="s">
         <v>1066</v>
       </c>
       <c r="C342" t="s">
-        <v>1052</v>
+        <v>1063</v>
       </c>
       <c r="D342" t="s">
         <v>55</v>
       </c>
       <c r="F342" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="H342" t="s">
         <v>3</v>
       </c>
       <c r="I342" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L342" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B343" t="s">
         <v>1066</v>
       </c>
       <c r="C343" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="D343" t="s">
         <v>55</v>
       </c>
       <c r="F343" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="H343" t="s">
         <v>3</v>
       </c>
       <c r="I343" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L343" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B344" t="s">
         <v>1066</v>
       </c>
       <c r="C344" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D344" t="s">
         <v>55</v>
       </c>
       <c r="F344" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H344" t="s">
         <v>3</v>
       </c>
       <c r="I344" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L344" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B345" t="s">
         <v>1066</v>
       </c>
       <c r="C345" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="D345" t="s">
         <v>55</v>
       </c>
       <c r="F345" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H345" t="s">
         <v>3</v>
       </c>
       <c r="I345" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L345" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B346" t="s">
         <v>1066</v>
       </c>
       <c r="C346" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D346" t="s">
         <v>55</v>
       </c>
       <c r="F346" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H346" t="s">
         <v>3</v>
       </c>
       <c r="I346" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L346" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B347" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C347" t="s">
-        <v>1051</v>
+        <v>1068</v>
       </c>
       <c r="D347" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F347" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="H347" t="s">
         <v>3</v>
       </c>
       <c r="I347" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L347" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B348" t="s">
         <v>1067</v>
       </c>
       <c r="C348" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="D348" t="s">
         <v>58</v>
       </c>
       <c r="F348" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H348" t="s">
         <v>3</v>
       </c>
       <c r="I348" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="L348" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B349" t="s">
         <v>1067</v>
       </c>
       <c r="C349" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D349" t="s">
         <v>58</v>
       </c>
       <c r="F349" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H349" t="s">
         <v>3</v>
       </c>
       <c r="I349" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L349" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B350" t="s">
         <v>1067</v>
       </c>
       <c r="C350" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D350" t="s">
         <v>58</v>
       </c>
       <c r="F350" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H350" t="s">
         <v>3</v>
       </c>
       <c r="I350" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L350" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B351" t="s">
         <v>1067</v>
       </c>
       <c r="C351" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D351" t="s">
         <v>58</v>
       </c>
       <c r="F351" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H351" t="s">
         <v>3</v>
       </c>
       <c r="I351" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="L351" t="s">
-        <v>1038</v>
+        <v>933</v>
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B352" t="s">
-        <v>58</v>
+        <v>1067</v>
       </c>
       <c r="C352" t="s">
-        <v>41</v>
+        <v>1062</v>
       </c>
       <c r="D352" t="s">
         <v>58</v>
       </c>
       <c r="F352" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H352" t="s">
         <v>3</v>
       </c>
-      <c r="K352" t="s">
-        <v>42</v>
+      <c r="I352" t="s">
+        <v>398</v>
       </c>
       <c r="L352" t="s">
-        <v>934</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B353" t="s">
-        <v>1067</v>
+        <v>58</v>
       </c>
       <c r="C353" t="s">
-        <v>1063</v>
+        <v>41</v>
       </c>
       <c r="D353" t="s">
         <v>58</v>
       </c>
       <c r="F353" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H353" t="s">
         <v>3</v>
       </c>
-      <c r="I353" t="s">
-        <v>401</v>
+      <c r="K353" t="s">
+        <v>42</v>
       </c>
       <c r="L353" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B354" t="s">
         <v>1067</v>
       </c>
       <c r="C354" t="s">
-        <v>1052</v>
+        <v>1063</v>
       </c>
       <c r="D354" t="s">
         <v>58</v>
       </c>
       <c r="F354" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="H354" t="s">
         <v>3</v>
       </c>
       <c r="I354" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="L354" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B355" t="s">
         <v>1067</v>
       </c>
       <c r="C355" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="D355" t="s">
         <v>58</v>
       </c>
       <c r="F355" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="H355" t="s">
         <v>3</v>
       </c>
       <c r="I355" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L355" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B356" t="s">
         <v>1067</v>
       </c>
       <c r="C356" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D356" t="s">
         <v>58</v>
       </c>
       <c r="F356" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H356" t="s">
         <v>3</v>
       </c>
       <c r="I356" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L356" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B357" t="s">
         <v>1067</v>
       </c>
       <c r="C357" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D357" t="s">
         <v>58</v>
       </c>
       <c r="F357" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H357" t="s">
         <v>3</v>
       </c>
       <c r="I357" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L357" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B358" t="s">
         <v>1067</v>
       </c>
       <c r="C358" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="D358" t="s">
         <v>58</v>
       </c>
       <c r="F358" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H358" t="s">
         <v>3</v>
       </c>
       <c r="I358" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="L358" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B359" t="s">
-        <v>1118</v>
+        <v>1067</v>
       </c>
       <c r="C359" t="s">
-        <v>16</v>
+        <v>1068</v>
       </c>
       <c r="D359" t="s">
-        <v>288</v>
-      </c>
-      <c r="E359" t="s">
-        <v>798</v>
+        <v>58</v>
       </c>
       <c r="F359" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="H359" t="s">
-        <v>6</v>
-      </c>
-      <c r="K359" t="s">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="I359" t="s">
+        <v>411</v>
       </c>
       <c r="L359" t="s">
-        <v>1038</v>
+        <v>940</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
       <c r="B360" t="s">
-        <v>1128</v>
+        <v>1118</v>
       </c>
       <c r="C360" t="s">
-        <v>1129</v>
+        <v>16</v>
       </c>
       <c r="D360" t="s">
         <v>288</v>
       </c>
-      <c r="E360" s="2" t="s">
-        <v>807</v>
+      <c r="E360" t="s">
+        <v>798</v>
       </c>
       <c r="F360" t="s">
-        <v>799</v>
-      </c>
-      <c r="G360" s="2" t="s">
-        <v>807</v>
+        <v>16</v>
       </c>
       <c r="H360" t="s">
-        <v>3</v>
-      </c>
-      <c r="I360" t="s">
-        <v>449</v>
+        <v>6</v>
+      </c>
+      <c r="K360" t="s">
+        <v>42</v>
       </c>
       <c r="L360" t="s">
         <v>1038</v>
@@ -14919,68 +14937,71 @@
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
       <c r="B361" t="s">
-        <v>288</v>
+        <v>1128</v>
       </c>
       <c r="C361" t="s">
-        <v>1052</v>
+        <v>1129</v>
       </c>
       <c r="D361" t="s">
         <v>288</v>
       </c>
+      <c r="E361" s="2" t="s">
+        <v>807</v>
+      </c>
       <c r="F361" t="s">
-        <v>16</v>
+        <v>799</v>
+      </c>
+      <c r="G361" s="2" t="s">
+        <v>807</v>
       </c>
       <c r="H361" t="s">
         <v>3</v>
       </c>
       <c r="I361" t="s">
-        <v>417</v>
+        <v>449</v>
       </c>
       <c r="L361" t="s">
-        <v>941</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B362" t="s">
         <v>288</v>
       </c>
       <c r="C362" t="s">
-        <v>1118</v>
+        <v>1052</v>
       </c>
       <c r="D362" t="s">
         <v>288</v>
       </c>
       <c r="F362" t="s">
-        <v>288</v>
-      </c>
-      <c r="G362" t="s">
-        <v>798</v>
+        <v>16</v>
       </c>
       <c r="H362" t="s">
-        <v>6</v>
-      </c>
-      <c r="K362" t="s">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="I362" t="s">
+        <v>417</v>
       </c>
       <c r="L362" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B363" t="s">
         <v>288</v>
       </c>
       <c r="C363" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D363" t="s">
         <v>288</v>
@@ -14989,7 +15010,7 @@
         <v>288</v>
       </c>
       <c r="G363" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H363" t="s">
         <v>6</v>
@@ -14998,35 +15019,32 @@
         <v>42</v>
       </c>
       <c r="L363" t="s">
-        <v>1038</v>
+        <v>942</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>751</v>
+        <v>419</v>
       </c>
       <c r="B364" t="s">
-        <v>193</v>
+        <v>288</v>
       </c>
       <c r="C364" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D364" s="1" t="s">
-        <v>193</v>
+        <v>1119</v>
+      </c>
+      <c r="D364" t="s">
+        <v>288</v>
       </c>
       <c r="F364" t="s">
-        <v>13</v>
+        <v>288</v>
       </c>
       <c r="G364" t="s">
-        <v>349</v>
+        <v>800</v>
       </c>
       <c r="H364" t="s">
-        <v>3</v>
-      </c>
-      <c r="I364" t="s">
-        <v>752</v>
-      </c>
-      <c r="K364" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K364" t="s">
         <v>42</v>
       </c>
       <c r="L364" t="s">
@@ -15035,13 +15053,13 @@
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="B365" t="s">
         <v>193</v>
       </c>
       <c r="C365" t="s">
-        <v>1049</v>
+        <v>1108</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>193</v>
@@ -15049,11 +15067,14 @@
       <c r="F365" t="s">
         <v>13</v>
       </c>
+      <c r="G365" t="s">
+        <v>349</v>
+      </c>
       <c r="H365" t="s">
         <v>3</v>
       </c>
       <c r="I365" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="K365" s="1" t="s">
         <v>42</v>
@@ -15064,25 +15085,25 @@
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B366" t="s">
         <v>193</v>
       </c>
       <c r="C366" t="s">
-        <v>1127</v>
+        <v>1049</v>
       </c>
       <c r="D366" s="1" t="s">
         <v>193</v>
       </c>
       <c r="F366" t="s">
-        <v>801</v>
+        <v>13</v>
       </c>
       <c r="H366" t="s">
         <v>3</v>
       </c>
       <c r="I366" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="K366" s="1" t="s">
         <v>42</v>
@@ -15093,37 +15114,67 @@
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
+        <v>749</v>
+      </c>
+      <c r="B367" t="s">
+        <v>193</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F367" t="s">
+        <v>801</v>
+      </c>
+      <c r="H367" t="s">
+        <v>3</v>
+      </c>
+      <c r="I367" t="s">
+        <v>750</v>
+      </c>
+      <c r="K367" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L367" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
         <v>66</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B368" t="s">
         <v>1052</v>
       </c>
-      <c r="C367" t="s">
+      <c r="C368" t="s">
         <v>1071</v>
       </c>
-      <c r="D367" t="s">
+      <c r="D368" t="s">
         <v>67</v>
       </c>
-      <c r="F367" t="s">
-        <v>16</v>
-      </c>
-      <c r="H367" t="s">
+      <c r="F368" t="s">
+        <v>16</v>
+      </c>
+      <c r="H368" t="s">
         <v>6</v>
       </c>
-      <c r="I367" t="s">
+      <c r="I368" t="s">
         <v>68</v>
       </c>
-      <c r="J367" t="s">
+      <c r="J368" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M372">
-    <sortCondition ref="D2:D372"/>
-    <sortCondition ref="E2:E372"/>
-    <sortCondition ref="F2:F372"/>
-    <sortCondition ref="G2:G372"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M373">
+    <sortCondition ref="D2:D373"/>
+    <sortCondition ref="E2:E373"/>
+    <sortCondition ref="F2:F373"/>
+    <sortCondition ref="G2:G373"/>
   </sortState>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>